--- a/data/new_posteriors/elementary_skills/simple_model/noleak/constrained/results_model1b_noleak_constrained.xlsx
+++ b/data/new_posteriors/elementary_skills/simple_model/noleak/constrained/results_model1b_noleak_constrained.xlsx
@@ -1570,10 +1570,10 @@
         <v>1.0</v>
       </c>
       <c r="J3" t="n" s="85">
-        <v>1.0895004906535551E-6</v>
+        <v>1.0894584777671702E-6</v>
       </c>
       <c r="K3" t="n" s="85">
-        <v>1.0895004906535551E-6</v>
+        <v>1.0894584777671702E-6</v>
       </c>
       <c r="L3" t="n" s="85">
         <v>1.0</v>
@@ -1603,16 +1603,16 @@
         <v>1.0</v>
       </c>
       <c r="U3" t="n" s="85">
-        <v>1.0603481672057402E-6</v>
+        <v>1.0186673969422303E-6</v>
       </c>
       <c r="V3" t="n" s="85">
         <v>0.005520426861036511</v>
       </c>
       <c r="W3" t="n" s="85">
-        <v>9.441622245400955E-7</v>
+        <v>9.070485182272371E-7</v>
       </c>
       <c r="X3" t="n" s="85">
-        <v>9.441622245400955E-7</v>
+        <v>9.070485182272367E-7</v>
       </c>
       <c r="Y3" t="n" s="85">
         <v>0.36326311183313503</v>
@@ -1627,40 +1627,40 @@
         <v>0.16946059421487553</v>
       </c>
       <c r="AC3" t="n" s="85">
-        <v>2.0913916889885144E-5</v>
+        <v>2.0913920118448712E-5</v>
       </c>
       <c r="AD3" t="n" s="85">
-        <v>2.0913916889885144E-5</v>
+        <v>2.0913920118448712E-5</v>
       </c>
       <c r="AE3" t="n" s="85">
-        <v>2.6562205227615375E-6</v>
+        <v>2.656220932811077E-6</v>
       </c>
       <c r="AF3" t="n" s="85">
-        <v>2.6562205227615375E-6</v>
+        <v>2.656220932811077E-6</v>
       </c>
       <c r="AG3" t="n" s="85">
-        <v>3.757153981692564E-8</v>
+        <v>3.7571545616960976E-8</v>
       </c>
       <c r="AH3" t="n" s="85">
         <v>0.010631683855047666</v>
       </c>
       <c r="AI3" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ3" t="n" s="85">
         <v>0.9988639504366098</v>
       </c>
       <c r="AK3" t="n" s="85">
-        <v>0.9999906588691254</v>
+        <v>0.9999903860442652</v>
       </c>
       <c r="AL3" t="n" s="85">
-        <v>0.9999999948359231</v>
+        <v>0.9999999946937139</v>
       </c>
       <c r="AM3" t="n" s="85">
         <v>0.9989179170266678</v>
       </c>
       <c r="AN3" t="n" s="85">
-        <v>0.9999999784988686</v>
+        <v>0.9999999792841865</v>
       </c>
       <c r="AO3" t="n" s="85">
         <v>1.0</v>
@@ -1695,10 +1695,10 @@
         <v>1.0</v>
       </c>
       <c r="J4" t="n" s="85">
-        <v>5.482469719127525E-7</v>
+        <v>5.482362350379484E-7</v>
       </c>
       <c r="K4" t="n" s="85">
-        <v>5.482469719127525E-7</v>
+        <v>5.482362350379484E-7</v>
       </c>
       <c r="L4" t="n" s="85">
         <v>1.0</v>
@@ -1728,16 +1728,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U4" t="n" s="85">
-        <v>6.895585607895072E-6</v>
+        <v>6.857918066556697E-6</v>
       </c>
       <c r="V4" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W4" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="X4" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="Y4" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -1752,16 +1752,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC4" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD4" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE4" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF4" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG4" t="n" s="85">
         <v>1.0</v>
@@ -1770,22 +1770,22 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI4" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ4" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK4" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL4" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM4" t="n" s="85">
         <v>0.9997133626502709</v>
       </c>
       <c r="AN4" t="n" s="85">
-        <v>0.9999999999857203</v>
+        <v>0.9999999999866398</v>
       </c>
       <c r="AO4" t="n" s="85">
         <v>1.0</v>
@@ -1820,10 +1820,10 @@
         <v>1.0</v>
       </c>
       <c r="J5" t="n" s="85">
-        <v>5.132585899083064E-5</v>
+        <v>5.1324853875675555E-5</v>
       </c>
       <c r="K5" t="n" s="85">
-        <v>5.132585899083064E-5</v>
+        <v>5.1324853875675555E-5</v>
       </c>
       <c r="L5" t="n" s="85">
         <v>1.0</v>
@@ -1853,16 +1853,16 @@
         <v>0.016511228067222595</v>
       </c>
       <c r="U5" t="n" s="85">
-        <v>8.996216068995476E-6</v>
+        <v>8.947073813066908E-6</v>
       </c>
       <c r="V5" t="n" s="85">
         <v>0.012258601874451821</v>
       </c>
       <c r="W5" t="n" s="85">
-        <v>8.018531099255349E-6</v>
+        <v>7.974729405505125E-6</v>
       </c>
       <c r="X5" t="n" s="85">
-        <v>8.018531099255349E-6</v>
+        <v>7.974729405505125E-6</v>
       </c>
       <c r="Y5" t="n" s="85">
         <v>0.36296712898219324</v>
@@ -1877,16 +1877,16 @@
         <v>0.17270135755246224</v>
       </c>
       <c r="AC5" t="n" s="85">
-        <v>1.6001377600423862E-4</v>
+        <v>1.6001377987522262E-4</v>
       </c>
       <c r="AD5" t="n" s="85">
-        <v>1.6001377600423857E-4</v>
+        <v>1.6001377987522256E-4</v>
       </c>
       <c r="AE5" t="n" s="85">
-        <v>2.335235947720621E-5</v>
+        <v>2.3352360042198555E-5</v>
       </c>
       <c r="AF5" t="n" s="85">
-        <v>2.335235947720621E-5</v>
+        <v>2.3352360042198555E-5</v>
       </c>
       <c r="AG5" t="n" s="85">
         <v>1.0</v>
@@ -1895,22 +1895,22 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI5" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ5" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK5" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL5" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM5" t="n" s="85">
         <v>0.9999634386555672</v>
       </c>
       <c r="AN5" t="n" s="85">
-        <v>0.9999999999999971</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="AO5" t="n" s="85">
         <v>1.0</v>
@@ -1984,10 +1984,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W6" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X6" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y6" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -2002,16 +2002,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC6" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD6" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE6" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF6" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG6" t="n" s="85">
         <v>1.0</v>
@@ -2020,16 +2020,16 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI6" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ6" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK6" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL6" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM6" t="n" s="85">
         <v>0.9999744279750036</v>
@@ -2070,10 +2070,10 @@
         <v>1.0</v>
       </c>
       <c r="J7" t="n" s="85">
-        <v>3.6470306332993776E-5</v>
+        <v>3.646959212376467E-5</v>
       </c>
       <c r="K7" t="n" s="85">
-        <v>3.6470306332993776E-5</v>
+        <v>3.646959212376467E-5</v>
       </c>
       <c r="L7" t="n" s="85">
         <v>1.0</v>
@@ -2109,10 +2109,10 @@
         <v>0.004816509271477618</v>
       </c>
       <c r="W7" t="n" s="85">
-        <v>2.6673686395884693E-6</v>
+        <v>2.702197033796305E-6</v>
       </c>
       <c r="X7" t="n" s="85">
-        <v>2.6673686395884697E-6</v>
+        <v>2.7021970337963053E-6</v>
       </c>
       <c r="Y7" t="n" s="85">
         <v>0.26206922360453</v>
@@ -2127,40 +2127,40 @@
         <v>0.12080363525376908</v>
       </c>
       <c r="AC7" t="n" s="85">
-        <v>5.225382169667064E-5</v>
+        <v>5.337128309692656E-5</v>
       </c>
       <c r="AD7" t="n" s="85">
-        <v>5.2253821696670635E-5</v>
+        <v>5.3371283096926545E-5</v>
       </c>
       <c r="AE7" t="n" s="85">
-        <v>7.625472236975629E-6</v>
+        <v>7.788548001730791E-6</v>
       </c>
       <c r="AF7" t="n" s="85">
-        <v>7.625472236975631E-6</v>
+        <v>7.788548001730793E-6</v>
       </c>
       <c r="AG7" t="n" s="85">
-        <v>7.484899577486952E-8</v>
+        <v>7.644969591600491E-8</v>
       </c>
       <c r="AH7" t="n" s="85">
         <v>0.011046708303299065</v>
       </c>
       <c r="AI7" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ7" t="n" s="85">
         <v>0.9991274378874396</v>
       </c>
       <c r="AK7" t="n" s="85">
-        <v>0.9999984732404491</v>
+        <v>0.9999983599308035</v>
       </c>
       <c r="AL7" t="n" s="85">
-        <v>0.9999999999898244</v>
+        <v>0.9999999999892569</v>
       </c>
       <c r="AM7" t="n" s="85">
         <v>0.9999264291745467</v>
       </c>
       <c r="AN7" t="n" s="85">
-        <v>0.9999999999997343</v>
+        <v>0.9999999999997514</v>
       </c>
       <c r="AO7" t="n" s="85">
         <v>1.0</v>
@@ -2195,10 +2195,10 @@
         <v>1.0</v>
       </c>
       <c r="J8" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="K8" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="L8" t="n" s="85">
         <v>1.0</v>
@@ -2228,16 +2228,16 @@
         <v>0.0016108314648964862</v>
       </c>
       <c r="U8" t="n" s="85">
-        <v>5.95776469769375E-7</v>
+        <v>5.801158413367406E-7</v>
       </c>
       <c r="V8" t="n" s="85">
         <v>0.0026108272062360985</v>
       </c>
       <c r="W8" t="n" s="85">
-        <v>9.506308948292502E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="X8" t="n" s="85">
-        <v>9.506308948292503E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="Y8" t="n" s="85">
         <v>0.2180821619662109</v>
@@ -2252,52 +2252,52 @@
         <v>0.09730750578087043</v>
       </c>
       <c r="AC8" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.226930622300881E-5</v>
       </c>
       <c r="AD8" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.2269306223008817E-5</v>
       </c>
       <c r="AE8" t="n" s="85">
-        <v>2.8283631772555973E-6</v>
+        <v>2.8283634787157663E-6</v>
       </c>
       <c r="AF8" t="n" s="85">
-        <v>2.8283631772555965E-6</v>
+        <v>2.8283634787157655E-6</v>
       </c>
       <c r="AG8" t="n" s="85">
-        <v>2.1396434598395317E-8</v>
+        <v>2.139643687892442E-8</v>
       </c>
       <c r="AH8" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI8" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ8" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK8" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL8" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM8" t="n" s="85">
         <v>0.9993744113189219</v>
       </c>
       <c r="AN8" t="n" s="85">
-        <v>0.9999999998137815</v>
+        <v>0.9999999998257707</v>
       </c>
       <c r="AO8" t="n" s="85">
-        <v>0.9999999999999925</v>
+        <v>0.9999999999999938</v>
       </c>
       <c r="AP8" t="n" s="85">
         <v>0.9804205571019377</v>
       </c>
       <c r="AQ8" t="n" s="85">
-        <v>0.9999941686315756</v>
+        <v>0.9999945438180353</v>
       </c>
       <c r="AR8" t="n" s="85">
-        <v>0.9999999077974591</v>
+        <v>0.9999999157766702</v>
       </c>
     </row>
     <row r="9">
@@ -2359,10 +2359,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W9" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="X9" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="Y9" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -2377,16 +2377,16 @@
         <v>0.14653757841843018</v>
       </c>
       <c r="AC9" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AD9" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AE9" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AF9" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AG9" t="n" s="85">
         <v>1.0</v>
@@ -2395,16 +2395,16 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI9" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ9" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK9" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL9" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM9" t="n" s="85">
         <v>0.9999845703437606</v>
@@ -2445,10 +2445,10 @@
         <v>0.0016097466635500203</v>
       </c>
       <c r="J10" t="n" s="85">
-        <v>3.2809719337445896E-6</v>
+        <v>3.280907679329285E-6</v>
       </c>
       <c r="K10" t="n" s="85">
-        <v>3.2809719337445896E-6</v>
+        <v>3.280907679329285E-6</v>
       </c>
       <c r="L10" t="n" s="85">
         <v>1.0</v>
@@ -2484,10 +2484,10 @@
         <v>0.004057158004260733</v>
       </c>
       <c r="W10" t="n" s="85">
-        <v>3.194999504941904E-6</v>
+        <v>3.203715924393139E-6</v>
       </c>
       <c r="X10" t="n" s="85">
-        <v>3.194999504941904E-6</v>
+        <v>3.203715924393139E-6</v>
       </c>
       <c r="Y10" t="n" s="85">
         <v>0.23039493774313574</v>
@@ -2502,16 +2502,16 @@
         <v>0.14086491017305847</v>
       </c>
       <c r="AC10" t="n" s="85">
-        <v>5.603201983448569E-5</v>
+        <v>5.627773952082959E-5</v>
       </c>
       <c r="AD10" t="n" s="85">
-        <v>5.603201983448569E-5</v>
+        <v>5.627773952082959E-5</v>
       </c>
       <c r="AE10" t="n" s="85">
-        <v>8.369940556308919E-6</v>
+        <v>8.406646378267773E-6</v>
       </c>
       <c r="AF10" t="n" s="85">
-        <v>8.369940556308919E-6</v>
+        <v>8.406646378267773E-6</v>
       </c>
       <c r="AG10" t="n" s="85">
         <v>1.0</v>
@@ -2520,22 +2520,22 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI10" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ10" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK10" t="n" s="85">
-        <v>0.9999986664649917</v>
+        <v>0.9999985674404415</v>
       </c>
       <c r="AL10" t="n" s="85">
-        <v>0.9999999999960908</v>
+        <v>0.9999999999958727</v>
       </c>
       <c r="AM10" t="n" s="85">
         <v>0.9998904968932578</v>
       </c>
       <c r="AN10" t="n" s="85">
-        <v>0.999999999999641</v>
+        <v>0.9999999999996642</v>
       </c>
       <c r="AO10" t="n" s="85">
         <v>1.0</v>
@@ -2609,10 +2609,10 @@
         <v>0.0037963405796699683</v>
       </c>
       <c r="W11" t="n" s="85">
-        <v>2.2396133734919676E-6</v>
+        <v>2.245723367638503E-6</v>
       </c>
       <c r="X11" t="n" s="85">
-        <v>2.2396133734919676E-6</v>
+        <v>2.245723367638503E-6</v>
       </c>
       <c r="Y11" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -2627,16 +2627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC11" t="n" s="85">
-        <v>4.346574716333924E-5</v>
+        <v>4.3656361826170374E-5</v>
       </c>
       <c r="AD11" t="n" s="85">
-        <v>4.346574716333924E-5</v>
+        <v>4.3656361826170374E-5</v>
       </c>
       <c r="AE11" t="n" s="85">
-        <v>6.443948149792241E-6</v>
+        <v>6.472207713819551E-6</v>
       </c>
       <c r="AF11" t="n" s="85">
-        <v>6.443948149792241E-6</v>
+        <v>6.472207713819551E-6</v>
       </c>
       <c r="AG11" t="n" s="85">
         <v>1.0</v>
@@ -2645,22 +2645,22 @@
         <v>0.01782122575434258</v>
       </c>
       <c r="AI11" t="n" s="85">
-        <v>1.9259459490402625E-4</v>
+        <v>1.9343914612342296E-4</v>
       </c>
       <c r="AJ11" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK11" t="n" s="85">
-        <v>0.9999962581098016</v>
+        <v>0.9999960759841163</v>
       </c>
       <c r="AL11" t="n" s="85">
-        <v>0.9999999976271507</v>
+        <v>0.9999999975397255</v>
       </c>
       <c r="AM11" t="n" s="85">
         <v>0.9999733663354602</v>
       </c>
       <c r="AN11" t="n" s="85">
-        <v>0.9999999999991208</v>
+        <v>0.9999999999991591</v>
       </c>
       <c r="AO11" t="n" s="85">
         <v>1.0</v>
@@ -2695,10 +2695,10 @@
         <v>1.0</v>
       </c>
       <c r="J12" t="n" s="85">
-        <v>7.403856142365976E-5</v>
+        <v>7.403711155820515E-5</v>
       </c>
       <c r="K12" t="n" s="85">
-        <v>7.403856142365976E-5</v>
+        <v>7.403711155820515E-5</v>
       </c>
       <c r="L12" t="n" s="85">
         <v>1.0</v>
@@ -2734,10 +2734,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W12" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="X12" t="n" s="85">
-        <v>3.3765298913884204E-6</v>
+        <v>3.3857415502385035E-6</v>
       </c>
       <c r="Y12" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -2752,16 +2752,16 @@
         <v>0.14653757841843018</v>
       </c>
       <c r="AC12" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AD12" t="n" s="85">
-        <v>5.9215504356487883E-5</v>
+        <v>5.947518388746658E-5</v>
       </c>
       <c r="AE12" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AF12" t="n" s="85">
-        <v>8.8454945012725E-6</v>
+        <v>8.884285815145719E-6</v>
       </c>
       <c r="AG12" t="n" s="85">
         <v>1.0</v>
@@ -2770,16 +2770,16 @@
         <v>0.01962615793400581</v>
       </c>
       <c r="AI12" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ12" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK12" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL12" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM12" t="n" s="85">
         <v>0.9999845703437606</v>
@@ -2859,10 +2859,10 @@
         <v>0.00425846305469567</v>
       </c>
       <c r="W13" t="n" s="85">
-        <v>3.4022874760128325E-6</v>
+        <v>3.395024983560826E-6</v>
       </c>
       <c r="X13" t="n" s="85">
-        <v>3.4022874760128325E-6</v>
+        <v>3.395024983560826E-6</v>
       </c>
       <c r="Y13" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -2877,16 +2877,16 @@
         <v>0.13910591792070565</v>
       </c>
       <c r="AC13" t="n" s="85">
-        <v>5.3231330554480976E-5</v>
+        <v>5.309710841433242E-5</v>
       </c>
       <c r="AD13" t="n" s="85">
-        <v>5.3231330554480956E-5</v>
+        <v>5.30971084143324E-5</v>
       </c>
       <c r="AE13" t="n" s="85">
-        <v>8.265710582187012E-6</v>
+        <v>8.24486845380321E-6</v>
       </c>
       <c r="AF13" t="n" s="85">
-        <v>8.265710582187012E-6</v>
+        <v>8.24486845380321E-6</v>
       </c>
       <c r="AG13" t="n" s="85">
         <v>1.0</v>
@@ -2895,22 +2895,22 @@
         <v>0.025859093693606866</v>
       </c>
       <c r="AI13" t="n" s="85">
-        <v>2.1281261998789397E-4</v>
+        <v>2.122760442640536E-4</v>
       </c>
       <c r="AJ13" t="n" s="85">
         <v>0.9991493793904361</v>
       </c>
       <c r="AK13" t="n" s="85">
-        <v>0.9998336907601908</v>
+        <v>0.9998363774353048</v>
       </c>
       <c r="AL13" t="n" s="85">
-        <v>0.9903728368646025</v>
+        <v>0.9904638664745837</v>
       </c>
       <c r="AM13" t="n" s="85">
         <v>0.9999805638002275</v>
       </c>
       <c r="AN13" t="n" s="85">
-        <v>0.9999999988578827</v>
+        <v>0.9999999988503425</v>
       </c>
       <c r="AO13" t="n" s="85">
         <v>1.0</v>
@@ -2984,7 +2984,7 @@
         <v>0.0035127856847350907</v>
       </c>
       <c r="W14" t="n" s="85">
-        <v>2.09258636290494E-6</v>
+        <v>2.099159097144093E-6</v>
       </c>
       <c r="X14" t="n" s="85">
         <v>1.0</v>
@@ -3002,16 +3002,16 @@
         <v>0.10474364255508287</v>
       </c>
       <c r="AC14" t="n" s="85">
-        <v>4.0197164037856434E-5</v>
+        <v>4.035559350784089E-5</v>
       </c>
       <c r="AD14" t="n" s="85">
-        <v>4.019716403785644E-5</v>
+        <v>4.035559350784089E-5</v>
       </c>
       <c r="AE14" t="n" s="85">
-        <v>6.025977604714368E-6</v>
+        <v>6.049728009454543E-6</v>
       </c>
       <c r="AF14" t="n" s="85">
-        <v>6.025977604714368E-6</v>
+        <v>6.049728009454543E-6</v>
       </c>
       <c r="AG14" t="n" s="85">
         <v>1.0</v>
@@ -3020,7 +3020,7 @@
         <v>0.013292914877436937</v>
       </c>
       <c r="AI14" t="n" s="85">
-        <v>1.445807357712683E-4</v>
+        <v>1.4515056337775998E-4</v>
       </c>
       <c r="AJ14" t="n" s="85">
         <v>0.9993100600201867</v>
@@ -3044,10 +3044,10 @@
         <v>0.99551792803615</v>
       </c>
       <c r="AQ14" t="n" s="85">
-        <v>0.9996015373485535</v>
+        <v>0.9996012369478514</v>
       </c>
       <c r="AR14" t="n" s="85">
-        <v>0.9905110934284129</v>
+        <v>0.9904881173136237</v>
       </c>
     </row>
     <row r="15">
@@ -3070,10 +3070,10 @@
         <v>1.0</v>
       </c>
       <c r="J15" t="n" s="85">
-        <v>5.181266627961935E-7</v>
+        <v>5.181066829896294E-7</v>
       </c>
       <c r="K15" t="n" s="85">
-        <v>5.181266627961935E-7</v>
+        <v>5.181066829896294E-7</v>
       </c>
       <c r="L15" t="n" s="85">
         <v>1.0</v>
@@ -3103,16 +3103,16 @@
         <v>0.0049335965480433565</v>
       </c>
       <c r="U15" t="n" s="85">
-        <v>5.811486525781718E-6</v>
+        <v>5.752226338307416E-6</v>
       </c>
       <c r="V15" t="n" s="85">
         <v>0.007572638394110116</v>
       </c>
       <c r="W15" t="n" s="85">
-        <v>8.887165003006089E-6</v>
+        <v>8.796542059765751E-6</v>
       </c>
       <c r="X15" t="n" s="85">
-        <v>8.887165003006089E-6</v>
+        <v>8.796542059765751E-6</v>
       </c>
       <c r="Y15" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -3127,16 +3127,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC15" t="n" s="85">
-        <v>7.46355386780963E-5</v>
+        <v>7.463554202441363E-5</v>
       </c>
       <c r="AD15" t="n" s="85">
-        <v>7.46355386780963E-5</v>
+        <v>7.463554202441363E-5</v>
       </c>
       <c r="AE15" t="n" s="85">
-        <v>1.0371660280520822E-5</v>
+        <v>1.0371660745556432E-5</v>
       </c>
       <c r="AF15" t="n" s="85">
-        <v>1.0371660280520822E-5</v>
+        <v>1.0371660745556432E-5</v>
       </c>
       <c r="AG15" t="n" s="85">
         <v>1.0</v>
@@ -3145,22 +3145,22 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI15" t="n" s="85">
-        <v>1.1738926438924713E-4</v>
+        <v>1.173892696526621E-4</v>
       </c>
       <c r="AJ15" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK15" t="n" s="85">
-        <v>0.9999919193686365</v>
+        <v>0.9999913216994021</v>
       </c>
       <c r="AL15" t="n" s="85">
-        <v>0.9999998370612643</v>
+        <v>0.9999998279637463</v>
       </c>
       <c r="AM15" t="n" s="85">
         <v>0.9997133626502709</v>
       </c>
       <c r="AN15" t="n" s="85">
-        <v>0.9999999814844865</v>
+        <v>0.9999999826755317</v>
       </c>
       <c r="AO15" t="n" s="85">
         <v>1.0</v>
@@ -3234,10 +3234,10 @@
         <v>0.004982639266550232</v>
       </c>
       <c r="W16" t="n" s="85">
-        <v>3.6385012219650027E-6</v>
+        <v>3.648427573650339E-6</v>
       </c>
       <c r="X16" t="n" s="85">
-        <v>3.6385012219650027E-6</v>
+        <v>3.648427573650339E-6</v>
       </c>
       <c r="Y16" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -3252,16 +3252,16 @@
         <v>0.13910591792070565</v>
       </c>
       <c r="AC16" t="n" s="85">
-        <v>5.905539800689271E-5</v>
+        <v>5.931437546033276E-5</v>
       </c>
       <c r="AD16" t="n" s="85">
-        <v>5.9055398006892685E-5</v>
+        <v>5.931437546033275E-5</v>
       </c>
       <c r="AE16" t="n" s="85">
-        <v>8.821572314520827E-6</v>
+        <v>8.860258720202356E-6</v>
       </c>
       <c r="AF16" t="n" s="85">
-        <v>8.821572314520827E-6</v>
+        <v>8.860258720202356E-6</v>
       </c>
       <c r="AG16" t="n" s="85">
         <v>1.0</v>
@@ -3270,7 +3270,7 @@
         <v>0.01912755094291193</v>
       </c>
       <c r="AI16" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ16" t="n" s="85">
         <v>0.9993100600201867</v>
@@ -3297,7 +3297,7 @@
         <v>0.9999999999999456</v>
       </c>
       <c r="AR16" t="n" s="85">
-        <v>0.9999999997088633</v>
+        <v>0.9999999997083523</v>
       </c>
     </row>
     <row r="17">
@@ -3353,16 +3353,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U17" t="n" s="85">
-        <v>1.1803321600224584E-5</v>
+        <v>1.2153660721638994E-5</v>
       </c>
       <c r="V17" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W17" t="n" s="85">
-        <v>1.8050076740002097E-5</v>
+        <v>1.8585825539471777E-5</v>
       </c>
       <c r="X17" t="n" s="85">
-        <v>1.8050076740002097E-5</v>
+        <v>1.8585825539471777E-5</v>
       </c>
       <c r="Y17" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -3377,16 +3377,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC17" t="n" s="85">
-        <v>1.5015774052862184E-4</v>
+        <v>1.501577154442928E-4</v>
       </c>
       <c r="AD17" t="n" s="85">
-        <v>1.5015774052862184E-4</v>
+        <v>1.501577154442928E-4</v>
       </c>
       <c r="AE17" t="n" s="85">
-        <v>2.1913846276320666E-5</v>
+        <v>2.1913842615205456E-5</v>
       </c>
       <c r="AF17" t="n" s="85">
-        <v>2.1913846276320666E-5</v>
+        <v>2.1913842615205456E-5</v>
       </c>
       <c r="AG17" t="n" s="85">
         <v>1.0</v>
@@ -3395,22 +3395,22 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI17" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ17" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK17" t="n" s="85">
-        <v>0.9999986664649917</v>
+        <v>0.9999985674404415</v>
       </c>
       <c r="AL17" t="n" s="85">
-        <v>0.9999999999962854</v>
+        <v>0.9999999999960784</v>
       </c>
       <c r="AM17" t="n" s="85">
         <v>0.9998860506821844</v>
       </c>
       <c r="AN17" t="n" s="85">
-        <v>0.9999999999996282</v>
+        <v>0.999999999999652</v>
       </c>
       <c r="AO17" t="n" s="85">
         <v>1.0</v>
@@ -3484,10 +3484,10 @@
         <v>0.006358346196356478</v>
       </c>
       <c r="W18" t="n" s="85">
-        <v>4.392415600633211E-6</v>
+        <v>4.323935644907154E-6</v>
       </c>
       <c r="X18" t="n" s="85">
-        <v>4.392415600633211E-6</v>
+        <v>4.323935644907154E-6</v>
       </c>
       <c r="Y18" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3502,16 +3502,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC18" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD18" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE18" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF18" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG18" t="n" s="85">
         <v>1.0</v>
@@ -3520,16 +3520,16 @@
         <v>0.017324580832454656</v>
       </c>
       <c r="AI18" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ18" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK18" t="n" s="85">
-        <v>0.9999995379719052</v>
+        <v>0.9999995036629694</v>
       </c>
       <c r="AL18" t="n" s="85">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999999545</v>
       </c>
       <c r="AM18" t="n" s="85">
         <v>0.999992230858993</v>
@@ -3609,10 +3609,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W19" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X19" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y19" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3627,16 +3627,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC19" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD19" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE19" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF19" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG19" t="n" s="85">
         <v>1.0</v>
@@ -3645,16 +3645,16 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI19" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ19" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK19" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL19" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM19" t="n" s="85">
         <v>0.9999744279750036</v>
@@ -3695,7 +3695,7 @@
         <v>1.0</v>
       </c>
       <c r="J20" t="n" s="85">
-        <v>1.199964840620925E-6</v>
+        <v>1.199960106661071E-6</v>
       </c>
       <c r="K20" t="n" s="85">
         <v>1.0</v>
@@ -3734,10 +3734,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W20" t="n" s="85">
-        <v>2.9809253900438345E-6</v>
+        <v>2.9890577861802807E-6</v>
       </c>
       <c r="X20" t="n" s="85">
-        <v>2.9809253900438345E-6</v>
+        <v>2.9890577861802807E-6</v>
       </c>
       <c r="Y20" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3752,16 +3752,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC20" t="n" s="85">
-        <v>5.7422424670731266E-5</v>
+        <v>5.7674241409006585E-5</v>
       </c>
       <c r="AD20" t="n" s="85">
-        <v>5.7422424670731225E-5</v>
+        <v>5.767424140900653E-5</v>
       </c>
       <c r="AE20" t="n" s="85">
-        <v>8.577633928602028E-6</v>
+        <v>8.615250568291875E-6</v>
       </c>
       <c r="AF20" t="n" s="85">
-        <v>8.577633928602028E-6</v>
+        <v>8.615250568291875E-6</v>
       </c>
       <c r="AG20" t="n" s="85">
         <v>1.0</v>
@@ -3770,22 +3770,22 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI20" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ20" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK20" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL20" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM20" t="n" s="85">
         <v>0.9999634386555672</v>
       </c>
       <c r="AN20" t="n" s="85">
-        <v>0.9999999999999971</v>
+        <v>0.9999999999999974</v>
       </c>
       <c r="AO20" t="n" s="85">
         <v>1.0</v>
@@ -3859,10 +3859,10 @@
         <v>0.006358346196356478</v>
       </c>
       <c r="W21" t="n" s="85">
-        <v>5.916661478514723E-6</v>
+        <v>5.824417905734578E-6</v>
       </c>
       <c r="X21" t="n" s="85">
-        <v>5.916661478514723E-6</v>
+        <v>5.824417905734578E-6</v>
       </c>
       <c r="Y21" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -3877,16 +3877,16 @@
         <v>0.16053129135546637</v>
       </c>
       <c r="AC21" t="n" s="85">
-        <v>8.822062554150632E-5</v>
+        <v>8.615894147850815E-5</v>
       </c>
       <c r="AD21" t="n" s="85">
-        <v>8.822062554150627E-5</v>
+        <v>8.615894147850808E-5</v>
       </c>
       <c r="AE21" t="n" s="85">
-        <v>1.3178406494511474E-5</v>
+        <v>1.2870418268827279E-5</v>
       </c>
       <c r="AF21" t="n" s="85">
-        <v>1.3178406494511474E-5</v>
+        <v>1.2870418268827279E-5</v>
       </c>
       <c r="AG21" t="n" s="85">
         <v>1.0</v>
@@ -3895,16 +3895,16 @@
         <v>0.02325994819340154</v>
       </c>
       <c r="AI21" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ21" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK21" t="n" s="85">
-        <v>0.9999995379719052</v>
+        <v>0.9999995036629694</v>
       </c>
       <c r="AL21" t="n" s="85">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999999545</v>
       </c>
       <c r="AM21" t="n" s="85">
         <v>0.9999950388597546</v>
@@ -3978,16 +3978,16 @@
         <v>1.0</v>
       </c>
       <c r="U22" t="n" s="85">
-        <v>5.19243670973778E-6</v>
+        <v>5.164072671231425E-6</v>
       </c>
       <c r="V22" t="n" s="85">
         <v>0.004881506241407169</v>
       </c>
       <c r="W22" t="n" s="85">
-        <v>6.769228423276335E-6</v>
+        <v>6.732251072305964E-6</v>
       </c>
       <c r="X22" t="n" s="85">
-        <v>6.769228423276335E-6</v>
+        <v>6.732251072305964E-6</v>
       </c>
       <c r="Y22" t="n" s="85">
         <v>0.2620691910520561</v>
@@ -4002,16 +4002,16 @@
         <v>0.26902041110561364</v>
       </c>
       <c r="AC22" t="n" s="85">
-        <v>1.3296288573257667E-4</v>
+        <v>1.3296288894924427E-4</v>
       </c>
       <c r="AD22" t="n" s="85">
-        <v>1.3296288573257667E-4</v>
+        <v>1.3296288894924427E-4</v>
       </c>
       <c r="AE22" t="n" s="85">
-        <v>1.940428988333501E-5</v>
+        <v>1.940429035280871E-5</v>
       </c>
       <c r="AF22" t="n" s="85">
-        <v>1.940428988333501E-5</v>
+        <v>1.940429035280871E-5</v>
       </c>
       <c r="AG22" t="n" s="85">
         <v>1.0</v>
@@ -4020,16 +4020,16 @@
         <v>0.032099014096388705</v>
       </c>
       <c r="AI22" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ22" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK22" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL22" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM22" t="n" s="85">
         <v>0.9999764198929206</v>
@@ -4109,10 +4109,10 @@
         <v>0.004878750448551474</v>
       </c>
       <c r="W23" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="X23" t="n" s="85">
-        <v>3.367522697156433E-6</v>
+        <v>3.3150212813434456E-6</v>
       </c>
       <c r="Y23" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -4127,16 +4127,16 @@
         <v>0.12183995009215043</v>
       </c>
       <c r="AC23" t="n" s="85">
-        <v>6.549418339542392E-5</v>
+        <v>6.39635740786358E-5</v>
       </c>
       <c r="AD23" t="n" s="85">
-        <v>6.54941833954239E-5</v>
+        <v>6.396357407863573E-5</v>
       </c>
       <c r="AE23" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AF23" t="n" s="85">
-        <v>9.78340595135412E-6</v>
+        <v>9.554760414267163E-6</v>
       </c>
       <c r="AG23" t="n" s="85">
         <v>1.0</v>
@@ -4145,16 +4145,16 @@
         <v>0.013301699728834814</v>
       </c>
       <c r="AI23" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ23" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK23" t="n" s="85">
-        <v>0.9999995379719052</v>
+        <v>0.9999995036629694</v>
       </c>
       <c r="AL23" t="n" s="85">
-        <v>0.9999999999999568</v>
+        <v>0.9999999999999545</v>
       </c>
       <c r="AM23" t="n" s="85">
         <v>0.9999881215995371</v>
@@ -4195,10 +4195,10 @@
         <v>1.0</v>
       </c>
       <c r="J24" t="n" s="85">
-        <v>7.166511799765425E-5</v>
+        <v>7.166371460699528E-5</v>
       </c>
       <c r="K24" t="n" s="85">
-        <v>7.166511799765425E-5</v>
+        <v>7.166371460699528E-5</v>
       </c>
       <c r="L24" t="n" s="85">
         <v>1.0</v>
@@ -4234,10 +4234,10 @@
         <v>0.004881507825755161</v>
       </c>
       <c r="W24" t="n" s="85">
-        <v>6.645488244903782E-6</v>
+        <v>6.73225943509274E-6</v>
       </c>
       <c r="X24" t="n" s="85">
-        <v>6.6454882449037785E-6</v>
+        <v>6.732259435092736E-6</v>
       </c>
       <c r="Y24" t="n" s="85">
         <v>0.26206922360453</v>
@@ -4252,34 +4252,34 @@
         <v>0.2690206569699006</v>
       </c>
       <c r="AC24" t="n" s="85">
-        <v>1.3017936174891044E-4</v>
+        <v>1.3296305925226818E-4</v>
       </c>
       <c r="AD24" t="n" s="85">
-        <v>1.301793617489104E-4</v>
+        <v>1.3296305925226818E-4</v>
       </c>
       <c r="AE24" t="n" s="85">
-        <v>1.8998033812222086E-5</v>
+        <v>1.9404314604963523E-5</v>
       </c>
       <c r="AF24" t="n" s="85">
-        <v>1.8998033812222092E-5</v>
+        <v>1.9404314604963523E-5</v>
       </c>
       <c r="AG24" t="n" s="85">
-        <v>1.8647939304915891E-7</v>
+        <v>1.9046738986392513E-7</v>
       </c>
       <c r="AH24" t="n" s="85">
         <v>0.026990810983679354</v>
       </c>
       <c r="AI24" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ24" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK24" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL24" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM24" t="n" s="85">
         <v>0.9999764198929206</v>
@@ -4320,10 +4320,10 @@
         <v>1.0</v>
       </c>
       <c r="J25" t="n" s="85">
-        <v>5.136741972324778E-5</v>
+        <v>5.1366413794249946E-5</v>
       </c>
       <c r="K25" t="n" s="85">
-        <v>5.136741972324778E-5</v>
+        <v>5.1366413794249946E-5</v>
       </c>
       <c r="L25" t="n" s="85">
         <v>1.0</v>
@@ -4359,10 +4359,10 @@
         <v>0.0038635640393367408</v>
       </c>
       <c r="W25" t="n" s="85">
-        <v>2.2873024693499534E-6</v>
+        <v>2.2935425660542336E-6</v>
       </c>
       <c r="X25" t="n" s="85">
-        <v>2.2873024693499534E-6</v>
+        <v>2.2935425660542336E-6</v>
       </c>
       <c r="Y25" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -4377,16 +4377,16 @@
         <v>0.11077394799749496</v>
       </c>
       <c r="AC25" t="n" s="85">
-        <v>4.38120743920885E-5</v>
+        <v>4.40042077713154E-5</v>
       </c>
       <c r="AD25" t="n" s="85">
-        <v>4.38120743920885E-5</v>
+        <v>4.40042077713154E-5</v>
       </c>
       <c r="AE25" t="n" s="85">
-        <v>6.544520319401277E-6</v>
+        <v>6.5732209339954675E-6</v>
       </c>
       <c r="AF25" t="n" s="85">
-        <v>6.544520319401277E-6</v>
+        <v>6.5732209339954675E-6</v>
       </c>
       <c r="AG25" t="n" s="85">
         <v>1.0</v>
@@ -4395,22 +4395,22 @@
         <v>0.013376990847992914</v>
       </c>
       <c r="AI25" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ25" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK25" t="n" s="85">
-        <v>0.9999989604594058</v>
+        <v>0.999998883309053</v>
       </c>
       <c r="AL25" t="n" s="85">
-        <v>0.9999999999977801</v>
+        <v>0.9999999999976563</v>
       </c>
       <c r="AM25" t="n" s="85">
         <v>0.9999634386555672</v>
       </c>
       <c r="AN25" t="n" s="85">
-        <v>0.9999999999999816</v>
+        <v>0.9999999999999828</v>
       </c>
       <c r="AO25" t="n" s="85">
         <v>1.0</v>
@@ -4478,16 +4478,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U26" t="n" s="85">
-        <v>1.5261836429104734E-6</v>
+        <v>1.571483390968758E-6</v>
       </c>
       <c r="V26" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W26" t="n" s="85">
-        <v>2.356055843307926E-6</v>
+        <v>2.425987650574922E-6</v>
       </c>
       <c r="X26" t="n" s="85">
-        <v>2.356055843307926E-6</v>
+        <v>2.425987650574922E-6</v>
       </c>
       <c r="Y26" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -4502,16 +4502,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC26" t="n" s="85">
-        <v>5.0855676939724985E-5</v>
+        <v>5.0855668443278316E-5</v>
       </c>
       <c r="AD26" t="n" s="85">
-        <v>5.0855676939724985E-5</v>
+        <v>5.0855668443278316E-5</v>
       </c>
       <c r="AE26" t="n" s="85">
-        <v>7.421406218112722E-6</v>
+        <v>7.421404978210943E-6</v>
       </c>
       <c r="AF26" t="n" s="85">
-        <v>7.421406218112722E-6</v>
+        <v>7.421404978210943E-6</v>
       </c>
       <c r="AG26" t="n" s="85">
         <v>1.0</v>
@@ -4520,22 +4520,22 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI26" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ26" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK26" t="n" s="85">
-        <v>0.9998229729229555</v>
+        <v>0.9998322087282361</v>
       </c>
       <c r="AL26" t="n" s="85">
-        <v>0.9999550940711023</v>
+        <v>0.9999562989335267</v>
       </c>
       <c r="AM26" t="n" s="85">
         <v>0.9991759405673402</v>
       </c>
       <c r="AN26" t="n" s="85">
-        <v>0.999997080471066</v>
+        <v>0.999997017559958</v>
       </c>
       <c r="AO26" t="n" s="85">
         <v>1.0</v>
@@ -4603,13 +4603,13 @@
         <v>0.0028612132900066836</v>
       </c>
       <c r="U27" t="n" s="85">
-        <v>1.5908186511545952E-6</v>
+        <v>1.5993210106980958E-6</v>
       </c>
       <c r="V27" t="n" s="85">
         <v>0.004328314392962408</v>
       </c>
       <c r="W27" t="n" s="85">
-        <v>2.4891983162325703E-6</v>
+        <v>2.5025021871873766E-6</v>
       </c>
       <c r="X27" t="n" s="85">
         <v>1.0</v>
@@ -4627,16 +4627,16 @@
         <v>0.10001751850185239</v>
       </c>
       <c r="AC27" t="n" s="85">
-        <v>4.065895665484903E-5</v>
+        <v>4.099310687815802E-5</v>
       </c>
       <c r="AD27" t="n" s="85">
-        <v>4.065895665484903E-5</v>
+        <v>4.099310687815802E-5</v>
       </c>
       <c r="AE27" t="n" s="85">
-        <v>6.027826243005417E-6</v>
+        <v>6.077365505227493E-6</v>
       </c>
       <c r="AF27" t="n" s="85">
-        <v>6.027826243005417E-6</v>
+        <v>6.07736550522749E-6</v>
       </c>
       <c r="AG27" t="n" s="85">
         <v>1.0</v>
@@ -4645,34 +4645,34 @@
         <v>0.015597864729333511</v>
       </c>
       <c r="AI27" t="n" s="85">
-        <v>1.3760169977477407E-4</v>
+        <v>1.3873254887914618E-4</v>
       </c>
       <c r="AJ27" t="n" s="85">
         <v>0.9992488414630909</v>
       </c>
       <c r="AK27" t="n" s="85">
-        <v>0.9999189490606646</v>
+        <v>0.9999202937409425</v>
       </c>
       <c r="AL27" t="n" s="85">
-        <v>0.9858581368333993</v>
+        <v>0.9859965881844409</v>
       </c>
       <c r="AM27" t="n" s="85">
         <v>0.9999482581338422</v>
       </c>
       <c r="AN27" t="n" s="85">
-        <v>0.999999335452817</v>
+        <v>0.9999993313239395</v>
       </c>
       <c r="AO27" t="n" s="85">
-        <v>0.9984959663502471</v>
+        <v>0.9984969218229184</v>
       </c>
       <c r="AP27" t="n" s="85">
         <v>0.9989221244760783</v>
       </c>
       <c r="AQ27" t="n" s="85">
-        <v>0.9999136329211236</v>
+        <v>0.9999135564976461</v>
       </c>
       <c r="AR27" t="n" s="85">
-        <v>0.968153470618509</v>
+        <v>0.9678225107481608</v>
       </c>
     </row>
     <row r="28">
@@ -4695,10 +4695,10 @@
         <v>1.0</v>
       </c>
       <c r="J28" t="n" s="85">
-        <v>3.470163306943727E-5</v>
+        <v>3.4700953495478845E-5</v>
       </c>
       <c r="K28" t="n" s="85">
-        <v>3.470163306943727E-5</v>
+        <v>3.4700953495478845E-5</v>
       </c>
       <c r="L28" t="n" s="85">
         <v>1.0</v>
@@ -4734,10 +4734,10 @@
         <v>0.004816509271477618</v>
       </c>
       <c r="W28" t="n" s="85">
-        <v>2.6673686395884693E-6</v>
+        <v>2.702197033796305E-6</v>
       </c>
       <c r="X28" t="n" s="85">
-        <v>2.6673686395884697E-6</v>
+        <v>2.7021970337963053E-6</v>
       </c>
       <c r="Y28" t="n" s="85">
         <v>0.26206922360453</v>
@@ -4752,40 +4752,40 @@
         <v>0.12080363525376908</v>
       </c>
       <c r="AC28" t="n" s="85">
-        <v>5.225382169667064E-5</v>
+        <v>5.337128309692656E-5</v>
       </c>
       <c r="AD28" t="n" s="85">
-        <v>5.2253821696670635E-5</v>
+        <v>5.3371283096926545E-5</v>
       </c>
       <c r="AE28" t="n" s="85">
-        <v>7.625472236975629E-6</v>
+        <v>7.788548001730791E-6</v>
       </c>
       <c r="AF28" t="n" s="85">
-        <v>7.625472236975631E-6</v>
+        <v>7.788548001730793E-6</v>
       </c>
       <c r="AG28" t="n" s="85">
-        <v>7.484899577486952E-8</v>
+        <v>7.644969591600491E-8</v>
       </c>
       <c r="AH28" t="n" s="85">
         <v>0.011046708303299065</v>
       </c>
       <c r="AI28" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ28" t="n" s="85">
         <v>0.999039066803416</v>
       </c>
       <c r="AK28" t="n" s="85">
-        <v>0.9999978313666398</v>
+        <v>0.9999976704199419</v>
       </c>
       <c r="AL28" t="n" s="85">
-        <v>0.9999999999539009</v>
+        <v>0.9999999999513298</v>
       </c>
       <c r="AM28" t="n" s="85">
         <v>0.9998610326545109</v>
       </c>
       <c r="AN28" t="n" s="85">
-        <v>0.9999999999964535</v>
+        <v>0.9999999999966819</v>
       </c>
       <c r="AO28" t="n" s="85">
         <v>1.0</v>
@@ -4820,10 +4820,10 @@
         <v>1.0</v>
       </c>
       <c r="J29" t="n" s="85">
-        <v>2.7121885922925794E-7</v>
+        <v>2.7121354767462654E-7</v>
       </c>
       <c r="K29" t="n" s="85">
-        <v>2.7121885922925794E-7</v>
+        <v>2.7121354767462654E-7</v>
       </c>
       <c r="L29" t="n" s="85">
         <v>0.003872891694281399</v>
@@ -4853,16 +4853,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U29" t="n" s="85">
-        <v>1.765649153154948E-6</v>
+        <v>1.7560041417569195E-6</v>
       </c>
       <c r="V29" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W29" t="n" s="85">
-        <v>2.7001074788408746E-6</v>
+        <v>2.6853579062580568E-6</v>
       </c>
       <c r="X29" t="n" s="85">
-        <v>2.7001074788408746E-6</v>
+        <v>2.6853579062580568E-6</v>
       </c>
       <c r="Y29" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -4877,16 +4877,16 @@
         <v>0.10359707863142073</v>
       </c>
       <c r="AC29" t="n" s="85">
-        <v>3.4470633499921E-5</v>
+        <v>3.4470634333924336E-5</v>
       </c>
       <c r="AD29" t="n" s="85">
-        <v>3.4470633499921E-5</v>
+        <v>3.4470634333924336E-5</v>
       </c>
       <c r="AE29" t="n" s="85">
-        <v>7.863571722829343E-6</v>
+        <v>7.863571913085342E-6</v>
       </c>
       <c r="AF29" t="n" s="85">
-        <v>7.863571722829343E-6</v>
+        <v>7.863571913085342E-6</v>
       </c>
       <c r="AG29" t="n" s="85">
         <v>1.0</v>
@@ -4895,22 +4895,22 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI29" t="n" s="85">
-        <v>2.077096470465536E-4</v>
+        <v>2.0770965207156099E-4</v>
       </c>
       <c r="AJ29" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK29" t="n" s="85">
-        <v>0.9999962083360194</v>
+        <v>0.9999959267784853</v>
       </c>
       <c r="AL29" t="n" s="85">
-        <v>0.9999999996628608</v>
+        <v>0.9999999996440568</v>
       </c>
       <c r="AM29" t="n" s="85">
         <v>0.9982868062978894</v>
       </c>
       <c r="AN29" t="n" s="85">
-        <v>0.999999987938523</v>
+        <v>0.9999999887150332</v>
       </c>
       <c r="AO29" t="n" s="85">
         <v>1.0</v>
@@ -4945,10 +4945,10 @@
         <v>1.0</v>
       </c>
       <c r="J30" t="n" s="85">
-        <v>1.4722568791051664E-7</v>
+        <v>1.47220010646504E-7</v>
       </c>
       <c r="K30" t="n" s="85">
-        <v>1.472256879105166E-7</v>
+        <v>1.4722001064650396E-7</v>
       </c>
       <c r="L30" t="n" s="85">
         <v>1.0</v>
@@ -4978,16 +4978,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U30" t="n" s="85">
-        <v>7.914695263227396E-7</v>
+        <v>7.833988088988176E-7</v>
       </c>
       <c r="V30" t="n" s="85">
         <v>0.002728791648567193</v>
       </c>
       <c r="W30" t="n" s="85">
-        <v>1.2526509327799786E-6</v>
+        <v>1.2398774811590416E-6</v>
       </c>
       <c r="X30" t="n" s="85">
-        <v>1.2526509327799786E-6</v>
+        <v>1.2398774811590416E-6</v>
       </c>
       <c r="Y30" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -5002,16 +5002,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC30" t="n" s="85">
-        <v>2.7294770956204604E-5</v>
+        <v>2.729477218003563E-5</v>
       </c>
       <c r="AD30" t="n" s="85">
-        <v>2.7294770956204604E-5</v>
+        <v>2.729477218003563E-5</v>
       </c>
       <c r="AE30" t="n" s="85">
-        <v>3.7929430458509034E-6</v>
+        <v>3.792943215916748E-6</v>
       </c>
       <c r="AF30" t="n" s="85">
-        <v>3.7929430458509034E-6</v>
+        <v>3.792943215916748E-6</v>
       </c>
       <c r="AG30" t="n" s="85">
         <v>1.0</v>
@@ -5020,34 +5020,34 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI30" t="n" s="85">
-        <v>1.1738926438924713E-4</v>
+        <v>1.173892696526621E-4</v>
       </c>
       <c r="AJ30" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK30" t="n" s="85">
-        <v>0.9990786628236903</v>
+        <v>0.9991233923093007</v>
       </c>
       <c r="AL30" t="n" s="85">
-        <v>0.980229435231773</v>
+        <v>0.9809501329397864</v>
       </c>
       <c r="AM30" t="n" s="85">
         <v>0.9952493154473108</v>
       </c>
       <c r="AN30" t="n" s="85">
-        <v>0.995370210939717</v>
+        <v>0.9953208765981302</v>
       </c>
       <c r="AO30" t="n" s="85">
-        <v>0.9943101170057431</v>
+        <v>0.9943277634648013</v>
       </c>
       <c r="AP30" t="n" s="85">
         <v>0.7014746720593519</v>
       </c>
       <c r="AQ30" t="n" s="85">
-        <v>0.669971360583813</v>
+        <v>0.6698035678443831</v>
       </c>
       <c r="AR30" t="n" s="85">
-        <v>0.004759928963075162</v>
+        <v>0.004592621167787387</v>
       </c>
     </row>
     <row r="31">
@@ -5109,10 +5109,10 @@
         <v>0.004233453605728432</v>
       </c>
       <c r="W31" t="n" s="85">
-        <v>2.8317601782562646E-6</v>
+        <v>2.7876115531741395E-6</v>
       </c>
       <c r="X31" t="n" s="85">
-        <v>2.8317601782562646E-6</v>
+        <v>2.7876115531741395E-6</v>
       </c>
       <c r="Y31" t="n" s="85">
         <v>0.2395496715773915</v>
@@ -5127,16 +5127,16 @@
         <v>0.11077394799749496</v>
       </c>
       <c r="AC31" t="n" s="85">
-        <v>5.01402866824698E-5</v>
+        <v>4.896848276281478E-5</v>
       </c>
       <c r="AD31" t="n" s="85">
-        <v>5.01402866824698E-5</v>
+        <v>4.896848276281478E-5</v>
       </c>
       <c r="AE31" t="n" s="85">
-        <v>7.48982200041989E-6</v>
+        <v>7.314778848932141E-6</v>
       </c>
       <c r="AF31" t="n" s="85">
-        <v>7.48982200041989E-6</v>
+        <v>7.314778848932141E-6</v>
       </c>
       <c r="AG31" t="n" s="85">
         <v>1.0</v>
@@ -5145,16 +5145,16 @@
         <v>0.014604180310559016</v>
       </c>
       <c r="AI31" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ31" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK31" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL31" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM31" t="n" s="85">
         <v>0.9999832523071457</v>
@@ -5195,10 +5195,10 @@
         <v>1.0</v>
       </c>
       <c r="J32" t="n" s="85">
-        <v>1.5491954542153916E-7</v>
+        <v>1.5491651147424285E-7</v>
       </c>
       <c r="K32" t="n" s="85">
-        <v>1.5491954542153916E-7</v>
+        <v>1.5491651147424282E-7</v>
       </c>
       <c r="L32" t="n" s="85">
         <v>1.0</v>
@@ -5228,16 +5228,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U32" t="n" s="85">
-        <v>1.6276529163963607E-7</v>
+        <v>1.5700689905894733E-7</v>
       </c>
       <c r="V32" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W32" t="n" s="85">
-        <v>2.7396849688122625E-7</v>
+        <v>2.6427589292078824E-7</v>
       </c>
       <c r="X32" t="n" s="85">
-        <v>2.739684968812263E-7</v>
+        <v>2.6427589292078803E-7</v>
       </c>
       <c r="Y32" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5252,52 +5252,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC32" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810445E-6</v>
       </c>
       <c r="AD32" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810446E-6</v>
       </c>
       <c r="AE32" t="n" s="85">
-        <v>9.061695456640544E-7</v>
+        <v>9.061696746454302E-7</v>
       </c>
       <c r="AF32" t="n" s="85">
-        <v>9.061695456640542E-7</v>
+        <v>9.0616967464543E-7</v>
       </c>
       <c r="AG32" t="n" s="85">
-        <v>5.490739669739584E-9</v>
+        <v>5.490740451272081E-9</v>
       </c>
       <c r="AH32" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI32" t="n" s="85">
-        <v>4.229065916361333E-5</v>
+        <v>4.229066518346566E-5</v>
       </c>
       <c r="AJ32" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK32" t="n" s="85">
-        <v>0.9981002749885345</v>
+        <v>0.9981823228597207</v>
       </c>
       <c r="AL32" t="n" s="85">
-        <v>0.925032557651684</v>
+        <v>0.9279152671136084</v>
       </c>
       <c r="AM32" t="n" s="85">
         <v>0.9945433428157239</v>
       </c>
       <c r="AN32" t="n" s="85">
-        <v>0.9924724096317052</v>
+        <v>0.9924259861022118</v>
       </c>
       <c r="AO32" t="n" s="85">
-        <v>0.980587348896124</v>
+        <v>0.9808320630037837</v>
       </c>
       <c r="AP32" t="n" s="85">
         <v>0.6869515789649804</v>
       </c>
       <c r="AQ32" t="n" s="85">
-        <v>0.6289770277974428</v>
+        <v>0.6289070608398776</v>
       </c>
       <c r="AR32" t="n" s="85">
-        <v>6.386534013521838E-4</v>
+        <v>6.150939978778326E-4</v>
       </c>
     </row>
     <row r="33">
@@ -5353,16 +5353,16 @@
         <v>5.380270832975741E-4</v>
       </c>
       <c r="U33" t="n" s="85">
-        <v>4.485625389910822E-6</v>
+        <v>4.269063160181837E-6</v>
       </c>
       <c r="V33" t="n" s="85">
         <v>0.0010473609793672232</v>
       </c>
       <c r="W33" t="n" s="85">
-        <v>8.082584118644954E-6</v>
+        <v>7.692364706257887E-6</v>
       </c>
       <c r="X33" t="n" s="85">
-        <v>8.082584118644954E-6</v>
+        <v>7.692364706257893E-6</v>
       </c>
       <c r="Y33" t="n" s="85">
         <v>0.17326666039788743</v>
@@ -5377,52 +5377,52 @@
         <v>0.9735705989815423</v>
       </c>
       <c r="AC33" t="n" s="85">
-        <v>2.7382830101022065E-4</v>
+        <v>2.7382835305889196E-4</v>
       </c>
       <c r="AD33" t="n" s="85">
-        <v>2.7382830101022065E-4</v>
+        <v>2.7382835305889196E-4</v>
       </c>
       <c r="AE33" t="n" s="85">
-        <v>2.6376828720780153E-5</v>
+        <v>2.6376833735558195E-5</v>
       </c>
       <c r="AF33" t="n" s="85">
-        <v>2.6376828720780153E-5</v>
+        <v>2.6376833735558195E-5</v>
       </c>
       <c r="AG33" t="n" s="85">
-        <v>3.4369876850402468E-6</v>
+        <v>3.436988338495433E-6</v>
       </c>
       <c r="AH33" t="n" s="85">
         <v>0.34351266410022147</v>
       </c>
       <c r="AI33" t="n" s="85">
-        <v>3.4752793097538817E-5</v>
+        <v>3.475279970531921E-5</v>
       </c>
       <c r="AJ33" t="n" s="85">
         <v>0.9957406421015854</v>
       </c>
       <c r="AK33" t="n" s="85">
-        <v>0.9877906428643489</v>
+        <v>0.9882012394921803</v>
       </c>
       <c r="AL33" t="n" s="85">
-        <v>0.6683437896744182</v>
+        <v>0.6783489782889149</v>
       </c>
       <c r="AM33" t="n" s="85">
         <v>0.9903209380218111</v>
       </c>
       <c r="AN33" t="n" s="85">
-        <v>0.9936232001488867</v>
+        <v>0.9936039909414538</v>
       </c>
       <c r="AO33" t="n" s="85">
-        <v>0.8406186429899768</v>
+        <v>0.8437530023636627</v>
       </c>
       <c r="AP33" t="n" s="85">
         <v>0.7497813534403575</v>
       </c>
       <c r="AQ33" t="n" s="85">
-        <v>0.9014830766552628</v>
+        <v>0.901416014057222</v>
       </c>
       <c r="AR33" t="n" s="85">
-        <v>3.6352401423621203E-4</v>
+        <v>3.4960748312244373E-4</v>
       </c>
     </row>
     <row r="34">
@@ -5445,10 +5445,10 @@
         <v>1.0</v>
       </c>
       <c r="J34" t="n" s="85">
-        <v>1.960233921979346E-7</v>
+        <v>1.9601583321477312E-7</v>
       </c>
       <c r="K34" t="n" s="85">
-        <v>1.960233921979346E-7</v>
+        <v>1.9601583321477304E-7</v>
       </c>
       <c r="L34" t="n" s="85">
         <v>1.0</v>
@@ -5478,16 +5478,16 @@
         <v>0.76164486968863</v>
       </c>
       <c r="U34" t="n" s="85">
-        <v>3.9964363060328723E-4</v>
+        <v>3.803564061401226E-4</v>
       </c>
       <c r="V34" t="n" s="85">
         <v>0.8658371507401997</v>
       </c>
       <c r="W34" t="n" s="85">
-        <v>6.725489549935478E-4</v>
+        <v>6.400994340272612E-4</v>
       </c>
       <c r="X34" t="n" s="85">
-        <v>6.725489549935474E-4</v>
+        <v>6.400994340272611E-4</v>
       </c>
       <c r="Y34" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5502,52 +5502,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC34" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD34" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE34" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF34" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG34" t="n" s="85">
-        <v>1.3304652936684876E-5</v>
+        <v>1.3304655466198945E-5</v>
       </c>
       <c r="AH34" t="n" s="85">
         <v>0.9964272563428546</v>
       </c>
       <c r="AI34" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ34" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK34" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL34" t="n" s="85">
-        <v>0.8924951831555569</v>
+        <v>0.8963493027539878</v>
       </c>
       <c r="AM34" t="n" s="85">
         <v>0.999220031521944</v>
       </c>
       <c r="AN34" t="n" s="85">
-        <v>0.9994754281503744</v>
+        <v>0.9994713755362732</v>
       </c>
       <c r="AO34" t="n" s="85">
-        <v>0.9695761918656497</v>
+        <v>0.9699240174084047</v>
       </c>
       <c r="AP34" t="n" s="85">
         <v>0.9463429868908855</v>
       </c>
       <c r="AQ34" t="n" s="85">
-        <v>0.989891034573818</v>
+        <v>0.989883411302907</v>
       </c>
       <c r="AR34" t="n" s="85">
-        <v>0.02636270681205733</v>
+        <v>0.025418799201994066</v>
       </c>
     </row>
     <row r="35">
@@ -5603,16 +5603,16 @@
         <v>5.400834581479885E-4</v>
       </c>
       <c r="U35" t="n" s="85">
-        <v>8.289967962482354E-8</v>
+        <v>8.052914711102496E-8</v>
       </c>
       <c r="V35" t="n" s="85">
         <v>0.001051372247382513</v>
       </c>
       <c r="W35" t="n" s="85">
-        <v>1.3010068167410015E-7</v>
+        <v>1.263804239595236E-7</v>
       </c>
       <c r="X35" t="n" s="85">
-        <v>1.301006816741001E-7</v>
+        <v>1.2638042395952353E-7</v>
       </c>
       <c r="Y35" t="n" s="85">
         <v>0.19753718589116342</v>
@@ -5627,52 +5627,52 @@
         <v>0.07618594322470601</v>
       </c>
       <c r="AC35" t="n" s="85">
-        <v>5.144891145478725E-6</v>
+        <v>5.144891706117379E-6</v>
       </c>
       <c r="AD35" t="n" s="85">
-        <v>5.144891145478726E-6</v>
+        <v>5.14489170611738E-6</v>
       </c>
       <c r="AE35" t="n" s="85">
-        <v>4.956611794218548E-7</v>
+        <v>4.956612334331278E-7</v>
       </c>
       <c r="AF35" t="n" s="85">
-        <v>4.956611794218542E-7</v>
+        <v>4.956612334331274E-7</v>
       </c>
       <c r="AG35" t="n" s="85">
-        <v>4.688932592653084E-7</v>
+        <v>4.6889331035989795E-7</v>
       </c>
       <c r="AH35" t="n" s="85">
         <v>0.04607866140750838</v>
       </c>
       <c r="AI35" t="n" s="85">
-        <v>3.702780439180712E-5</v>
+        <v>3.702780842687401E-5</v>
       </c>
       <c r="AJ35" t="n" s="85">
         <v>0.9910495140187832</v>
       </c>
       <c r="AK35" t="n" s="85">
-        <v>0.9414229620292504</v>
+        <v>0.9425919259988285</v>
       </c>
       <c r="AL35" t="n" s="85">
-        <v>0.7069891487813385</v>
+        <v>0.7135321570195794</v>
       </c>
       <c r="AM35" t="n" s="85">
         <v>0.9258303745381651</v>
       </c>
       <c r="AN35" t="n" s="85">
-        <v>0.937576144546516</v>
+        <v>0.937543955725223</v>
       </c>
       <c r="AO35" t="n" s="85">
-        <v>0.4646956585474407</v>
+        <v>0.4689443259237038</v>
       </c>
       <c r="AP35" t="n" s="85">
         <v>0.3510075284784407</v>
       </c>
       <c r="AQ35" t="n" s="85">
-        <v>0.03987885824975461</v>
+        <v>0.039861413441966274</v>
       </c>
       <c r="AR35" t="n" s="85">
-        <v>3.020548115384051E-7</v>
+        <v>2.942285423601875E-7</v>
       </c>
     </row>
     <row r="36">
@@ -5695,10 +5695,10 @@
         <v>1.0</v>
       </c>
       <c r="J36" t="n" s="85">
-        <v>1.915938471298094E-7</v>
+        <v>1.915864589571303E-7</v>
       </c>
       <c r="K36" t="n" s="85">
-        <v>1.915938471298094E-7</v>
+        <v>1.9158645895713018E-7</v>
       </c>
       <c r="L36" t="n" s="85">
         <v>1.0</v>
@@ -5728,16 +5728,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U36" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V36" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W36" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X36" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y36" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -5752,52 +5752,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC36" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD36" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE36" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF36" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG36" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH36" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI36" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ36" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK36" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL36" t="n" s="85">
-        <v>0.8826282509635314</v>
+        <v>0.886933720512198</v>
       </c>
       <c r="AM36" t="n" s="85">
         <v>0.9988703276404598</v>
       </c>
       <c r="AN36" t="n" s="85">
-        <v>0.9988334776019402</v>
+        <v>0.9988261375498748</v>
       </c>
       <c r="AO36" t="n" s="85">
-        <v>0.9629906858988818</v>
+        <v>0.9634111879062652</v>
       </c>
       <c r="AP36" t="n" s="85">
         <v>0.7854043697021077</v>
       </c>
       <c r="AQ36" t="n" s="85">
-        <v>0.8685168108475977</v>
+        <v>0.868430561787046</v>
       </c>
       <c r="AR36" t="n" s="85">
-        <v>6.51940675003324E-4</v>
+        <v>6.276488191408059E-4</v>
       </c>
     </row>
     <row r="37">
@@ -5853,16 +5853,16 @@
         <v>0.003203452992195119</v>
       </c>
       <c r="U37" t="n" s="85">
-        <v>1.4200457883044614E-6</v>
+        <v>1.4055654062117246E-6</v>
       </c>
       <c r="V37" t="n" s="85">
         <v>0.005014204586265451</v>
       </c>
       <c r="W37" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="X37" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="Y37" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -5877,16 +5877,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC37" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AD37" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AE37" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AF37" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AG37" t="n" s="85">
         <v>1.0</v>
@@ -5895,34 +5895,34 @@
         <v>0.02269350823004737</v>
       </c>
       <c r="AI37" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ37" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK37" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL37" t="n" s="85">
-        <v>0.8924951831555569</v>
+        <v>0.8963493027539878</v>
       </c>
       <c r="AM37" t="n" s="85">
         <v>0.999220031521944</v>
       </c>
       <c r="AN37" t="n" s="85">
-        <v>0.9994754281503744</v>
+        <v>0.9994713755362732</v>
       </c>
       <c r="AO37" t="n" s="85">
-        <v>0.9695761918656497</v>
+        <v>0.9699240174084047</v>
       </c>
       <c r="AP37" t="n" s="85">
         <v>0.9463429868908855</v>
       </c>
       <c r="AQ37" t="n" s="85">
-        <v>0.989891034573818</v>
+        <v>0.989883411302907</v>
       </c>
       <c r="AR37" t="n" s="85">
-        <v>0.02636270681205733</v>
+        <v>0.025418799201994066</v>
       </c>
     </row>
     <row r="38">
@@ -5978,16 +5978,16 @@
         <v>0.0033738749388922875</v>
       </c>
       <c r="U38" t="n" s="85">
-        <v>4.541461963652322E-6</v>
+        <v>4.555332665474191E-6</v>
       </c>
       <c r="V38" t="n" s="85">
         <v>0.005280678082975135</v>
       </c>
       <c r="W38" t="n" s="85">
-        <v>7.01090419032074E-6</v>
+        <v>7.0323171392643505E-6</v>
       </c>
       <c r="X38" t="n" s="85">
-        <v>7.01090419032074E-6</v>
+        <v>7.0323171392643505E-6</v>
       </c>
       <c r="Y38" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6002,16 +6002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC38" t="n" s="85">
-        <v>7.821699511068923E-5</v>
+        <v>7.821699304831662E-5</v>
       </c>
       <c r="AD38" t="n" s="85">
-        <v>7.821699511068923E-5</v>
+        <v>7.821699304831662E-5</v>
       </c>
       <c r="AE38" t="n" s="85">
-        <v>1.1414402933670985E-5</v>
+        <v>1.1414402632697734E-5</v>
       </c>
       <c r="AF38" t="n" s="85">
-        <v>1.1414402933670985E-5</v>
+        <v>1.1414402632697734E-5</v>
       </c>
       <c r="AG38" t="n" s="85">
         <v>1.0</v>
@@ -6020,34 +6020,34 @@
         <v>0.04153135422831623</v>
       </c>
       <c r="AI38" t="n" s="85">
-        <v>1.8554988979056251E-4</v>
+        <v>1.8554988489790636E-4</v>
       </c>
       <c r="AJ38" t="n" s="85">
         <v>0.9991103295372367</v>
       </c>
       <c r="AK38" t="n" s="85">
-        <v>0.9998844621310174</v>
+        <v>0.9998904409976593</v>
       </c>
       <c r="AL38" t="n" s="85">
-        <v>0.9999357305313691</v>
+        <v>0.999937452464341</v>
       </c>
       <c r="AM38" t="n" s="85">
         <v>0.9998515818467193</v>
       </c>
       <c r="AN38" t="n" s="85">
-        <v>0.9999999766094</v>
+        <v>0.9999999761044382</v>
       </c>
       <c r="AO38" t="n" s="85">
-        <v>0.9999997383197755</v>
+        <v>0.9999997319231557</v>
       </c>
       <c r="AP38" t="n" s="85">
         <v>0.9998791458950829</v>
       </c>
       <c r="AQ38" t="n" s="85">
-        <v>0.9999989256741137</v>
+        <v>0.999998904614783</v>
       </c>
       <c r="AR38" t="n" s="85">
-        <v>0.9999889835443575</v>
+        <v>0.9999887792518252</v>
       </c>
     </row>
     <row r="39">
@@ -6103,16 +6103,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U39" t="n" s="85">
-        <v>1.3962783003518792E-6</v>
+        <v>1.3820402779310105E-6</v>
       </c>
       <c r="V39" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W39" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="X39" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="Y39" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6127,16 +6127,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC39" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD39" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE39" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AF39" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AG39" t="n" s="85">
         <v>1.0</v>
@@ -6145,34 +6145,34 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI39" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ39" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK39" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL39" t="n" s="85">
-        <v>0.8910539539646459</v>
+        <v>0.894972986929228</v>
       </c>
       <c r="AM39" t="n" s="85">
         <v>0.9992341682628635</v>
       </c>
       <c r="AN39" t="n" s="85">
-        <v>0.9994685713787195</v>
+        <v>0.9994645758478364</v>
       </c>
       <c r="AO39" t="n" s="85">
-        <v>0.9674306724486299</v>
+        <v>0.9678022214874293</v>
       </c>
       <c r="AP39" t="n" s="85">
         <v>0.9471982953228003</v>
       </c>
       <c r="AQ39" t="n" s="85">
-        <v>0.9896641475688631</v>
+        <v>0.9896563579545263</v>
       </c>
       <c r="AR39" t="n" s="85">
-        <v>0.023496120521098233</v>
+        <v>0.022650536007624584</v>
       </c>
     </row>
     <row r="40">
@@ -6228,16 +6228,16 @@
         <v>0.003203452992195119</v>
       </c>
       <c r="U40" t="n" s="85">
-        <v>1.4200457883044614E-6</v>
+        <v>1.4055654062117246E-6</v>
       </c>
       <c r="V40" t="n" s="85">
         <v>0.005014204586265451</v>
       </c>
       <c r="W40" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="X40" t="n" s="85">
-        <v>2.1922048910461527E-6</v>
+        <v>2.1698507009481565E-6</v>
       </c>
       <c r="Y40" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -6252,16 +6252,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC40" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AD40" t="n" s="85">
-        <v>2.5344711210063295E-5</v>
+        <v>2.534471234646062E-5</v>
       </c>
       <c r="AE40" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AF40" t="n" s="85">
-        <v>3.521958323635646E-6</v>
+        <v>3.521958481551277E-6</v>
       </c>
       <c r="AG40" t="n" s="85">
         <v>1.0</v>
@@ -6270,34 +6270,34 @@
         <v>0.02269350823004737</v>
       </c>
       <c r="AI40" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ40" t="n" s="85">
         <v>0.9989177443749853</v>
       </c>
       <c r="AK40" t="n" s="85">
-        <v>0.9987880144530775</v>
+        <v>0.9988384896773309</v>
       </c>
       <c r="AL40" t="n" s="85">
-        <v>0.843666876600235</v>
+        <v>0.8493583091001919</v>
       </c>
       <c r="AM40" t="n" s="85">
         <v>0.9984878313176795</v>
       </c>
       <c r="AN40" t="n" s="85">
-        <v>0.9980786346994452</v>
+        <v>0.9980695819172699</v>
       </c>
       <c r="AO40" t="n" s="85">
-        <v>0.918428887388757</v>
+        <v>0.9195597695182297</v>
       </c>
       <c r="AP40" t="n" s="85">
         <v>0.9220764877831691</v>
       </c>
       <c r="AQ40" t="n" s="85">
-        <v>0.979081907379947</v>
+        <v>0.9790663828179464</v>
       </c>
       <c r="AR40" t="n" s="85">
-        <v>0.004809480310273624</v>
+        <v>0.0046284825092413615</v>
       </c>
     </row>
     <row r="41">
@@ -6320,10 +6320,10 @@
         <v>0.0021112592105769204</v>
       </c>
       <c r="J41" t="n" s="85">
-        <v>1.9972655273305348E-4</v>
+        <v>1.9972264206508087E-4</v>
       </c>
       <c r="K41" t="n" s="85">
-        <v>1.9972655273305348E-4</v>
+        <v>1.9972264206508087E-4</v>
       </c>
       <c r="L41" t="n" s="85">
         <v>1.0</v>
@@ -6359,10 +6359,10 @@
         <v>0.005645676319285226</v>
       </c>
       <c r="W41" t="n" s="85">
-        <v>4.191174755713701E-6</v>
+        <v>4.202608873501829E-6</v>
       </c>
       <c r="X41" t="n" s="85">
-        <v>4.191174755713701E-6</v>
+        <v>4.202608873501829E-6</v>
       </c>
       <c r="Y41" t="n" s="85">
         <v>0.2620125572585001</v>
@@ -6377,16 +6377,16 @@
         <v>0.14607128451064313</v>
       </c>
       <c r="AC41" t="n" s="85">
-        <v>6.802537235834065E-5</v>
+        <v>6.832368342846309E-5</v>
       </c>
       <c r="AD41" t="n" s="85">
-        <v>6.802537235834061E-5</v>
+        <v>6.832368342846302E-5</v>
       </c>
       <c r="AE41" t="n" s="85">
-        <v>1.016152944692916E-5</v>
+        <v>1.0206092083548067E-5</v>
       </c>
       <c r="AF41" t="n" s="85">
-        <v>1.016152944692916E-5</v>
+        <v>1.0206092083548067E-5</v>
       </c>
       <c r="AG41" t="n" s="85">
         <v>1.0</v>
@@ -6395,22 +6395,22 @@
         <v>0.01912755094291193</v>
       </c>
       <c r="AI41" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ41" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK41" t="n" s="85">
-        <v>0.9999960793681916</v>
+        <v>0.9999957895227856</v>
       </c>
       <c r="AL41" t="n" s="85">
-        <v>0.9999999998949688</v>
+        <v>0.9999999998891111</v>
       </c>
       <c r="AM41" t="n" s="85">
         <v>0.9999821074082909</v>
       </c>
       <c r="AN41" t="n" s="85">
-        <v>0.9999999999999897</v>
+        <v>0.9999999999999905</v>
       </c>
       <c r="AO41" t="n" s="85">
         <v>1.0</v>
@@ -6478,16 +6478,16 @@
         <v>4.886999200930844E-4</v>
       </c>
       <c r="U42" t="n" s="85">
-        <v>8.011978811173396E-8</v>
+        <v>7.625165138951257E-8</v>
       </c>
       <c r="V42" t="n" s="85">
         <v>0.0010033656466297176</v>
       </c>
       <c r="W42" t="n" s="85">
-        <v>1.326116329028475E-7</v>
+        <v>1.2620921473430482E-7</v>
       </c>
       <c r="X42" t="n" s="85">
-        <v>1.3261163290284745E-7</v>
+        <v>1.2620921473430485E-7</v>
       </c>
       <c r="Y42" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6502,52 +6502,52 @@
         <v>0.08371583534335035</v>
       </c>
       <c r="AC42" t="n" s="85">
-        <v>4.491939077238356E-6</v>
+        <v>4.491939931286959E-6</v>
       </c>
       <c r="AD42" t="n" s="85">
-        <v>4.491939077238357E-6</v>
+        <v>4.491939931286959E-6</v>
       </c>
       <c r="AE42" t="n" s="85">
-        <v>4.3275521969457055E-7</v>
+        <v>4.327553019724595E-7</v>
       </c>
       <c r="AF42" t="n" s="85">
-        <v>4.327552196945704E-7</v>
+        <v>4.3275530197245943E-7</v>
       </c>
       <c r="AG42" t="n" s="85">
-        <v>2.6221932861740523E-9</v>
+        <v>2.6221937847186645E-9</v>
       </c>
       <c r="AH42" t="n" s="85">
         <v>0.008656223452868008</v>
       </c>
       <c r="AI42" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ42" t="n" s="85">
         <v>0.9981570987818623</v>
       </c>
       <c r="AK42" t="n" s="85">
-        <v>0.9963240161227405</v>
+        <v>0.9964408380593567</v>
       </c>
       <c r="AL42" t="n" s="85">
-        <v>0.9501980022156151</v>
+        <v>0.9515792180392716</v>
       </c>
       <c r="AM42" t="n" s="85">
         <v>0.9878968105294952</v>
       </c>
       <c r="AN42" t="n" s="85">
-        <v>0.9851548508208238</v>
+        <v>0.9851143320613048</v>
       </c>
       <c r="AO42" t="n" s="85">
-        <v>0.9435831272133047</v>
+        <v>0.9437802427229187</v>
       </c>
       <c r="AP42" t="n" s="85">
         <v>0.5407665894241391</v>
       </c>
       <c r="AQ42" t="n" s="85">
-        <v>0.22967903322948932</v>
+        <v>0.229545609274162</v>
       </c>
       <c r="AR42" t="n" s="85">
-        <v>3.096298670268656E-5</v>
+        <v>3.014946781567752E-5</v>
       </c>
     </row>
     <row r="43">
@@ -6603,16 +6603,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U43" t="n" s="85">
-        <v>9.438061151281403E-7</v>
+        <v>8.982397428531371E-7</v>
       </c>
       <c r="V43" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W43" t="n" s="85">
-        <v>1.5886311541430118E-6</v>
+        <v>1.5119330044600278E-6</v>
       </c>
       <c r="X43" t="n" s="85">
-        <v>1.5886311541430108E-6</v>
+        <v>1.5119330044600274E-6</v>
       </c>
       <c r="Y43" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6627,52 +6627,52 @@
         <v>0.6538165746211869</v>
       </c>
       <c r="AC43" t="n" s="85">
-        <v>5.3821226276198786E-5</v>
+        <v>5.382123650867852E-5</v>
       </c>
       <c r="AD43" t="n" s="85">
-        <v>5.382122627619878E-5</v>
+        <v>5.382123650867852E-5</v>
       </c>
       <c r="AE43" t="n" s="85">
-        <v>5.18432870605725E-6</v>
+        <v>5.184329691726687E-6</v>
       </c>
       <c r="AF43" t="n" s="85">
-        <v>5.1843287060572495E-6</v>
+        <v>5.184329691726686E-6</v>
       </c>
       <c r="AG43" t="n" s="85">
-        <v>3.1412423875704704E-8</v>
+        <v>3.141242984799299E-8</v>
       </c>
       <c r="AH43" t="n" s="85">
         <v>0.0608433543185277</v>
       </c>
       <c r="AI43" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ43" t="n" s="85">
         <v>0.999006305936356</v>
       </c>
       <c r="AK43" t="n" s="85">
-        <v>0.9993777004547834</v>
+        <v>0.9994055584124256</v>
       </c>
       <c r="AL43" t="n" s="85">
-        <v>0.9001480444475131</v>
+        <v>0.9036003905693499</v>
       </c>
       <c r="AM43" t="n" s="85">
         <v>0.9995426387394187</v>
       </c>
       <c r="AN43" t="n" s="85">
-        <v>0.9993352194086794</v>
+        <v>0.99932887573116</v>
       </c>
       <c r="AO43" t="n" s="85">
-        <v>0.9751731600492101</v>
+        <v>0.9754261892953543</v>
       </c>
       <c r="AP43" t="n" s="85">
         <v>0.9310074536537976</v>
       </c>
       <c r="AQ43" t="n" s="85">
-        <v>0.9481304834382502</v>
+        <v>0.9480932225493169</v>
       </c>
       <c r="AR43" t="n" s="85">
-        <v>0.005007874347921275</v>
+        <v>0.004828854109281817</v>
       </c>
     </row>
     <row r="44">
@@ -6728,16 +6728,16 @@
         <v>0.76164486968863</v>
       </c>
       <c r="U44" t="n" s="85">
-        <v>4.7977828203962124E-4</v>
+        <v>4.6281229703160976E-4</v>
       </c>
       <c r="V44" t="n" s="85">
         <v>0.8658371507401997</v>
       </c>
       <c r="W44" t="n" s="85">
-        <v>8.07361160914491E-4</v>
+        <v>7.788201442020149E-4</v>
       </c>
       <c r="X44" t="n" s="85">
-        <v>8.07361160914491E-4</v>
+        <v>7.788201442020146E-4</v>
       </c>
       <c r="Y44" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -6752,52 +6752,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC44" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810445E-6</v>
       </c>
       <c r="AD44" t="n" s="85">
-        <v>9.40602107996698E-6</v>
+        <v>9.406022418810446E-6</v>
       </c>
       <c r="AE44" t="n" s="85">
-        <v>9.061695456640544E-7</v>
+        <v>9.061696746454302E-7</v>
       </c>
       <c r="AF44" t="n" s="85">
-        <v>9.061695456640542E-7</v>
+        <v>9.0616967464543E-7</v>
       </c>
       <c r="AG44" t="n" s="85">
-        <v>1.6190200164526656E-5</v>
+        <v>1.619020246894528E-5</v>
       </c>
       <c r="AH44" t="n" s="85">
         <v>0.9964272563428546</v>
       </c>
       <c r="AI44" t="n" s="85">
-        <v>4.229065916361333E-5</v>
+        <v>4.229066518346566E-5</v>
       </c>
       <c r="AJ44" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK44" t="n" s="85">
-        <v>0.9995174952880325</v>
+        <v>0.999540126631877</v>
       </c>
       <c r="AL44" t="n" s="85">
-        <v>0.9769162849393684</v>
+        <v>0.977654217752723</v>
       </c>
       <c r="AM44" t="n" s="85">
         <v>0.999220031521944</v>
       </c>
       <c r="AN44" t="n" s="85">
-        <v>0.9998107162564212</v>
+        <v>0.9998078036581449</v>
       </c>
       <c r="AO44" t="n" s="85">
-        <v>0.9979082388882958</v>
+        <v>0.9979219360085421</v>
       </c>
       <c r="AP44" t="n" s="85">
         <v>0.9563329277343395</v>
       </c>
       <c r="AQ44" t="n" s="85">
-        <v>0.9923604050277814</v>
+        <v>0.9923577924112206</v>
       </c>
       <c r="AR44" t="n" s="85">
-        <v>0.4831303284597687</v>
+        <v>0.4751984783348611</v>
       </c>
     </row>
     <row r="45">
@@ -6820,10 +6820,10 @@
         <v>1.0</v>
       </c>
       <c r="J45" t="n" s="85">
-        <v>6.41480018037935E-7</v>
+        <v>6.414552815284779E-7</v>
       </c>
       <c r="K45" t="n" s="85">
-        <v>6.414800180379348E-7</v>
+        <v>6.414552815284779E-7</v>
       </c>
       <c r="L45" t="n" s="85">
         <v>1.0</v>
@@ -6859,10 +6859,10 @@
         <v>0.0035328909375173098</v>
       </c>
       <c r="W45" t="n" s="85">
-        <v>1.763776718491715E-6</v>
+        <v>1.7732034757129688E-6</v>
       </c>
       <c r="X45" t="n" s="85">
-        <v>1.763776718491715E-6</v>
+        <v>1.7732034757129688E-6</v>
       </c>
       <c r="Y45" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -6877,16 +6877,16 @@
         <v>0.11464036793125379</v>
       </c>
       <c r="AC45" t="n" s="85">
-        <v>3.4735834651435543E-5</v>
+        <v>3.502130808516282E-5</v>
       </c>
       <c r="AD45" t="n" s="85">
-        <v>3.4735834651435543E-5</v>
+        <v>3.502130808516282E-5</v>
       </c>
       <c r="AE45" t="n" s="85">
-        <v>5.149697800310884E-6</v>
+        <v>5.1920202481970844E-6</v>
       </c>
       <c r="AF45" t="n" s="85">
-        <v>5.149697800310884E-6</v>
+        <v>5.1920202481970844E-6</v>
       </c>
       <c r="AG45" t="n" s="85">
         <v>1.0</v>
@@ -6895,34 +6895,34 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI45" t="n" s="85">
-        <v>1.3760170446474668E-4</v>
+        <v>1.3873255319310244E-4</v>
       </c>
       <c r="AJ45" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK45" t="n" s="85">
-        <v>0.9996682340674314</v>
+        <v>0.9996784793831195</v>
       </c>
       <c r="AL45" t="n" s="85">
-        <v>0.9347410122788902</v>
+        <v>0.9362290006843529</v>
       </c>
       <c r="AM45" t="n" s="85">
         <v>0.9996154957172156</v>
       </c>
       <c r="AN45" t="n" s="85">
-        <v>0.9998813526103949</v>
+        <v>0.9998804368598145</v>
       </c>
       <c r="AO45" t="n" s="85">
-        <v>0.9889611142768452</v>
+        <v>0.9890221921055546</v>
       </c>
       <c r="AP45" t="n" s="85">
         <v>0.9652202139393509</v>
       </c>
       <c r="AQ45" t="n" s="85">
-        <v>0.995150006628934</v>
+        <v>0.9951463168441552</v>
       </c>
       <c r="AR45" t="n" s="85">
-        <v>0.12780426052209737</v>
+        <v>0.12510751839645792</v>
       </c>
     </row>
     <row r="46">
@@ -6933,10 +6933,10 @@
         <v>1.0</v>
       </c>
       <c r="F46" t="n" s="85">
-        <v>2.263006871663952E-10</v>
+        <v>2.259669022069637E-10</v>
       </c>
       <c r="G46" t="n" s="85">
-        <v>1.510876086635197E-6</v>
+        <v>1.5086475874358291E-6</v>
       </c>
       <c r="H46" t="n" s="85">
         <v>1.0</v>
@@ -6945,10 +6945,10 @@
         <v>1.0</v>
       </c>
       <c r="J46" t="n" s="85">
-        <v>2.8305784360351943E-9</v>
+        <v>2.8284901677082843E-9</v>
       </c>
       <c r="K46" t="n" s="85">
-        <v>2.8305784360351943E-9</v>
+        <v>2.8284901677082863E-9</v>
       </c>
       <c r="L46" t="n" s="85">
         <v>0.0028520291784476445</v>
@@ -6978,16 +6978,16 @@
         <v>4.6341634423243614E-4</v>
       </c>
       <c r="U46" t="n" s="85">
-        <v>7.597706064477326E-8</v>
+        <v>7.230893237819126E-8</v>
       </c>
       <c r="V46" t="n" s="85">
         <v>9.020951523613774E-4</v>
       </c>
       <c r="W46" t="n" s="85">
-        <v>1.369013872165842E-7</v>
+        <v>1.302918620486237E-7</v>
       </c>
       <c r="X46" t="n" s="85">
-        <v>1.3690138721658414E-7</v>
+        <v>1.3029186204862365E-7</v>
       </c>
       <c r="Y46" t="n" s="85">
         <v>0.17326661247818773</v>
@@ -7002,52 +7002,52 @@
         <v>0.07305035713190229</v>
       </c>
       <c r="AC46" t="n" s="85">
-        <v>5.383218212262062E-6</v>
+        <v>5.383219235767902E-6</v>
       </c>
       <c r="AD46" t="n" s="85">
-        <v>5.383218212262061E-6</v>
+        <v>5.383219235767901E-6</v>
       </c>
       <c r="AE46" t="n" s="85">
-        <v>5.186197643764903E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AF46" t="n" s="85">
-        <v>5.186197643764904E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AG46" t="n" s="85">
-        <v>1.1291181158085501E-9</v>
+        <v>1.1291183304821813E-9</v>
       </c>
       <c r="AH46" t="n" s="85">
         <v>0.0035591123434196175</v>
       </c>
       <c r="AI46" t="n" s="85">
-        <v>1.6642152819421137E-5</v>
+        <v>1.6642155983765093E-5</v>
       </c>
       <c r="AJ46" t="n" s="85">
         <v>0.9944389095532917</v>
       </c>
       <c r="AK46" t="n" s="85">
-        <v>0.7961635732793709</v>
+        <v>0.7987385511062642</v>
       </c>
       <c r="AL46" t="n" s="85">
-        <v>0.2293396852284274</v>
+        <v>0.23802534195380481</v>
       </c>
       <c r="AM46" t="n" s="85">
         <v>0.714272765615929</v>
       </c>
       <c r="AN46" t="n" s="85">
-        <v>0.21783752448817442</v>
+        <v>0.21783568692693284</v>
       </c>
       <c r="AO46" t="n" s="85">
-        <v>8.315733688086689E-5</v>
+        <v>8.607500392527337E-5</v>
       </c>
       <c r="AP46" t="n" s="85">
         <v>0.21341370856788217</v>
       </c>
       <c r="AQ46" t="n" s="85">
-        <v>1.9213518360518863E-4</v>
+        <v>1.919904121710417E-4</v>
       </c>
       <c r="AR46" t="n" s="85">
-        <v>6.777701460288909E-13</v>
+        <v>6.513237120708341E-13</v>
       </c>
     </row>
     <row r="47">
@@ -7070,7 +7070,7 @@
         <v>1.0</v>
       </c>
       <c r="J47" t="n" s="85">
-        <v>3.240506319959704E-7</v>
+        <v>3.2404810760863405E-7</v>
       </c>
       <c r="K47" t="n" s="85">
         <v>1.0</v>
@@ -7103,16 +7103,16 @@
         <v>1.0</v>
       </c>
       <c r="U47" t="n" s="85">
-        <v>2.4103852115993997E-7</v>
+        <v>2.2940132347943374E-7</v>
       </c>
       <c r="V47" t="n" s="85">
         <v>0.0024560756906048357</v>
       </c>
       <c r="W47" t="n" s="85">
-        <v>3.557197205467816E-7</v>
+        <v>3.385457677924506E-7</v>
       </c>
       <c r="X47" t="n" s="85">
-        <v>3.557197205467816E-7</v>
+        <v>3.385457677924503E-7</v>
       </c>
       <c r="Y47" t="n" s="85">
         <v>0.21964315956855576</v>
@@ -7127,52 +7127,52 @@
         <v>0.09364135789179083</v>
       </c>
       <c r="AC47" t="n" s="85">
-        <v>1.5031998789493097E-5</v>
+        <v>1.5032001647484266E-5</v>
       </c>
       <c r="AD47" t="n" s="85">
-        <v>1.5031998789493097E-5</v>
+        <v>1.5032001647484269E-5</v>
       </c>
       <c r="AE47" t="n" s="85">
-        <v>1.025061654916771E-6</v>
+        <v>1.0250618498072204E-6</v>
       </c>
       <c r="AF47" t="n" s="85">
-        <v>1.0250616549167706E-6</v>
+        <v>1.02506184980722E-6</v>
       </c>
       <c r="AG47" t="n" s="85">
-        <v>7.888801250153279E-9</v>
+        <v>7.888802750011946E-9</v>
       </c>
       <c r="AH47" t="n" s="85">
         <v>0.00980114446892107</v>
       </c>
       <c r="AI47" t="n" s="85">
-        <v>2.4598657871521047E-5</v>
+        <v>2.4598662548680057E-5</v>
       </c>
       <c r="AJ47" t="n" s="85">
         <v>0.9984503559887509</v>
       </c>
       <c r="AK47" t="n" s="85">
-        <v>0.995401312172286</v>
+        <v>0.9955528627077189</v>
       </c>
       <c r="AL47" t="n" s="85">
-        <v>0.9709225185537528</v>
+        <v>0.9717559417002382</v>
       </c>
       <c r="AM47" t="n" s="85">
         <v>0.9838991496514359</v>
       </c>
       <c r="AN47" t="n" s="85">
-        <v>0.9181598458087644</v>
+        <v>0.917978837824692</v>
       </c>
       <c r="AO47" t="n" s="85">
-        <v>0.8674182052990496</v>
+        <v>0.8675430925288196</v>
       </c>
       <c r="AP47" t="n" s="85">
         <v>0.7329311765936714</v>
       </c>
       <c r="AQ47" t="n" s="85">
-        <v>0.15596837324687077</v>
+        <v>0.155869031369829</v>
       </c>
       <c r="AR47" t="n" s="85">
-        <v>3.482782548840371E-5</v>
+        <v>3.3909087861177484E-5</v>
       </c>
     </row>
     <row r="48">
@@ -7195,10 +7195,10 @@
         <v>1.0</v>
       </c>
       <c r="J48" t="n" s="85">
-        <v>9.25822181573234E-8</v>
+        <v>9.257864803493826E-8</v>
       </c>
       <c r="K48" t="n" s="85">
-        <v>9.25822181573234E-8</v>
+        <v>9.257864803493823E-8</v>
       </c>
       <c r="L48" t="n" s="85">
         <v>1.0</v>
@@ -7228,16 +7228,16 @@
         <v>5.562407747700625E-4</v>
       </c>
       <c r="U48" t="n" s="85">
-        <v>9.118112330929759E-8</v>
+        <v>8.677895181027637E-8</v>
       </c>
       <c r="V48" t="n" s="85">
         <v>0.001082829840275222</v>
       </c>
       <c r="W48" t="n" s="85">
-        <v>1.642972622958904E-7</v>
+        <v>1.5636507925569887E-7</v>
       </c>
       <c r="X48" t="n" s="85">
-        <v>1.6429726229589034E-7</v>
+        <v>1.5636507925569884E-7</v>
       </c>
       <c r="Y48" t="n" s="85">
         <v>0.17326661247818773</v>
@@ -7252,52 +7252,52 @@
         <v>0.07305035713190229</v>
       </c>
       <c r="AC48" t="n" s="85">
-        <v>5.383218212262062E-6</v>
+        <v>5.383219235767902E-6</v>
       </c>
       <c r="AD48" t="n" s="85">
-        <v>5.383218212262061E-6</v>
+        <v>5.383219235767901E-6</v>
       </c>
       <c r="AE48" t="n" s="85">
-        <v>5.186197643764903E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AF48" t="n" s="85">
-        <v>5.186197643764904E-7</v>
+        <v>5.186198629794271E-7</v>
       </c>
       <c r="AG48" t="n" s="85">
-        <v>2.8295340830706183E-9</v>
+        <v>2.8295346210359066E-9</v>
       </c>
       <c r="AH48" t="n" s="85">
         <v>0.008949326256293959</v>
       </c>
       <c r="AI48" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ48" t="n" s="85">
         <v>0.9973660772645835</v>
       </c>
       <c r="AK48" t="n" s="85">
-        <v>0.9911541656427768</v>
+        <v>0.9915526977608994</v>
       </c>
       <c r="AL48" t="n" s="85">
-        <v>0.9314181201510318</v>
+        <v>0.9342736097477734</v>
       </c>
       <c r="AM48" t="n" s="85">
         <v>0.9776722694255634</v>
       </c>
       <c r="AN48" t="n" s="85">
-        <v>0.9760253444368255</v>
+        <v>0.9759567059321107</v>
       </c>
       <c r="AO48" t="n" s="85">
-        <v>0.907772527626289</v>
+        <v>0.9085564108051662</v>
       </c>
       <c r="AP48" t="n" s="85">
         <v>0.4814603239584024</v>
       </c>
       <c r="AQ48" t="n" s="85">
-        <v>0.12735809281382932</v>
+        <v>0.12727427812729586</v>
       </c>
       <c r="AR48" t="n" s="85">
-        <v>1.1370821818955154E-5</v>
+        <v>1.0935074106782047E-5</v>
       </c>
     </row>
     <row r="49">
@@ -7320,10 +7320,10 @@
         <v>1.0</v>
       </c>
       <c r="J49" t="n" s="85">
-        <v>1.3214828273295907E-7</v>
+        <v>1.3214318687834387E-7</v>
       </c>
       <c r="K49" t="n" s="85">
-        <v>1.3214828273295901E-7</v>
+        <v>1.3214318687834384E-7</v>
       </c>
       <c r="L49" t="n" s="85">
         <v>1.0</v>
@@ -7353,16 +7353,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U49" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V49" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W49" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X49" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y49" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7377,52 +7377,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC49" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD49" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE49" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF49" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG49" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH49" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI49" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ49" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK49" t="n" s="85">
-        <v>0.9975010844103913</v>
+        <v>0.9975993871327252</v>
       </c>
       <c r="AL49" t="n" s="85">
-        <v>0.8072615582779467</v>
+        <v>0.8144251125387821</v>
       </c>
       <c r="AM49" t="n" s="85">
         <v>0.9945433428157239</v>
       </c>
       <c r="AN49" t="n" s="85">
-        <v>0.9899083372578481</v>
+        <v>0.9898902617125372</v>
       </c>
       <c r="AO49" t="n" s="85">
-        <v>0.7643807831156872</v>
+        <v>0.7676198206464128</v>
       </c>
       <c r="AP49" t="n" s="85">
         <v>0.6780903041072348</v>
       </c>
       <c r="AQ49" t="n" s="85">
-        <v>0.5614440709558072</v>
+        <v>0.5612583667406438</v>
       </c>
       <c r="AR49" t="n" s="85">
-        <v>1.3090309877796508E-5</v>
+        <v>1.2584914313878315E-5</v>
       </c>
     </row>
     <row r="50">
@@ -7445,10 +7445,10 @@
         <v>1.0</v>
       </c>
       <c r="J50" t="n" s="85">
-        <v>8.799821295580227E-8</v>
+        <v>8.799481960017077E-8</v>
       </c>
       <c r="K50" t="n" s="85">
-        <v>8.799821295580221E-8</v>
+        <v>8.799481960017072E-8</v>
       </c>
       <c r="L50" t="n" s="85">
         <v>1.0</v>
@@ -7478,16 +7478,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U50" t="n" s="85">
-        <v>1.083711388994678E-7</v>
+        <v>1.0313904355055928E-7</v>
       </c>
       <c r="V50" t="n" s="85">
         <v>0.001202698381742384</v>
       </c>
       <c r="W50" t="n" s="85">
-        <v>1.700750562717594E-7</v>
+        <v>1.6186392450578658E-7</v>
       </c>
       <c r="X50" t="n" s="85">
-        <v>1.700750562717593E-7</v>
+        <v>1.6186392450578644E-7</v>
       </c>
       <c r="Y50" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7502,52 +7502,52 @@
         <v>0.0755765696538819</v>
       </c>
       <c r="AC50" t="n" s="85">
-        <v>5.760961464268212E-6</v>
+        <v>5.760962559593583E-6</v>
       </c>
       <c r="AD50" t="n" s="85">
-        <v>5.760961464268212E-6</v>
+        <v>5.760962559593582E-6</v>
       </c>
       <c r="AE50" t="n" s="85">
-        <v>5.550109492818272E-7</v>
+        <v>5.550110548036593E-7</v>
       </c>
       <c r="AF50" t="n" s="85">
-        <v>5.550109492818271E-7</v>
+        <v>5.550110548036591E-7</v>
       </c>
       <c r="AG50" t="n" s="85">
-        <v>3.36297450849574E-9</v>
+        <v>3.3629751478814118E-9</v>
       </c>
       <c r="AH50" t="n" s="85">
         <v>0.007798131006425883</v>
       </c>
       <c r="AI50" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ50" t="n" s="85">
         <v>0.9971101500589464</v>
       </c>
       <c r="AK50" t="n" s="85">
-        <v>0.9727392141988664</v>
+        <v>0.9735033890585392</v>
       </c>
       <c r="AL50" t="n" s="85">
-        <v>0.590507175074981</v>
+        <v>0.6020831205327858</v>
       </c>
       <c r="AM50" t="n" s="85">
         <v>0.9600859719881768</v>
       </c>
       <c r="AN50" t="n" s="85">
-        <v>0.9335605528568103</v>
+        <v>0.933533993706336</v>
       </c>
       <c r="AO50" t="n" s="85">
-        <v>0.1953465707973785</v>
+        <v>0.19972788181405418</v>
       </c>
       <c r="AP50" t="n" s="85">
         <v>0.5039181657845978</v>
       </c>
       <c r="AQ50" t="n" s="85">
-        <v>0.08469517120262492</v>
+        <v>0.08463674206226428</v>
       </c>
       <c r="AR50" t="n" s="85">
-        <v>9.422604263381798E-8</v>
+        <v>9.055789836962371E-8</v>
       </c>
     </row>
     <row r="51">
@@ -7651,28 +7651,28 @@
         <v>0.9945287968484152</v>
       </c>
       <c r="AK51" t="n" s="85">
-        <v>0.9422127621589748</v>
+        <v>0.9428569275195698</v>
       </c>
       <c r="AL51" t="n" s="85">
-        <v>0.9820766168621398</v>
+        <v>0.9819373842748526</v>
       </c>
       <c r="AM51" t="n" s="85">
         <v>0.7571397511214066</v>
       </c>
       <c r="AN51" t="n" s="85">
-        <v>0.16814240631017568</v>
+        <v>0.16814911821235728</v>
       </c>
       <c r="AO51" t="n" s="85">
-        <v>0.015685289812305176</v>
+        <v>0.016220402245226723</v>
       </c>
       <c r="AP51" t="n" s="85">
         <v>0.12305318123889446</v>
       </c>
       <c r="AQ51" t="n" s="85">
-        <v>8.620146138787024E-5</v>
+        <v>8.620146436923745E-5</v>
       </c>
       <c r="AR51" t="n" s="85">
-        <v>1.8676299687153816E-9</v>
+        <v>1.9207014388459536E-9</v>
       </c>
     </row>
     <row r="52">
@@ -7728,16 +7728,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U52" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V52" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W52" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X52" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y52" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -7752,52 +7752,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC52" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD52" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE52" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF52" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG52" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH52" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI52" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ52" t="n" s="85">
         <v>0.9990073756964236</v>
       </c>
       <c r="AK52" t="n" s="85">
-        <v>0.9993623261817542</v>
+        <v>0.9993902862056653</v>
       </c>
       <c r="AL52" t="n" s="85">
-        <v>0.8809207988653258</v>
+        <v>0.8852703597944492</v>
       </c>
       <c r="AM52" t="n" s="85">
         <v>0.9989367452826986</v>
       </c>
       <c r="AN52" t="n" s="85">
-        <v>0.9988739071381825</v>
+        <v>0.9988667052652149</v>
       </c>
       <c r="AO52" t="n" s="85">
-        <v>0.962987631676471</v>
+        <v>0.9634130154453063</v>
       </c>
       <c r="AP52" t="n" s="85">
         <v>0.7900913384974859</v>
       </c>
       <c r="AQ52" t="n" s="85">
-        <v>0.8720284101225019</v>
+        <v>0.8719441219515701</v>
       </c>
       <c r="AR52" t="n" s="85">
-        <v>6.897728126213757E-4</v>
+        <v>6.640976746522474E-4</v>
       </c>
     </row>
     <row r="53">
@@ -7853,16 +7853,16 @@
         <v>0.012798835981254959</v>
       </c>
       <c r="U53" t="n" s="85">
-        <v>6.3441492219082435E-6</v>
+        <v>6.279457464924761E-6</v>
       </c>
       <c r="V53" t="n" s="85">
         <v>0.012291838774817347</v>
       </c>
       <c r="W53" t="n" s="85">
-        <v>1.0040801838095416E-5</v>
+        <v>9.938415309239148E-6</v>
       </c>
       <c r="X53" t="n" s="85">
-        <v>1.0040801838095416E-5</v>
+        <v>9.938415309239148E-6</v>
       </c>
       <c r="Y53" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -7877,16 +7877,16 @@
         <v>0.09820490778255596</v>
       </c>
       <c r="AC53" t="n" s="85">
-        <v>8.029736270726623E-5</v>
+        <v>8.029736630741353E-5</v>
       </c>
       <c r="AD53" t="n" s="85">
-        <v>8.029736270726619E-5</v>
+        <v>8.029736630741349E-5</v>
       </c>
       <c r="AE53" t="n" s="85">
-        <v>1.1718003677324652E-5</v>
+        <v>1.1718004202725753E-5</v>
       </c>
       <c r="AF53" t="n" s="85">
-        <v>1.1718003677324652E-5</v>
+        <v>1.1718004202725753E-5</v>
       </c>
       <c r="AG53" t="n" s="85">
         <v>1.0</v>
@@ -7895,7 +7895,7 @@
         <v>0.03129351688105596</v>
       </c>
       <c r="AI53" t="n" s="85">
-        <v>1.2327585489675742E-4</v>
+        <v>1.232758604240785E-4</v>
       </c>
       <c r="AJ53" t="n" s="85">
         <v>0.9993100600201867</v>
@@ -7984,7 +7984,7 @@
         <v>0.004370013363195002</v>
       </c>
       <c r="W54" t="n" s="85">
-        <v>2.3140403620176876E-6</v>
+        <v>2.294158586644881E-6</v>
       </c>
       <c r="X54" t="n" s="85">
         <v>1.0</v>
@@ -8002,16 +8002,16 @@
         <v>0.12175255306872632</v>
       </c>
       <c r="AC54" t="n" s="85">
-        <v>4.189616588894294E-5</v>
+        <v>4.14437157900882E-5</v>
       </c>
       <c r="AD54" t="n" s="85">
-        <v>4.189616588894295E-5</v>
+        <v>4.144371579008821E-5</v>
       </c>
       <c r="AE54" t="n" s="85">
-        <v>6.280677752106995E-6</v>
+        <v>6.212850201840584E-6</v>
       </c>
       <c r="AF54" t="n" s="85">
-        <v>6.280677752106995E-6</v>
+        <v>6.212850201840584E-6</v>
       </c>
       <c r="AG54" t="n" s="85">
         <v>1.0</v>
@@ -8020,22 +8020,22 @@
         <v>0.01414231447893504</v>
       </c>
       <c r="AI54" t="n" s="85">
-        <v>1.5069156982773168E-4</v>
+        <v>1.490642344542737E-4</v>
       </c>
       <c r="AJ54" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK54" t="n" s="85">
-        <v>0.9999936600525205</v>
+        <v>0.9999935090089639</v>
       </c>
       <c r="AL54" t="n" s="85">
-        <v>0.9999999428738946</v>
+        <v>0.9999999418309936</v>
       </c>
       <c r="AM54" t="n" s="85">
         <v>0.9999883603959002</v>
       </c>
       <c r="AN54" t="n" s="85">
-        <v>0.9999999999988841</v>
+        <v>0.9999999999989087</v>
       </c>
       <c r="AO54" t="n" s="85">
         <v>1.0</v>
@@ -8070,10 +8070,10 @@
         <v>1.0</v>
       </c>
       <c r="J55" t="n" s="85">
-        <v>7.3417971079891375E-6</v>
+        <v>7.341513998287067E-6</v>
       </c>
       <c r="K55" t="n" s="85">
-        <v>7.3417971079891375E-6</v>
+        <v>7.341513998287067E-6</v>
       </c>
       <c r="L55" t="n" s="85">
         <v>1.0</v>
@@ -8109,10 +8109,10 @@
         <v>0.0039667611161808706</v>
       </c>
       <c r="W55" t="n" s="85">
-        <v>1.833732390530716E-6</v>
+        <v>1.8803387472285397E-6</v>
       </c>
       <c r="X55" t="n" s="85">
-        <v>1.8337323905307154E-6</v>
+        <v>1.8803387472285397E-6</v>
       </c>
       <c r="Y55" t="n" s="85">
         <v>0.25002375972719537</v>
@@ -8127,25 +8127,25 @@
         <v>0.1118954416272225</v>
       </c>
       <c r="AC55" t="n" s="85">
-        <v>3.627806723568477E-5</v>
+        <v>3.772969912903458E-5</v>
       </c>
       <c r="AD55" t="n" s="85">
-        <v>3.627806723568476E-5</v>
+        <v>3.7729699129034576E-5</v>
       </c>
       <c r="AE55" t="n" s="85">
-        <v>5.2940826070130206E-6</v>
+        <v>5.505921405000619E-6</v>
       </c>
       <c r="AF55" t="n" s="85">
-        <v>5.294082607013019E-6</v>
+        <v>5.505921405000618E-6</v>
       </c>
       <c r="AG55" t="n" s="85">
-        <v>4.85284010166165E-8</v>
+        <v>5.047023063700201E-8</v>
       </c>
       <c r="AH55" t="n" s="85">
         <v>0.010577188961884424</v>
       </c>
       <c r="AI55" t="n" s="85">
-        <v>9.456727704042531E-5</v>
+        <v>9.835138656535559E-5</v>
       </c>
       <c r="AJ55" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -8169,10 +8169,10 @@
         <v>0.9999187751399021</v>
       </c>
       <c r="AQ55" t="n" s="85">
-        <v>0.9999973382695129</v>
+        <v>0.999997336262041</v>
       </c>
       <c r="AR55" t="n" s="85">
-        <v>0.9997783812183627</v>
+        <v>0.9997778395652774</v>
       </c>
     </row>
     <row r="56">
@@ -8228,16 +8228,16 @@
         <v>0.016511228067222595</v>
       </c>
       <c r="U56" t="n" s="85">
-        <v>1.5398992736939326E-5</v>
+        <v>1.5856054722935536E-5</v>
       </c>
       <c r="V56" t="n" s="85">
         <v>0.012258601874451821</v>
       </c>
       <c r="W56" t="n" s="85">
-        <v>1.372548495919022E-5</v>
+        <v>1.4132876292752151E-5</v>
       </c>
       <c r="X56" t="n" s="85">
-        <v>1.372548495919022E-5</v>
+        <v>1.4132876292752151E-5</v>
       </c>
       <c r="Y56" t="n" s="85">
         <v>0.36296712898219324</v>
@@ -8252,16 +8252,16 @@
         <v>0.17270135755246224</v>
       </c>
       <c r="AC56" t="n" s="85">
-        <v>2.8355005302355265E-4</v>
+        <v>2.835500056619322E-4</v>
       </c>
       <c r="AD56" t="n" s="85">
-        <v>2.835500530235525E-4</v>
+        <v>2.835500056619321E-4</v>
       </c>
       <c r="AE56" t="n" s="85">
-        <v>4.138483104397441E-5</v>
+        <v>4.138482413000402E-5</v>
       </c>
       <c r="AF56" t="n" s="85">
-        <v>4.138483104397441E-5</v>
+        <v>4.138482413000402E-5</v>
       </c>
       <c r="AG56" t="n" s="85">
         <v>1.0</v>
@@ -8270,16 +8270,16 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI56" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ56" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK56" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL56" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM56" t="n" s="85">
         <v>0.9999744279750036</v>
@@ -8359,10 +8359,10 @@
         <v>0.0035751160202512136</v>
       </c>
       <c r="W57" t="n" s="85">
-        <v>1.7422330643907423E-6</v>
+        <v>1.7775720859824993E-6</v>
       </c>
       <c r="X57" t="n" s="85">
-        <v>1.7422330643907421E-6</v>
+        <v>1.7775720859824987E-6</v>
       </c>
       <c r="Y57" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -8377,52 +8377,52 @@
         <v>0.10116084921926184</v>
       </c>
       <c r="AC57" t="n" s="85">
-        <v>3.455146598364499E-5</v>
+        <v>3.566766189612866E-5</v>
       </c>
       <c r="AD57" t="n" s="85">
-        <v>3.455146598364499E-5</v>
+        <v>3.566766189612865E-5</v>
       </c>
       <c r="AE57" t="n" s="85">
-        <v>5.042117177616405E-6</v>
+        <v>5.205004991023078E-6</v>
       </c>
       <c r="AF57" t="n" s="85">
-        <v>5.042117177616404E-6</v>
+        <v>5.205004991023077E-6</v>
       </c>
       <c r="AG57" t="n" s="85">
-        <v>4.165027358899067E-8</v>
+        <v>4.2995804712057017E-8</v>
       </c>
       <c r="AH57" t="n" s="85">
         <v>0.010577188961884424</v>
       </c>
       <c r="AI57" t="n" s="85">
-        <v>1.031926372679514E-4</v>
+        <v>1.0652635269634873E-4</v>
       </c>
       <c r="AJ57" t="n" s="85">
         <v>0.9992488414630909</v>
       </c>
       <c r="AK57" t="n" s="85">
-        <v>0.9999711437777297</v>
+        <v>0.9999716626523263</v>
       </c>
       <c r="AL57" t="n" s="85">
-        <v>0.9999774436956615</v>
+        <v>0.9999776466220186</v>
       </c>
       <c r="AM57" t="n" s="85">
         <v>0.9999227480779842</v>
       </c>
       <c r="AN57" t="n" s="85">
-        <v>0.9999999767205058</v>
+        <v>0.9999999765538045</v>
       </c>
       <c r="AO57" t="n" s="85">
-        <v>0.9999995436156903</v>
+        <v>0.9999995410343112</v>
       </c>
       <c r="AP57" t="n" s="85">
         <v>0.9951947920129768</v>
       </c>
       <c r="AQ57" t="n" s="85">
-        <v>0.9996711144007302</v>
+        <v>0.9996700843148564</v>
       </c>
       <c r="AR57" t="n" s="85">
-        <v>0.9997229646810735</v>
+        <v>0.9997208649609315</v>
       </c>
     </row>
     <row r="58">
@@ -8445,10 +8445,10 @@
         <v>1.0</v>
       </c>
       <c r="J58" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="K58" t="n" s="85">
-        <v>3.8080179993720483E-7</v>
+        <v>3.8079434230926516E-7</v>
       </c>
       <c r="L58" t="n" s="85">
         <v>1.0</v>
@@ -8478,16 +8478,16 @@
         <v>0.0016108314648964862</v>
       </c>
       <c r="U58" t="n" s="85">
-        <v>5.95776469769375E-7</v>
+        <v>5.801158413367406E-7</v>
       </c>
       <c r="V58" t="n" s="85">
         <v>0.0026108272062360985</v>
       </c>
       <c r="W58" t="n" s="85">
-        <v>9.506308948292502E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="X58" t="n" s="85">
-        <v>9.506308948292503E-7</v>
+        <v>9.256425187887375E-7</v>
       </c>
       <c r="Y58" t="n" s="85">
         <v>0.2180821619662109</v>
@@ -8502,52 +8502,52 @@
         <v>0.09730750578087043</v>
       </c>
       <c r="AC58" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.226930622300881E-5</v>
       </c>
       <c r="AD58" t="n" s="85">
-        <v>2.2269303849432946E-5</v>
+        <v>2.2269306223008817E-5</v>
       </c>
       <c r="AE58" t="n" s="85">
-        <v>2.8283631772555973E-6</v>
+        <v>2.8283634787157663E-6</v>
       </c>
       <c r="AF58" t="n" s="85">
-        <v>2.8283631772555965E-6</v>
+        <v>2.8283634787157655E-6</v>
       </c>
       <c r="AG58" t="n" s="85">
-        <v>2.1396434598395317E-8</v>
+        <v>2.139643687892442E-8</v>
       </c>
       <c r="AH58" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI58" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ58" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK58" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL58" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM58" t="n" s="85">
         <v>0.9993744113189219</v>
       </c>
       <c r="AN58" t="n" s="85">
-        <v>0.9999999998137815</v>
+        <v>0.9999999998257707</v>
       </c>
       <c r="AO58" t="n" s="85">
-        <v>0.9999999999999925</v>
+        <v>0.9999999999999938</v>
       </c>
       <c r="AP58" t="n" s="85">
         <v>0.9804205571019377</v>
       </c>
       <c r="AQ58" t="n" s="85">
-        <v>0.9999941686315756</v>
+        <v>0.9999945438180353</v>
       </c>
       <c r="AR58" t="n" s="85">
-        <v>0.9999999077974591</v>
+        <v>0.9999999157766702</v>
       </c>
     </row>
     <row r="59">
@@ -8570,10 +8570,10 @@
         <v>1.0</v>
       </c>
       <c r="J59" t="n" s="85">
-        <v>8.743999338880122E-7</v>
+        <v>8.743828096355539E-7</v>
       </c>
       <c r="K59" t="n" s="85">
-        <v>8.743999338880122E-7</v>
+        <v>8.743828096355539E-7</v>
       </c>
       <c r="L59" t="n" s="85">
         <v>1.0</v>
@@ -8609,10 +8609,10 @@
         <v>0.005013150485849409</v>
       </c>
       <c r="W59" t="n" s="85">
-        <v>2.617870360965641E-6</v>
+        <v>2.652052447436744E-6</v>
       </c>
       <c r="X59" t="n" s="85">
-        <v>2.617870360965641E-6</v>
+        <v>2.652052447436744E-6</v>
       </c>
       <c r="Y59" t="n" s="85">
         <v>0.21966061299501963</v>
@@ -8627,52 +8627,52 @@
         <v>0.10020725831613303</v>
       </c>
       <c r="AC59" t="n" s="85">
-        <v>5.443044525788696E-5</v>
+        <v>5.559445172421701E-5</v>
       </c>
       <c r="AD59" t="n" s="85">
-        <v>5.4430445257886956E-5</v>
+        <v>5.559445172421698E-5</v>
       </c>
       <c r="AE59" t="n" s="85">
-        <v>7.943095295648475E-6</v>
+        <v>8.112963584375918E-6</v>
       </c>
       <c r="AF59" t="n" s="85">
-        <v>7.943095295648476E-6</v>
+        <v>8.11296358437592E-6</v>
       </c>
       <c r="AG59" t="n" s="85">
-        <v>6.050944502381796E-8</v>
+        <v>6.180348347557719E-8</v>
       </c>
       <c r="AH59" t="n" s="85">
         <v>0.010409516662817926</v>
       </c>
       <c r="AI59" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ59" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK59" t="n" s="85">
-        <v>0.999982745185046</v>
+        <v>0.9999833798454997</v>
       </c>
       <c r="AL59" t="n" s="85">
-        <v>0.9999999831021349</v>
+        <v>0.9999999834042304</v>
       </c>
       <c r="AM59" t="n" s="85">
         <v>0.9996580544673085</v>
       </c>
       <c r="AN59" t="n" s="85">
-        <v>0.9999999982122895</v>
+        <v>0.9999999981865308</v>
       </c>
       <c r="AO59" t="n" s="85">
-        <v>0.9999999999926439</v>
+        <v>0.9999999999924637</v>
       </c>
       <c r="AP59" t="n" s="85">
         <v>0.9946258090698903</v>
       </c>
       <c r="AQ59" t="n" s="85">
-        <v>0.9999903911629302</v>
+        <v>0.999990254087028</v>
       </c>
       <c r="AR59" t="n" s="85">
-        <v>0.9999991855650253</v>
+        <v>0.9999991754375744</v>
       </c>
     </row>
     <row r="60">
@@ -8734,7 +8734,7 @@
         <v>0.0041614076581212925</v>
       </c>
       <c r="W60" t="n" s="85">
-        <v>2.4488255303645217E-6</v>
+        <v>2.469574818616285E-6</v>
       </c>
       <c r="X60" t="n" s="85">
         <v>1.0</v>
@@ -8752,40 +8752,40 @@
         <v>0.10452794359747974</v>
       </c>
       <c r="AC60" t="n" s="85">
-        <v>4.713381710565927E-5</v>
+        <v>4.765094903097348E-5</v>
       </c>
       <c r="AD60" t="n" s="85">
-        <v>4.713381710565927E-5</v>
+        <v>4.765094903097347E-5</v>
       </c>
       <c r="AE60" t="n" s="85">
-        <v>7.040718385653666E-6</v>
+        <v>7.1179671287159E-6</v>
       </c>
       <c r="AF60" t="n" s="85">
-        <v>7.040718385653666E-6</v>
+        <v>7.1179671287159E-6</v>
       </c>
       <c r="AG60" t="n" s="85">
-        <v>5.891600349653064E-8</v>
+        <v>5.956241446296339E-8</v>
       </c>
       <c r="AH60" t="n" s="85">
         <v>0.011150408890625197</v>
       </c>
       <c r="AI60" t="n" s="85">
-        <v>1.1917244189372025E-4</v>
+        <v>1.204799692139601E-4</v>
       </c>
       <c r="AJ60" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK60" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL60" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM60" t="n" s="85">
         <v>0.9999209791348291</v>
       </c>
       <c r="AN60" t="n" s="85">
-        <v>0.9999999999999664</v>
+        <v>0.9999999999999685</v>
       </c>
       <c r="AO60" t="n" s="85">
         <v>1.0</v>
@@ -8820,7 +8820,7 @@
         <v>1.0</v>
       </c>
       <c r="J61" t="n" s="85">
-        <v>7.10435289701342E-7</v>
+        <v>7.104324869744006E-7</v>
       </c>
       <c r="K61" t="n" s="85">
         <v>1.0</v>
@@ -8859,10 +8859,10 @@
         <v>0.0036261716864365704</v>
       </c>
       <c r="W61" t="n" s="85">
-        <v>2.112723748154514E-6</v>
+        <v>2.1184875695040886E-6</v>
       </c>
       <c r="X61" t="n" s="85">
-        <v>2.112723748154514E-6</v>
+        <v>2.1184875695040886E-6</v>
       </c>
       <c r="Y61" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -8877,16 +8877,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC61" t="n" s="85">
-        <v>4.0694732007752624E-5</v>
+        <v>4.0873195159013156E-5</v>
       </c>
       <c r="AD61" t="n" s="85">
-        <v>4.0694732007752624E-5</v>
+        <v>4.0873195159013156E-5</v>
       </c>
       <c r="AE61" t="n" s="85">
-        <v>6.078854394136768E-6</v>
+        <v>6.105512870270338E-6</v>
       </c>
       <c r="AF61" t="n" s="85">
-        <v>6.078854394136768E-6</v>
+        <v>6.105512870270338E-6</v>
       </c>
       <c r="AG61" t="n" s="85">
         <v>1.0</v>
@@ -8895,7 +8895,7 @@
         <v>0.013153817287712883</v>
       </c>
       <c r="AI61" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ61" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -8922,7 +8922,7 @@
         <v>0.9999999982963069</v>
       </c>
       <c r="AR61" t="n" s="85">
-        <v>0.9999999616249697</v>
+        <v>0.9999999615576137</v>
       </c>
     </row>
     <row r="62">
@@ -8945,10 +8945,10 @@
         <v>1.0</v>
       </c>
       <c r="J62" t="n" s="85">
-        <v>1.7217542404601094E-5</v>
+        <v>1.721720522167947E-5</v>
       </c>
       <c r="K62" t="n" s="85">
-        <v>1.7217542404601094E-5</v>
+        <v>1.721720522167947E-5</v>
       </c>
       <c r="L62" t="n" s="85">
         <v>1.0</v>
@@ -8984,10 +8984,10 @@
         <v>0.003804669638478579</v>
       </c>
       <c r="W62" t="n" s="85">
-        <v>2.197204546734859E-6</v>
+        <v>2.203198843629615E-6</v>
       </c>
       <c r="X62" t="n" s="85">
-        <v>2.197204546734859E-6</v>
+        <v>2.203198843629615E-6</v>
       </c>
       <c r="Y62" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9002,16 +9002,16 @@
         <v>0.10914509812707647</v>
       </c>
       <c r="AC62" t="n" s="85">
-        <v>4.2405281091504116E-5</v>
+        <v>4.259124538511045E-5</v>
       </c>
       <c r="AD62" t="n" s="85">
-        <v>4.2405281091504116E-5</v>
+        <v>4.259124538511045E-5</v>
       </c>
       <c r="AE62" t="n" s="85">
-        <v>6.2867288889896835E-6</v>
+        <v>6.314298981343816E-6</v>
       </c>
       <c r="AF62" t="n" s="85">
-        <v>6.2867288889896835E-6</v>
+        <v>6.314298981343816E-6</v>
       </c>
       <c r="AG62" t="n" s="85">
         <v>1.0</v>
@@ -9020,22 +9020,22 @@
         <v>0.013376990847992914</v>
       </c>
       <c r="AI62" t="n" s="85">
-        <v>1.4026335361853003E-4</v>
+        <v>1.4087845818008972E-4</v>
       </c>
       <c r="AJ62" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK62" t="n" s="85">
-        <v>0.999994791587739</v>
+        <v>0.9999946666235279</v>
       </c>
       <c r="AL62" t="n" s="85">
-        <v>0.9999999834536211</v>
+        <v>0.9999999831515517</v>
       </c>
       <c r="AM62" t="n" s="85">
         <v>0.9999634386555672</v>
       </c>
       <c r="AN62" t="n" s="85">
-        <v>0.9999999999912003</v>
+        <v>0.9999999999913932</v>
       </c>
       <c r="AO62" t="n" s="85">
         <v>1.0</v>
@@ -9103,13 +9103,13 @@
         <v>0.00631258719312559</v>
       </c>
       <c r="U63" t="n" s="85">
-        <v>3.1801413898902337E-6</v>
+        <v>3.2446464912251287E-6</v>
       </c>
       <c r="V63" t="n" s="85">
         <v>0.004555400946551513</v>
       </c>
       <c r="W63" t="n" s="85">
-        <v>5.506590272336384E-6</v>
+        <v>5.6182841765766315E-6</v>
       </c>
       <c r="X63" t="n" s="85">
         <v>1.0</v>
@@ -9127,40 +9127,40 @@
         <v>0.08964704642190782</v>
       </c>
       <c r="AC63" t="n" s="85">
-        <v>1.0920756279592968E-4</v>
+        <v>1.127352765699737E-4</v>
       </c>
       <c r="AD63" t="n" s="85">
-        <v>1.0920756279592968E-4</v>
+        <v>1.127352765699737E-4</v>
       </c>
       <c r="AE63" t="n" s="85">
-        <v>1.593719717615073E-5</v>
+        <v>1.6452049727916403E-5</v>
       </c>
       <c r="AF63" t="n" s="85">
-        <v>1.5937197176150722E-5</v>
+        <v>1.6452049727916393E-5</v>
       </c>
       <c r="AG63" t="n" s="85">
-        <v>1.1307564877040985E-7</v>
+        <v>1.1672861026776235E-7</v>
       </c>
       <c r="AH63" t="n" s="85">
         <v>0.010873534206382464</v>
       </c>
       <c r="AI63" t="n" s="85">
-        <v>1.0319262797601885E-4</v>
+        <v>1.0652634425045888E-4</v>
       </c>
       <c r="AJ63" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK63" t="n" s="85">
-        <v>0.9999944107913606</v>
+        <v>0.9999942766081519</v>
       </c>
       <c r="AL63" t="n" s="85">
-        <v>0.9999999987292668</v>
+        <v>0.9999999987060693</v>
       </c>
       <c r="AM63" t="n" s="85">
         <v>0.999937335254854</v>
       </c>
       <c r="AN63" t="n" s="85">
-        <v>0.9999999999952637</v>
+        <v>0.9999999999953676</v>
       </c>
       <c r="AO63" t="n" s="85">
         <v>1.0</v>
@@ -9234,10 +9234,10 @@
         <v>0.004057158004260733</v>
       </c>
       <c r="W64" t="n" s="85">
-        <v>2.371904473599155E-6</v>
+        <v>2.378375376433958E-6</v>
       </c>
       <c r="X64" t="n" s="85">
-        <v>2.371904473599155E-6</v>
+        <v>2.378375376433958E-6</v>
       </c>
       <c r="Y64" t="n" s="85">
         <v>0.23039493774313574</v>
@@ -9252,16 +9252,16 @@
         <v>0.1063132804537054</v>
       </c>
       <c r="AC64" t="n" s="85">
-        <v>4.159731273792592E-5</v>
+        <v>4.177973391184398E-5</v>
       </c>
       <c r="AD64" t="n" s="85">
-        <v>4.159731273792592E-5</v>
+        <v>4.177973391184398E-5</v>
       </c>
       <c r="AE64" t="n" s="85">
-        <v>6.213681817074937E-6</v>
+        <v>6.240931567644709E-6</v>
       </c>
       <c r="AF64" t="n" s="85">
-        <v>6.213681817074937E-6</v>
+        <v>6.240931567644709E-6</v>
       </c>
       <c r="AG64" t="n" s="85">
         <v>1.0</v>
@@ -9270,22 +9270,22 @@
         <v>0.014604180310559016</v>
       </c>
       <c r="AI64" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ64" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK64" t="n" s="85">
-        <v>0.9999986664649917</v>
+        <v>0.9999985674404415</v>
       </c>
       <c r="AL64" t="n" s="85">
-        <v>0.9999999999960908</v>
+        <v>0.9999999999958727</v>
       </c>
       <c r="AM64" t="n" s="85">
         <v>0.9998322282003985</v>
       </c>
       <c r="AN64" t="n" s="85">
-        <v>0.9999999999986449</v>
+        <v>0.9999999999987321</v>
       </c>
       <c r="AO64" t="n" s="85">
         <v>1.0</v>
@@ -9320,10 +9320,10 @@
         <v>1.0</v>
       </c>
       <c r="J65" t="n" s="85">
-        <v>2.638943365167431E-5</v>
+        <v>2.6388416058530986E-5</v>
       </c>
       <c r="K65" t="n" s="85">
-        <v>2.638943365167431E-5</v>
+        <v>2.6388416058530986E-5</v>
       </c>
       <c r="L65" t="n" s="85">
         <v>0.003864684044422315</v>
@@ -9359,10 +9359,10 @@
         <v>0.0038095315455450507</v>
       </c>
       <c r="W65" t="n" s="85">
-        <v>2.24888433392042E-6</v>
+        <v>2.258503728962565E-6</v>
       </c>
       <c r="X65" t="n" s="85">
-        <v>2.24888433392042E-6</v>
+        <v>2.258503728962565E-6</v>
       </c>
       <c r="Y65" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9377,16 +9377,16 @@
         <v>0.10914509812707647</v>
       </c>
       <c r="AC65" t="n" s="85">
-        <v>4.2394622171291945E-5</v>
+        <v>4.267680178205044E-5</v>
       </c>
       <c r="AD65" t="n" s="85">
-        <v>4.2394622171291945E-5</v>
+        <v>4.267680178205044E-5</v>
       </c>
       <c r="AE65" t="n" s="85">
-        <v>6.285147778338602E-6</v>
+        <v>6.326982248305987E-6</v>
       </c>
       <c r="AF65" t="n" s="85">
-        <v>6.285147778338602E-6</v>
+        <v>6.326982248305987E-6</v>
       </c>
       <c r="AG65" t="n" s="85">
         <v>1.0</v>
@@ -9395,22 +9395,22 @@
         <v>0.013683966829840485</v>
       </c>
       <c r="AI65" t="n" s="85">
-        <v>1.4044918448857672E-4</v>
+        <v>1.4138400657586825E-4</v>
       </c>
       <c r="AJ65" t="n" s="85">
         <v>0.9991384966975401</v>
       </c>
       <c r="AK65" t="n" s="85">
-        <v>0.9999850272375923</v>
+        <v>0.9999843029462651</v>
       </c>
       <c r="AL65" t="n" s="85">
-        <v>0.9999999838946939</v>
+        <v>0.9999999833012998</v>
       </c>
       <c r="AM65" t="n" s="85">
         <v>0.9999603407291667</v>
       </c>
       <c r="AN65" t="n" s="85">
-        <v>0.9999999999819816</v>
+        <v>0.9999999999827636</v>
       </c>
       <c r="AO65" t="n" s="85">
         <v>1.0</v>
@@ -9445,10 +9445,10 @@
         <v>1.0</v>
       </c>
       <c r="J66" t="n" s="85">
-        <v>1.1285037703752566E-7</v>
+        <v>1.1284602534173477E-7</v>
       </c>
       <c r="K66" t="n" s="85">
-        <v>1.1285037703752564E-7</v>
+        <v>1.1284602534173476E-7</v>
       </c>
       <c r="L66" t="n" s="85">
         <v>1.0</v>
@@ -9478,16 +9478,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U66" t="n" s="85">
-        <v>1.557647785165904E-7</v>
+        <v>1.4824454624149606E-7</v>
       </c>
       <c r="V66" t="n" s="85">
         <v>0.00128998386735488</v>
       </c>
       <c r="W66" t="n" s="85">
-        <v>2.6218514884605295E-7</v>
+        <v>2.4952699271943165E-7</v>
       </c>
       <c r="X66" t="n" s="85">
-        <v>2.62185148846053E-7</v>
+        <v>2.4952699271943144E-7</v>
       </c>
       <c r="Y66" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -9502,52 +9502,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC66" t="n" s="85">
-        <v>6.736515481184626E-6</v>
+        <v>6.736516761989778E-6</v>
       </c>
       <c r="AD66" t="n" s="85">
-        <v>6.736515481184625E-6</v>
+        <v>6.7365167619897766E-6</v>
       </c>
       <c r="AE66" t="n" s="85">
-        <v>8.555972841748002E-7</v>
+        <v>8.555974468457637E-7</v>
       </c>
       <c r="AF66" t="n" s="85">
-        <v>8.555972841747998E-7</v>
+        <v>8.555974468457637E-7</v>
       </c>
       <c r="AG66" t="n" s="85">
-        <v>5.184308447178444E-9</v>
+        <v>5.1843094328453135E-9</v>
       </c>
       <c r="AH66" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI66" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ66" t="n" s="85">
         <v>0.998470850087151</v>
       </c>
       <c r="AK66" t="n" s="85">
-        <v>0.9965625773867879</v>
+        <v>0.9967045989787512</v>
       </c>
       <c r="AL66" t="n" s="85">
-        <v>0.9015946808570379</v>
+        <v>0.9053654652791914</v>
       </c>
       <c r="AM66" t="n" s="85">
         <v>0.9914970692089012</v>
       </c>
       <c r="AN66" t="n" s="85">
-        <v>0.9890219457971654</v>
+        <v>0.9889645562850806</v>
       </c>
       <c r="AO66" t="n" s="85">
-        <v>0.974282905711634</v>
+        <v>0.9746689653274536</v>
       </c>
       <c r="AP66" t="n" s="85">
         <v>0.6346123436152176</v>
       </c>
       <c r="AQ66" t="n" s="85">
-        <v>0.5286989401647446</v>
+        <v>0.5285108086853476</v>
       </c>
       <c r="AR66" t="n" s="85">
-        <v>3.1628543686623023E-4</v>
+        <v>3.0438747218419196E-4</v>
       </c>
     </row>
     <row r="67">
@@ -9609,10 +9609,10 @@
         <v>0.0038459811684908095</v>
       </c>
       <c r="W67" t="n" s="85">
-        <v>2.156988577563597E-6</v>
+        <v>2.1685169073110344E-6</v>
       </c>
       <c r="X67" t="n" s="85">
-        <v>2.156988577563597E-6</v>
+        <v>2.1685169073110344E-6</v>
       </c>
       <c r="Y67" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -9627,16 +9627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC67" t="n" s="85">
-        <v>3.9285698941141876E-5</v>
+        <v>3.960856355739949E-5</v>
       </c>
       <c r="AD67" t="n" s="85">
-        <v>3.9285698941141876E-5</v>
+        <v>3.960856355739949E-5</v>
       </c>
       <c r="AE67" t="n" s="85">
-        <v>5.824234670261457E-6</v>
+        <v>5.872100721868667E-6</v>
       </c>
       <c r="AF67" t="n" s="85">
-        <v>5.824234670261457E-6</v>
+        <v>5.872100721868667E-6</v>
       </c>
       <c r="AG67" t="n" s="85">
         <v>1.0</v>
@@ -9645,7 +9645,7 @@
         <v>0.016884860013846297</v>
       </c>
       <c r="AI67" t="n" s="85">
-        <v>1.6607620874689946E-4</v>
+        <v>1.6744102961012333E-4</v>
       </c>
       <c r="AJ67" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -9669,10 +9669,10 @@
         <v>0.9999984419988501</v>
       </c>
       <c r="AQ67" t="n" s="85">
-        <v>0.9999999681845705</v>
+        <v>0.9999999681605753</v>
       </c>
       <c r="AR67" t="n" s="85">
-        <v>0.9994974289482496</v>
+        <v>0.9994962009725598</v>
       </c>
     </row>
     <row r="68">
@@ -9695,10 +9695,10 @@
         <v>1.0</v>
       </c>
       <c r="J68" t="n" s="85">
-        <v>1.3217807874539051E-6</v>
+        <v>1.3217549017042645E-6</v>
       </c>
       <c r="K68" t="n" s="85">
-        <v>1.3217807874539051E-6</v>
+        <v>1.3217549017042645E-6</v>
       </c>
       <c r="L68" t="n" s="85">
         <v>1.0</v>
@@ -9734,10 +9734,10 @@
         <v>0.003726741397093472</v>
       </c>
       <c r="W68" t="n" s="85">
-        <v>2.2799117460724476E-6</v>
+        <v>2.2861316798454353E-6</v>
       </c>
       <c r="X68" t="n" s="85">
-        <v>2.2799117460724476E-6</v>
+        <v>2.2861316798454353E-6</v>
       </c>
       <c r="Y68" t="n" s="85">
         <v>0.22731950960297784</v>
@@ -9752,16 +9752,16 @@
         <v>0.10369120838380375</v>
       </c>
       <c r="AC68" t="n" s="85">
-        <v>4.461640851841263E-5</v>
+        <v>4.4812069064757925E-5</v>
       </c>
       <c r="AD68" t="n" s="85">
-        <v>4.461640851841262E-5</v>
+        <v>4.481206906475791E-5</v>
       </c>
       <c r="AE68" t="n" s="85">
-        <v>6.664668190068505E-6</v>
+        <v>6.693895702659676E-6</v>
       </c>
       <c r="AF68" t="n" s="85">
-        <v>6.664668190068505E-6</v>
+        <v>6.693895702659676E-6</v>
       </c>
       <c r="AG68" t="n" s="85">
         <v>1.0</v>
@@ -9770,22 +9770,22 @@
         <v>0.01754355753999358</v>
       </c>
       <c r="AI68" t="n" s="85">
-        <v>1.9405414849016847E-4</v>
+        <v>1.949050987856248E-4</v>
       </c>
       <c r="AJ68" t="n" s="85">
         <v>0.9990739168110178</v>
       </c>
       <c r="AK68" t="n" s="85">
-        <v>0.9999470009608118</v>
+        <v>0.9999479686784947</v>
       </c>
       <c r="AL68" t="n" s="85">
-        <v>0.9999994026315148</v>
+        <v>0.9999994079963145</v>
       </c>
       <c r="AM68" t="n" s="85">
         <v>0.9998678321664521</v>
       </c>
       <c r="AN68" t="n" s="85">
-        <v>0.999999996517132</v>
+        <v>0.9999999964921353</v>
       </c>
       <c r="AO68" t="n" s="85">
         <v>1.0</v>
@@ -9901,28 +9901,28 @@
         <v>0.9985148342825234</v>
       </c>
       <c r="AK69" t="n" s="85">
-        <v>0.9982484482498775</v>
+        <v>0.9982703068123373</v>
       </c>
       <c r="AL69" t="n" s="85">
-        <v>0.981632299881418</v>
+        <v>0.9815258652305228</v>
       </c>
       <c r="AM69" t="n" s="85">
         <v>0.9907105021520153</v>
       </c>
       <c r="AN69" t="n" s="85">
-        <v>0.9815367195092529</v>
+        <v>0.9815736816400884</v>
       </c>
       <c r="AO69" t="n" s="85">
-        <v>0.9581736713568189</v>
+        <v>0.9594616296035475</v>
       </c>
       <c r="AP69" t="n" s="85">
         <v>0.5320818042234643</v>
       </c>
       <c r="AQ69" t="n" s="85">
-        <v>0.2876307544975233</v>
+        <v>0.2876309989467373</v>
       </c>
       <c r="AR69" t="n" s="85">
-        <v>2.5031191397687907E-4</v>
+        <v>2.572796207736624E-4</v>
       </c>
     </row>
     <row r="70">
@@ -9945,10 +9945,10 @@
         <v>1.0</v>
       </c>
       <c r="J70" t="n" s="85">
-        <v>2.5172617663599817E-7</v>
+        <v>2.5171646966274794E-7</v>
       </c>
       <c r="K70" t="n" s="85">
-        <v>2.5172617663599817E-7</v>
+        <v>2.5171646966274794E-7</v>
       </c>
       <c r="L70" t="n" s="85">
         <v>1.0</v>
@@ -9978,16 +9978,16 @@
         <v>0.0033738749388922875</v>
       </c>
       <c r="U70" t="n" s="85">
-        <v>2.9107914344660305E-6</v>
+        <v>2.8811097789045536E-6</v>
       </c>
       <c r="V70" t="n" s="85">
         <v>0.005280678082975135</v>
       </c>
       <c r="W70" t="n" s="85">
-        <v>4.4935513334195016E-6</v>
+        <v>4.447730127418257E-6</v>
       </c>
       <c r="X70" t="n" s="85">
-        <v>4.4935513334195016E-6</v>
+        <v>4.447730127418257E-6</v>
       </c>
       <c r="Y70" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -10002,16 +10002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC70" t="n" s="85">
-        <v>4.9470434357421625E-5</v>
+        <v>4.9470436575506194E-5</v>
       </c>
       <c r="AD70" t="n" s="85">
-        <v>4.9470434357421625E-5</v>
+        <v>4.9470436575506194E-5</v>
       </c>
       <c r="AE70" t="n" s="85">
-        <v>7.219267870940714E-6</v>
+        <v>7.219268194633086E-6</v>
       </c>
       <c r="AF70" t="n" s="85">
-        <v>7.219267870940714E-6</v>
+        <v>7.219268194633086E-6</v>
       </c>
       <c r="AG70" t="n" s="85">
         <v>1.0</v>
@@ -10020,34 +10020,34 @@
         <v>0.04153135422831623</v>
       </c>
       <c r="AI70" t="n" s="85">
-        <v>1.1735545174383436E-4</v>
+        <v>1.1735545700573342E-4</v>
       </c>
       <c r="AJ70" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK70" t="n" s="85">
-        <v>0.9996501131625372</v>
+        <v>0.9996673268930002</v>
       </c>
       <c r="AL70" t="n" s="85">
-        <v>0.9977703452649045</v>
+        <v>0.9978326352418617</v>
       </c>
       <c r="AM70" t="n" s="85">
         <v>0.9994822559646094</v>
       </c>
       <c r="AN70" t="n" s="85">
-        <v>0.9999923806419903</v>
+        <v>0.9999922257817516</v>
       </c>
       <c r="AO70" t="n" s="85">
-        <v>0.9998955134440881</v>
+        <v>0.9998954962755959</v>
       </c>
       <c r="AP70" t="n" s="85">
         <v>0.996505258385424</v>
       </c>
       <c r="AQ70" t="n" s="85">
-        <v>0.9996533069797362</v>
+        <v>0.9996524011366599</v>
       </c>
       <c r="AR70" t="n" s="85">
-        <v>0.9972955654550543</v>
+        <v>0.9972320182300395</v>
       </c>
     </row>
     <row r="71">
@@ -10070,10 +10070,10 @@
         <v>1.0</v>
       </c>
       <c r="J71" t="n" s="85">
-        <v>3.892620894789252E-6</v>
+        <v>3.892470789504866E-6</v>
       </c>
       <c r="K71" t="n" s="85">
-        <v>3.892620894789252E-6</v>
+        <v>3.892470789504866E-6</v>
       </c>
       <c r="L71" t="n" s="85">
         <v>1.0</v>
@@ -10109,10 +10109,10 @@
         <v>0.0036300051437540702</v>
       </c>
       <c r="W71" t="n" s="85">
-        <v>1.5650866307500966E-6</v>
+        <v>1.604865038082804E-6</v>
       </c>
       <c r="X71" t="n" s="85">
-        <v>1.5650866307500966E-6</v>
+        <v>1.6048650380828037E-6</v>
       </c>
       <c r="Y71" t="n" s="85">
         <v>0.25002374584645526</v>
@@ -10127,25 +10127,25 @@
         <v>0.10843247639090432</v>
       </c>
       <c r="AC71" t="n" s="85">
-        <v>3.2721765906466945E-5</v>
+        <v>3.403109971186941E-5</v>
       </c>
       <c r="AD71" t="n" s="85">
-        <v>3.2721765906466945E-5</v>
+        <v>3.403109971186941E-5</v>
       </c>
       <c r="AE71" t="n" s="85">
-        <v>4.604524728181916E-6</v>
+        <v>4.788771374824434E-6</v>
       </c>
       <c r="AF71" t="n" s="85">
-        <v>4.604524728181918E-6</v>
+        <v>4.788771374824435E-6</v>
       </c>
       <c r="AG71" t="n" s="85">
-        <v>6.656870314191566E-7</v>
+        <v>6.923240097399705E-7</v>
       </c>
       <c r="AH71" t="n" s="85">
         <v>0.06718898691499123</v>
       </c>
       <c r="AI71" t="n" s="85">
-        <v>9.2332650351711E-5</v>
+        <v>9.602734716718303E-5</v>
       </c>
       <c r="AJ71" t="n" s="85">
         <v>0.9960976109085957</v>
@@ -10169,10 +10169,10 @@
         <v>0.9924181073659241</v>
       </c>
       <c r="AQ71" t="n" s="85">
-        <v>0.9997573667130738</v>
+        <v>0.9997571837634786</v>
       </c>
       <c r="AR71" t="n" s="85">
-        <v>0.8601627632875521</v>
+        <v>0.859868818214207</v>
       </c>
     </row>
     <row r="72">
@@ -10195,10 +10195,10 @@
         <v>1.0</v>
       </c>
       <c r="J72" t="n" s="85">
-        <v>2.176324653561168E-7</v>
+        <v>2.1762820323808213E-7</v>
       </c>
       <c r="K72" t="n" s="85">
-        <v>2.1763246535611673E-7</v>
+        <v>2.1762820323808205E-7</v>
       </c>
       <c r="L72" t="n" s="85">
         <v>1.0</v>
@@ -10228,16 +10228,16 @@
         <v>0.00171153966746655</v>
       </c>
       <c r="U72" t="n" s="85">
-        <v>1.6633669843993363E-6</v>
+        <v>1.6542806972811164E-6</v>
       </c>
       <c r="V72" t="n" s="85">
         <v>0.0026795908349048617</v>
       </c>
       <c r="W72" t="n" s="85">
-        <v>2.5678333999953403E-6</v>
+        <v>2.5538063842587223E-6</v>
       </c>
       <c r="X72" t="n" s="85">
-        <v>2.5678333999953403E-6</v>
+        <v>2.5538063842587223E-6</v>
       </c>
       <c r="Y72" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -10252,16 +10252,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC72" t="n" s="85">
-        <v>5.353494586689366E-5</v>
+        <v>5.353494716212582E-5</v>
       </c>
       <c r="AD72" t="n" s="85">
-        <v>5.353494586689366E-5</v>
+        <v>5.353494716212582E-5</v>
       </c>
       <c r="AE72" t="n" s="85">
-        <v>7.812416019921914E-6</v>
+        <v>7.812416208940237E-6</v>
       </c>
       <c r="AF72" t="n" s="85">
-        <v>7.812416019921914E-6</v>
+        <v>7.812416208940237E-6</v>
       </c>
       <c r="AG72" t="n" s="85">
         <v>1.0</v>
@@ -10270,34 +10270,34 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI72" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ72" t="n" s="85">
         <v>0.9986272870345532</v>
       </c>
       <c r="AK72" t="n" s="85">
-        <v>0.9995368026965074</v>
+        <v>0.9995609640815076</v>
       </c>
       <c r="AL72" t="n" s="85">
-        <v>0.9999874231905548</v>
+        <v>0.9999877596785391</v>
       </c>
       <c r="AM72" t="n" s="85">
         <v>0.9973195400995045</v>
       </c>
       <c r="AN72" t="n" s="85">
-        <v>0.9999954816059693</v>
+        <v>0.9999953838767839</v>
       </c>
       <c r="AO72" t="n" s="85">
-        <v>0.9999998970538689</v>
+        <v>0.9999998953349898</v>
       </c>
       <c r="AP72" t="n" s="85">
         <v>0.9524598227271809</v>
       </c>
       <c r="AQ72" t="n" s="85">
-        <v>0.9953827155511592</v>
+        <v>0.9953355222461115</v>
       </c>
       <c r="AR72" t="n" s="85">
-        <v>0.9998382024385171</v>
+        <v>0.9998352759265874</v>
       </c>
     </row>
     <row r="73">
@@ -10308,7 +10308,7 @@
         <v>1.0</v>
       </c>
       <c r="F73" t="n" s="85">
-        <v>8.56755262460805E-8</v>
+        <v>8.565912855303364E-8</v>
       </c>
       <c r="G73" t="n" s="85">
         <v>1.0</v>
@@ -10353,16 +10353,16 @@
         <v>7.34039994254704E-4</v>
       </c>
       <c r="U73" t="n" s="85">
-        <v>1.1815204362356764E-7</v>
+        <v>1.1244773195507162E-7</v>
       </c>
       <c r="V73" t="n" s="85">
         <v>0.00128998386735488</v>
       </c>
       <c r="W73" t="n" s="85">
-        <v>1.9887491884730477E-7</v>
+        <v>1.8927334554996135E-7</v>
       </c>
       <c r="X73" t="n" s="85">
-        <v>1.988749188473047E-7</v>
+        <v>1.892733455499612E-7</v>
       </c>
       <c r="Y73" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -10377,52 +10377,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC73" t="n" s="85">
-        <v>6.736515481184626E-6</v>
+        <v>6.736516761989778E-6</v>
       </c>
       <c r="AD73" t="n" s="85">
-        <v>6.736515481184625E-6</v>
+        <v>6.7365167619897766E-6</v>
       </c>
       <c r="AE73" t="n" s="85">
-        <v>6.489945575710287E-7</v>
+        <v>6.489946809615464E-7</v>
       </c>
       <c r="AF73" t="n" s="85">
-        <v>6.489945575710286E-7</v>
+        <v>6.489946809615462E-7</v>
       </c>
       <c r="AG73" t="n" s="85">
-        <v>3.191175040385548E-9</v>
+        <v>3.1911756471078387E-9</v>
       </c>
       <c r="AH73" t="n" s="85">
         <v>0.006897932987662292</v>
       </c>
       <c r="AI73" t="n" s="85">
-        <v>2.8201445976389004E-5</v>
+        <v>2.8201451338558456E-5</v>
       </c>
       <c r="AJ73" t="n" s="85">
         <v>0.9988968929514102</v>
       </c>
       <c r="AK73" t="n" s="85">
-        <v>0.9992263469435998</v>
+        <v>0.9992606503113388</v>
       </c>
       <c r="AL73" t="n" s="85">
-        <v>0.849781123481428</v>
+        <v>0.855479460193712</v>
       </c>
       <c r="AM73" t="n" s="85">
         <v>0.9988356842983543</v>
       </c>
       <c r="AN73" t="n" s="85">
-        <v>0.9982764772651745</v>
+        <v>0.9982710264839857</v>
       </c>
       <c r="AO73" t="n" s="85">
-        <v>0.781600746267691</v>
+        <v>0.7835069975064125</v>
       </c>
       <c r="AP73" t="n" s="85">
         <v>0.7275467699379793</v>
       </c>
       <c r="AQ73" t="n" s="85">
-        <v>0.7957889475253669</v>
+        <v>0.7956663138253051</v>
       </c>
       <c r="AR73" t="n" s="85">
-        <v>5.5874610546579115E-5</v>
+        <v>5.373702806746503E-5</v>
       </c>
     </row>
     <row r="74">
@@ -10445,10 +10445,10 @@
         <v>1.0</v>
       </c>
       <c r="J74" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="K74" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="L74" t="n" s="85">
         <v>1.0</v>
@@ -10478,16 +10478,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U74" t="n" s="85">
-        <v>2.7764505383437374E-6</v>
+        <v>2.7612839520940257E-6</v>
       </c>
       <c r="V74" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W74" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="X74" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="Y74" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -10502,16 +10502,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC74" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD74" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE74" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF74" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG74" t="n" s="85">
         <v>1.0</v>
@@ -10520,22 +10520,22 @@
         <v>0.03160636124629607</v>
       </c>
       <c r="AI74" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ74" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK74" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL74" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM74" t="n" s="85">
         <v>0.9995759674880899</v>
       </c>
       <c r="AN74" t="n" s="85">
-        <v>0.9999999999487449</v>
+        <v>0.9999999999520447</v>
       </c>
       <c r="AO74" t="n" s="85">
         <v>1.0</v>
@@ -10609,10 +10609,10 @@
         <v>0.003613922350588982</v>
       </c>
       <c r="W75" t="n" s="85">
-        <v>2.378653594311076E-6</v>
+        <v>2.3415691217689436E-6</v>
       </c>
       <c r="X75" t="n" s="85">
-        <v>2.378653594311076E-6</v>
+        <v>2.3415691217689436E-6</v>
       </c>
       <c r="Y75" t="n" s="85">
         <v>0.23621679387355557</v>
@@ -10627,16 +10627,16 @@
         <v>0.10797505314308742</v>
       </c>
       <c r="AC75" t="n" s="85">
-        <v>4.62582770573326E-5</v>
+        <v>4.517719357181464E-5</v>
       </c>
       <c r="AD75" t="n" s="85">
-        <v>4.62582770573326E-5</v>
+        <v>4.517719357181464E-5</v>
       </c>
       <c r="AE75" t="n" s="85">
-        <v>6.909927235588143E-6</v>
+        <v>6.748436598718986E-6</v>
       </c>
       <c r="AF75" t="n" s="85">
-        <v>6.909927235588143E-6</v>
+        <v>6.748436598718986E-6</v>
       </c>
       <c r="AG75" t="n" s="85">
         <v>1.0</v>
@@ -10645,7 +10645,7 @@
         <v>0.013153817287712883</v>
       </c>
       <c r="AI75" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ75" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -10734,10 +10734,10 @@
         <v>0.0045140651655820145</v>
       </c>
       <c r="W76" t="n" s="85">
-        <v>3.126461347382375E-6</v>
+        <v>3.205923748960283E-6</v>
       </c>
       <c r="X76" t="n" s="85">
-        <v>3.126461347382374E-6</v>
+        <v>3.2059237489602828E-6</v>
       </c>
       <c r="Y76" t="n" s="85">
         <v>0.21966061299501963</v>
@@ -10752,40 +10752,40 @@
         <v>0.09756960124430951</v>
       </c>
       <c r="AC76" t="n" s="85">
-        <v>4.1337246560122844E-5</v>
+        <v>4.299130793438634E-5</v>
       </c>
       <c r="AD76" t="n" s="85">
-        <v>4.1337246560122844E-5</v>
+        <v>4.299130793438633E-5</v>
       </c>
       <c r="AE76" t="n" s="85">
-        <v>9.42999148802824E-6</v>
+        <v>9.80732399631175E-6</v>
       </c>
       <c r="AF76" t="n" s="85">
-        <v>9.42999148802824E-6</v>
+        <v>9.80732399631175E-6</v>
       </c>
       <c r="AG76" t="n" s="85">
-        <v>7.183643097846961E-8</v>
+        <v>7.471091485168789E-8</v>
       </c>
       <c r="AH76" t="n" s="85">
         <v>0.010125158247871595</v>
       </c>
       <c r="AI76" t="n" s="85">
-        <v>1.4783219759517566E-4</v>
+        <v>1.5374737515152308E-4</v>
       </c>
       <c r="AJ76" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK76" t="n" s="85">
-        <v>0.999746322049427</v>
+        <v>0.9997545670277842</v>
       </c>
       <c r="AL76" t="n" s="85">
-        <v>0.9884663569534345</v>
+        <v>0.9886980786229743</v>
       </c>
       <c r="AM76" t="n" s="85">
         <v>0.999711384793579</v>
       </c>
       <c r="AN76" t="n" s="85">
-        <v>0.9999856634008931</v>
+        <v>0.9999854930047192</v>
       </c>
       <c r="AO76" t="n" s="85">
         <v>1.0</v>
@@ -10820,10 +10820,10 @@
         <v>1.0</v>
       </c>
       <c r="J77" t="n" s="85">
-        <v>1.5036153378853813E-7</v>
+        <v>1.5035573560118303E-7</v>
       </c>
       <c r="K77" t="n" s="85">
-        <v>1.5036153378853808E-7</v>
+        <v>1.5035573560118303E-7</v>
       </c>
       <c r="L77" t="n" s="85">
         <v>0.0037319173815781475</v>
@@ -10853,16 +10853,16 @@
         <v>7.789882829868302E-4</v>
       </c>
       <c r="U77" t="n" s="85">
-        <v>1.253779596661198E-7</v>
+        <v>1.1932478503246013E-7</v>
       </c>
       <c r="V77" t="n" s="85">
         <v>0.0013690081528955056</v>
       </c>
       <c r="W77" t="n" s="85">
-        <v>2.110376726592807E-7</v>
+        <v>2.008488883177058E-7</v>
       </c>
       <c r="X77" t="n" s="85">
-        <v>2.1103767265928067E-7</v>
+        <v>2.008488883177056E-7</v>
       </c>
       <c r="Y77" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -10877,52 +10877,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC77" t="n" s="85">
-        <v>7.14851672329484E-6</v>
+        <v>7.148518082432706E-6</v>
       </c>
       <c r="AD77" t="n" s="85">
-        <v>7.148516723294838E-6</v>
+        <v>7.1485180824327055E-6</v>
       </c>
       <c r="AE77" t="n" s="85">
-        <v>6.886857569333576E-7</v>
+        <v>6.886858878701856E-7</v>
       </c>
       <c r="AF77" t="n" s="85">
-        <v>6.886857569333575E-7</v>
+        <v>6.886858878701856E-7</v>
       </c>
       <c r="AG77" t="n" s="85">
-        <v>3.004611669193355E-9</v>
+        <v>3.0046122404452805E-9</v>
       </c>
       <c r="AH77" t="n" s="85">
         <v>0.006115345488358558</v>
       </c>
       <c r="AI77" t="n" s="85">
-        <v>2.502206005434318E-5</v>
+        <v>2.502206481200536E-5</v>
       </c>
       <c r="AJ77" t="n" s="85">
         <v>0.998672559047875</v>
       </c>
       <c r="AK77" t="n" s="85">
-        <v>0.9971859103424411</v>
+        <v>0.9972999376741812</v>
       </c>
       <c r="AL77" t="n" s="85">
-        <v>0.7804151808686814</v>
+        <v>0.7884741463684607</v>
       </c>
       <c r="AM77" t="n" s="85">
         <v>0.9945394987731937</v>
       </c>
       <c r="AN77" t="n" s="85">
-        <v>0.9884772326953489</v>
+        <v>0.9884675108944423</v>
       </c>
       <c r="AO77" t="n" s="85">
-        <v>0.3327431442212835</v>
+        <v>0.33643881428258315</v>
       </c>
       <c r="AP77" t="n" s="85">
         <v>0.6329892764806877</v>
       </c>
       <c r="AQ77" t="n" s="85">
-        <v>0.4242492681358938</v>
+        <v>0.42406509573121015</v>
       </c>
       <c r="AR77" t="n" s="85">
-        <v>1.054318645090236E-6</v>
+        <v>1.0133752320113988E-6</v>
       </c>
     </row>
     <row r="78">
@@ -10945,10 +10945,10 @@
         <v>1.0</v>
       </c>
       <c r="J78" t="n" s="85">
-        <v>2.2237209262318415E-7</v>
+        <v>2.223677376842265E-7</v>
       </c>
       <c r="K78" t="n" s="85">
-        <v>2.2237209262318415E-7</v>
+        <v>2.223677376842265E-7</v>
       </c>
       <c r="L78" t="n" s="85">
         <v>1.0</v>
@@ -10978,16 +10978,16 @@
         <v>0.0012041371780793374</v>
       </c>
       <c r="U78" t="n" s="85">
-        <v>3.277001475291899E-7</v>
+        <v>3.1610660827405684E-7</v>
       </c>
       <c r="V78" t="n" s="85">
         <v>0.0019517278029806918</v>
       </c>
       <c r="W78" t="n" s="85">
-        <v>5.817420230514647E-7</v>
+        <v>5.611608488407232E-7</v>
       </c>
       <c r="X78" t="n" s="85">
-        <v>5.817420230514648E-7</v>
+        <v>5.611608488407232E-7</v>
       </c>
       <c r="Y78" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11002,52 +11002,52 @@
         <v>0.08771009553555295</v>
       </c>
       <c r="AC78" t="n" s="85">
-        <v>1.3500467735510992E-5</v>
+        <v>1.3500469657145966E-5</v>
       </c>
       <c r="AD78" t="n" s="85">
-        <v>1.3500467735510992E-5</v>
+        <v>1.3500469657145968E-5</v>
       </c>
       <c r="AE78" t="n" s="85">
-        <v>1.7146638173439382E-6</v>
+        <v>1.7146640614036972E-6</v>
       </c>
       <c r="AF78" t="n" s="85">
-        <v>1.714663817343938E-6</v>
+        <v>1.7146640614036968E-6</v>
       </c>
       <c r="AG78" t="n" s="85">
-        <v>1.1658974951052748E-8</v>
+        <v>1.165897661055006E-8</v>
       </c>
       <c r="AH78" t="n" s="85">
         <v>0.010190284087274005</v>
       </c>
       <c r="AI78" t="n" s="85">
-        <v>5.5754400078762195E-5</v>
+        <v>5.5754408015000206E-5</v>
       </c>
       <c r="AJ78" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK78" t="n" s="85">
-        <v>0.9999720788621655</v>
+        <v>0.9999712664943884</v>
       </c>
       <c r="AL78" t="n" s="85">
-        <v>0.9999976035170478</v>
+        <v>0.9999975366464033</v>
       </c>
       <c r="AM78" t="n" s="85">
         <v>0.9973337918655172</v>
       </c>
       <c r="AN78" t="n" s="85">
-        <v>0.9999771454516312</v>
+        <v>0.9999779723500166</v>
       </c>
       <c r="AO78" t="n" s="85">
-        <v>0.999993524214608</v>
+        <v>0.999994002906402</v>
       </c>
       <c r="AP78" t="n" s="85">
         <v>0.8527167066333611</v>
       </c>
       <c r="AQ78" t="n" s="85">
-        <v>0.9199370421244125</v>
+        <v>0.9201769682288748</v>
       </c>
       <c r="AR78" t="n" s="85">
-        <v>0.9839969351367212</v>
+        <v>0.9848516175753895</v>
       </c>
     </row>
     <row r="79">
@@ -11103,16 +11103,16 @@
         <v>0.00104408227832864</v>
       </c>
       <c r="U79" t="n" s="85">
-        <v>3.0104632273626064E-7</v>
+        <v>2.892126136227681E-7</v>
       </c>
       <c r="V79" t="n" s="85">
         <v>0.0018349004480331405</v>
       </c>
       <c r="W79" t="n" s="85">
-        <v>4.915953176278016E-7</v>
+        <v>4.722713797477567E-7</v>
       </c>
       <c r="X79" t="n" s="85">
-        <v>4.915953176278016E-7</v>
+        <v>4.7227137974775667E-7</v>
       </c>
       <c r="Y79" t="n" s="85">
         <v>0.20345099705186123</v>
@@ -11127,52 +11127,52 @@
         <v>0.08476944181348718</v>
       </c>
       <c r="AC79" t="n" s="85">
-        <v>1.275010731154739E-5</v>
+        <v>1.2750109279847644E-5</v>
       </c>
       <c r="AD79" t="n" s="85">
-        <v>1.2750107311547393E-5</v>
+        <v>1.2750109279847642E-5</v>
       </c>
       <c r="AE79" t="n" s="85">
-        <v>1.619362158187357E-6</v>
+        <v>1.619362408173904E-6</v>
       </c>
       <c r="AF79" t="n" s="85">
-        <v>1.6193621581873568E-6</v>
+        <v>1.6193624081739036E-6</v>
       </c>
       <c r="AG79" t="n" s="85">
-        <v>1.0114144494238209E-8</v>
+        <v>1.0114146055590167E-8</v>
       </c>
       <c r="AH79" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI79" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ79" t="n" s="85">
         <v>0.9991824003214459</v>
       </c>
       <c r="AK79" t="n" s="85">
-        <v>0.9999616792160998</v>
+        <v>0.9999621975943727</v>
       </c>
       <c r="AL79" t="n" s="85">
-        <v>0.9999972580763609</v>
+        <v>0.9999972579046028</v>
       </c>
       <c r="AM79" t="n" s="85">
         <v>0.9995972995883776</v>
       </c>
       <c r="AN79" t="n" s="85">
-        <v>0.9999996946206083</v>
+        <v>0.9999996970130937</v>
       </c>
       <c r="AO79" t="n" s="85">
-        <v>0.9999999113587575</v>
+        <v>0.9999999141882558</v>
       </c>
       <c r="AP79" t="n" s="85">
         <v>0.9221203549516137</v>
       </c>
       <c r="AQ79" t="n" s="85">
-        <v>0.9876833569254747</v>
+        <v>0.98771212679081</v>
       </c>
       <c r="AR79" t="n" s="85">
-        <v>0.9992783909577221</v>
+        <v>0.9992912770193634</v>
       </c>
     </row>
     <row r="80">
@@ -11195,7 +11195,7 @@
         <v>1.0</v>
       </c>
       <c r="J80" t="n" s="85">
-        <v>3.5005498902933215E-7</v>
+        <v>3.500522620654844E-7</v>
       </c>
       <c r="K80" t="n" s="85">
         <v>1.0</v>
@@ -11228,16 +11228,16 @@
         <v>0.0028467861265163287</v>
       </c>
       <c r="U80" t="n" s="85">
-        <v>1.2617847633841807E-6</v>
+        <v>1.2489181864715186E-6</v>
       </c>
       <c r="V80" t="n" s="85">
         <v>0.002574902420620514</v>
       </c>
       <c r="W80" t="n" s="85">
-        <v>1.8843073406939862E-6</v>
+        <v>1.8650928149413716E-6</v>
       </c>
       <c r="X80" t="n" s="85">
-        <v>1.8843073406939862E-6</v>
+        <v>1.8650928149413716E-6</v>
       </c>
       <c r="Y80" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -11252,16 +11252,16 @@
         <v>0.09756960915535037</v>
       </c>
       <c r="AC80" t="n" s="85">
-        <v>4.105835812742362E-5</v>
+        <v>4.105835996835502E-5</v>
       </c>
       <c r="AD80" t="n" s="85">
-        <v>4.10583581274236E-5</v>
+        <v>4.105835996835501E-5</v>
       </c>
       <c r="AE80" t="n" s="85">
-        <v>5.7055573127623095E-6</v>
+        <v>5.705557568584388E-6</v>
       </c>
       <c r="AF80" t="n" s="85">
-        <v>5.7055573127623095E-6</v>
+        <v>5.705557568584388E-6</v>
       </c>
       <c r="AG80" t="n" s="85">
         <v>1.0</v>
@@ -11270,34 +11270,34 @@
         <v>0.012081061098283033</v>
       </c>
       <c r="AI80" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ80" t="n" s="85">
         <v>0.9987510526589414</v>
       </c>
       <c r="AK80" t="n" s="85">
-        <v>0.9992831745487092</v>
+        <v>0.9993043994011492</v>
       </c>
       <c r="AL80" t="n" s="85">
-        <v>0.9033115596542676</v>
+        <v>0.9055388533047822</v>
       </c>
       <c r="AM80" t="n" s="85">
         <v>0.9993085275487607</v>
       </c>
       <c r="AN80" t="n" s="85">
-        <v>0.9997313046639156</v>
+        <v>0.9997295319808411</v>
       </c>
       <c r="AO80" t="n" s="85">
-        <v>0.9840632306129304</v>
+        <v>0.9841841757094802</v>
       </c>
       <c r="AP80" t="n" s="85">
         <v>0.9454503004187044</v>
       </c>
       <c r="AQ80" t="n" s="85">
-        <v>0.9925523978759816</v>
+        <v>0.9925467766209743</v>
       </c>
       <c r="AR80" t="n" s="85">
-        <v>0.05764993840572647</v>
+        <v>0.05630274356385593</v>
       </c>
     </row>
     <row r="81">
@@ -11353,16 +11353,16 @@
         <v>0.004669698731041319</v>
       </c>
       <c r="U81" t="n" s="85">
-        <v>2.304221232057333E-6</v>
+        <v>2.2871883863402967E-6</v>
       </c>
       <c r="V81" t="n" s="85">
         <v>0.007068838685546114</v>
       </c>
       <c r="W81" t="n" s="85">
-        <v>2.8929331532118867E-6</v>
+        <v>2.871548528228029E-6</v>
       </c>
       <c r="X81" t="n" s="85">
-        <v>2.8929331532118867E-6</v>
+        <v>2.871548528228029E-6</v>
       </c>
       <c r="Y81" t="n" s="85">
         <v>0.2584914802096321</v>
@@ -11377,16 +11377,16 @@
         <v>0.1120759502580831</v>
       </c>
       <c r="AC81" t="n" s="85">
-        <v>6.339937884546094E-5</v>
+        <v>6.339938091724604E-5</v>
       </c>
       <c r="AD81" t="n" s="85">
-        <v>6.339937884546094E-5</v>
+        <v>6.339938091724604E-5</v>
       </c>
       <c r="AE81" t="n" s="85">
-        <v>9.251958934097787E-6</v>
+        <v>9.25195923644459E-6</v>
       </c>
       <c r="AF81" t="n" s="85">
-        <v>9.251958934097787E-6</v>
+        <v>9.25195923644459E-6</v>
       </c>
       <c r="AG81" t="n" s="85">
         <v>1.0</v>
@@ -11395,22 +11395,22 @@
         <v>0.07355279469798096</v>
       </c>
       <c r="AI81" t="n" s="85">
-        <v>1.2906474937920194E-4</v>
+        <v>1.290647535968998E-4</v>
       </c>
       <c r="AJ81" t="n" s="85">
         <v>0.9954074558015084</v>
       </c>
       <c r="AK81" t="n" s="85">
-        <v>0.9965432074659465</v>
+        <v>0.996527460824228</v>
       </c>
       <c r="AL81" t="n" s="85">
-        <v>0.9999680908598242</v>
+        <v>0.9999677981081468</v>
       </c>
       <c r="AM81" t="n" s="85">
         <v>0.991313265742109</v>
       </c>
       <c r="AN81" t="n" s="85">
-        <v>0.9999687293113603</v>
+        <v>0.9999691938605334</v>
       </c>
       <c r="AO81" t="n" s="85">
         <v>1.0</v>
@@ -11445,10 +11445,10 @@
         <v>1.0</v>
       </c>
       <c r="J82" t="n" s="85">
-        <v>1.914281820473656E-7</v>
+        <v>1.914208002630022E-7</v>
       </c>
       <c r="K82" t="n" s="85">
-        <v>1.9142818204736562E-7</v>
+        <v>1.9142080026300221E-7</v>
       </c>
       <c r="L82" t="n" s="85">
         <v>1.0</v>
@@ -11478,16 +11478,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U82" t="n" s="85">
-        <v>1.7872583202483771E-7</v>
+        <v>1.7009705372325237E-7</v>
       </c>
       <c r="V82" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W82" t="n" s="85">
-        <v>3.0083348354638984E-7</v>
+        <v>2.863094074134044E-7</v>
       </c>
       <c r="X82" t="n" s="85">
-        <v>3.008334835463899E-7</v>
+        <v>2.8630940741340427E-7</v>
       </c>
       <c r="Y82" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11502,52 +11502,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC82" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD82" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE82" t="n" s="85">
-        <v>9.81719886715608E-7</v>
+        <v>9.817200733656863E-7</v>
       </c>
       <c r="AF82" t="n" s="85">
-        <v>9.817198867156075E-7</v>
+        <v>9.81720073365686E-7</v>
       </c>
       <c r="AG82" t="n" s="85">
-        <v>5.948519070955184E-9</v>
+        <v>5.948520201917631E-9</v>
       </c>
       <c r="AH82" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI82" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ82" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK82" t="n" s="85">
-        <v>0.9995088910324397</v>
+        <v>0.9995318526637148</v>
       </c>
       <c r="AL82" t="n" s="85">
-        <v>0.9714106819464027</v>
+        <v>0.9723571264953287</v>
       </c>
       <c r="AM82" t="n" s="85">
         <v>0.9988703276404598</v>
       </c>
       <c r="AN82" t="n" s="85">
-        <v>0.9994794922243727</v>
+        <v>0.9994722215381168</v>
       </c>
       <c r="AO82" t="n" s="85">
-        <v>0.9975980969395101</v>
+        <v>0.9976146060207444</v>
       </c>
       <c r="AP82" t="n" s="85">
         <v>0.8032775330510622</v>
       </c>
       <c r="AQ82" t="n" s="85">
-        <v>0.9061315347911671</v>
+        <v>0.906066763922504</v>
       </c>
       <c r="AR82" t="n" s="85">
-        <v>0.03026868689533538</v>
+        <v>0.029297919879016667</v>
       </c>
     </row>
     <row r="83">
@@ -11570,10 +11570,10 @@
         <v>1.0</v>
       </c>
       <c r="J83" t="n" s="85">
-        <v>1.9142810770577612E-7</v>
+        <v>1.9142072592427956E-7</v>
       </c>
       <c r="K83" t="n" s="85">
-        <v>1.9142810770577612E-7</v>
+        <v>1.9142072592427943E-7</v>
       </c>
       <c r="L83" t="n" s="85">
         <v>1.0</v>
@@ -11603,16 +11603,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U83" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V83" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W83" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X83" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y83" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -11627,52 +11627,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC83" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD83" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE83" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF83" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG83" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH83" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI83" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ83" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK83" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL83" t="n" s="85">
-        <v>0.8826282509635314</v>
+        <v>0.886933720512198</v>
       </c>
       <c r="AM83" t="n" s="85">
         <v>0.9988703276404598</v>
       </c>
       <c r="AN83" t="n" s="85">
-        <v>0.9988334776019402</v>
+        <v>0.9988261375498748</v>
       </c>
       <c r="AO83" t="n" s="85">
-        <v>0.9629906858988818</v>
+        <v>0.9634111879062652</v>
       </c>
       <c r="AP83" t="n" s="85">
         <v>0.7854043697021077</v>
       </c>
       <c r="AQ83" t="n" s="85">
-        <v>0.8685168108475977</v>
+        <v>0.868430561787046</v>
       </c>
       <c r="AR83" t="n" s="85">
-        <v>6.51940675003324E-4</v>
+        <v>6.276488191408059E-4</v>
       </c>
     </row>
     <row r="84">
@@ -11734,7 +11734,7 @@
         <v>0.003938795410564579</v>
       </c>
       <c r="W84" t="n" s="85">
-        <v>2.3827924715808285E-6</v>
+        <v>2.3868599043020687E-6</v>
       </c>
       <c r="X84" t="n" s="85">
         <v>1.0</v>
@@ -11752,16 +11752,16 @@
         <v>0.10520189381870332</v>
       </c>
       <c r="AC84" t="n" s="85">
-        <v>4.174070095374179E-5</v>
+        <v>4.183270248940914E-5</v>
       </c>
       <c r="AD84" t="n" s="85">
-        <v>4.1740700953741804E-5</v>
+        <v>4.183270248940914E-5</v>
       </c>
       <c r="AE84" t="n" s="85">
-        <v>6.250258882226278E-6</v>
+        <v>6.264035317160798E-6</v>
       </c>
       <c r="AF84" t="n" s="85">
-        <v>6.250258882226278E-6</v>
+        <v>6.264035317160798E-6</v>
       </c>
       <c r="AG84" t="n" s="85">
         <v>1.0</v>
@@ -11770,22 +11770,22 @@
         <v>0.014657494369579298</v>
       </c>
       <c r="AI84" t="n" s="85">
-        <v>1.4557848979066676E-4</v>
+        <v>1.4589935700662186E-4</v>
       </c>
       <c r="AJ84" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK84" t="n" s="85">
-        <v>0.9999975898290161</v>
+        <v>0.9999974725059383</v>
       </c>
       <c r="AL84" t="n" s="85">
-        <v>0.999999999340468</v>
+        <v>0.9999999993161683</v>
       </c>
       <c r="AM84" t="n" s="85">
         <v>0.9999752815281016</v>
       </c>
       <c r="AN84" t="n" s="85">
-        <v>0.9999999999989988</v>
+        <v>0.9999999999990422</v>
       </c>
       <c r="AO84" t="n" s="85">
         <v>1.0</v>
@@ -11820,10 +11820,10 @@
         <v>1.0</v>
       </c>
       <c r="J85" t="n" s="85">
-        <v>2.49174768051386E-6</v>
+        <v>2.4916988821943697E-6</v>
       </c>
       <c r="K85" t="n" s="85">
-        <v>2.49174768051386E-6</v>
+        <v>2.4916988821943697E-6</v>
       </c>
       <c r="L85" t="n" s="85">
         <v>1.0</v>
@@ -11853,16 +11853,16 @@
         <v>0.005195581433257516</v>
       </c>
       <c r="U85" t="n" s="85">
-        <v>6.895585607895072E-6</v>
+        <v>6.857918066556697E-6</v>
       </c>
       <c r="V85" t="n" s="85">
         <v>0.00797398694253255</v>
       </c>
       <c r="W85" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="X85" t="n" s="85">
-        <v>1.0545008964781703E-5</v>
+        <v>1.0487406383091423E-5</v>
       </c>
       <c r="Y85" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -11877,16 +11877,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC85" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD85" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE85" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF85" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG85" t="n" s="85">
         <v>1.0</v>
@@ -11895,22 +11895,22 @@
         <v>0.0757380799471553</v>
       </c>
       <c r="AI85" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ85" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK85" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL85" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM85" t="n" s="85">
         <v>0.9997133626502709</v>
       </c>
       <c r="AN85" t="n" s="85">
-        <v>0.9999999999857203</v>
+        <v>0.9999999999866398</v>
       </c>
       <c r="AO85" t="n" s="85">
         <v>1.0</v>
@@ -11945,7 +11945,7 @@
         <v>1.0</v>
       </c>
       <c r="J86" t="n" s="85">
-        <v>4.5660980995383454E-7</v>
+        <v>4.5660800858929203E-7</v>
       </c>
       <c r="K86" t="n" s="85">
         <v>1.0</v>
@@ -11978,13 +11978,13 @@
         <v>0.0024895341361459216</v>
       </c>
       <c r="U86" t="n" s="85">
-        <v>1.4378609052040549E-6</v>
+        <v>1.4417836040418082E-6</v>
       </c>
       <c r="V86" t="n" s="85">
         <v>0.0037663402073625624</v>
       </c>
       <c r="W86" t="n" s="85">
-        <v>2.173884790944905E-6</v>
+        <v>2.1798154698132947E-6</v>
       </c>
       <c r="X86" t="n" s="85">
         <v>1.0</v>
@@ -12002,16 +12002,16 @@
         <v>0.10340165170411325</v>
       </c>
       <c r="AC86" t="n" s="85">
-        <v>4.254155110573723E-5</v>
+        <v>4.272811303831479E-5</v>
       </c>
       <c r="AD86" t="n" s="85">
-        <v>4.254155110573723E-5</v>
+        <v>4.272811303831479E-5</v>
       </c>
       <c r="AE86" t="n" s="85">
-        <v>6.354729195261407E-6</v>
+        <v>6.382597506965226E-6</v>
       </c>
       <c r="AF86" t="n" s="85">
-        <v>6.354729195261407E-6</v>
+        <v>6.382597506965224E-6</v>
       </c>
       <c r="AG86" t="n" s="85">
         <v>1.0</v>
@@ -12020,34 +12020,34 @@
         <v>0.01294791191815161</v>
       </c>
       <c r="AI86" t="n" s="85">
-        <v>1.4313153692759948E-4</v>
+        <v>1.4375921790207684E-4</v>
       </c>
       <c r="AJ86" t="n" s="85">
         <v>0.9991493793904361</v>
       </c>
       <c r="AK86" t="n" s="85">
-        <v>0.9999871358530025</v>
+        <v>0.9999868286008906</v>
       </c>
       <c r="AL86" t="n" s="85">
-        <v>0.9999999229428825</v>
+        <v>0.9999999215359853</v>
       </c>
       <c r="AM86" t="n" s="85">
         <v>0.9998373862117022</v>
       </c>
       <c r="AN86" t="n" s="85">
-        <v>0.9999999986604637</v>
+        <v>0.9999999986898478</v>
       </c>
       <c r="AO86" t="n" s="85">
-        <v>0.9999999998887777</v>
+        <v>0.9999999998952823</v>
       </c>
       <c r="AP86" t="n" s="85">
         <v>0.9965842371563861</v>
       </c>
       <c r="AQ86" t="n" s="85">
-        <v>0.9999868537641401</v>
+        <v>0.9999871338335978</v>
       </c>
       <c r="AR86" t="n" s="85">
-        <v>0.9999975060349197</v>
+        <v>0.999997577356387</v>
       </c>
     </row>
     <row r="87">
@@ -12070,10 +12070,10 @@
         <v>1.0</v>
       </c>
       <c r="J87" t="n" s="85">
-        <v>1.8331371754352442E-6</v>
+        <v>1.8331012753025114E-6</v>
       </c>
       <c r="K87" t="n" s="85">
-        <v>1.8331371754352442E-6</v>
+        <v>1.8331012753025114E-6</v>
       </c>
       <c r="L87" t="n" s="85">
         <v>1.0</v>
@@ -12103,16 +12103,16 @@
         <v>0.00144786028220451</v>
       </c>
       <c r="U87" t="n" s="85">
-        <v>1.8769611334593992E-4</v>
+        <v>1.8276321699631004E-4</v>
       </c>
       <c r="V87" t="n" s="85">
         <v>0.002346736170509988</v>
       </c>
       <c r="W87" t="n" s="85">
-        <v>3.331588035111845E-4</v>
+        <v>3.244041916890033E-4</v>
       </c>
       <c r="X87" t="n" s="85">
-        <v>3.331588035111846E-4</v>
+        <v>3.2440419168900335E-4</v>
       </c>
       <c r="Y87" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12127,40 +12127,40 @@
         <v>0.9989345677579698</v>
       </c>
       <c r="AC87" t="n" s="85">
-        <v>0.007751783764784872</v>
+        <v>0.007751784584623022</v>
       </c>
       <c r="AD87" t="n" s="85">
-        <v>0.007751783764784872</v>
+        <v>0.007751784584623023</v>
       </c>
       <c r="AE87" t="n" s="85">
-        <v>9.906461928603195E-4</v>
+        <v>9.906462983437197E-4</v>
       </c>
       <c r="AF87" t="n" s="85">
-        <v>9.906461928603193E-4</v>
+        <v>9.906462983437197E-4</v>
       </c>
       <c r="AG87" t="n" s="85">
-        <v>6.741892215475117E-6</v>
+        <v>6.741892934051764E-6</v>
       </c>
       <c r="AH87" t="n" s="85">
         <v>0.8219148697291487</v>
       </c>
       <c r="AI87" t="n" s="85">
-        <v>7.648986226281382E-5</v>
+        <v>7.648987041565721E-5</v>
       </c>
       <c r="AJ87" t="n" s="85">
         <v>0.9988921685964943</v>
       </c>
       <c r="AK87" t="n" s="85">
-        <v>0.9999939415681882</v>
+        <v>0.9999937644438351</v>
       </c>
       <c r="AL87" t="n" s="85">
-        <v>0.9999999995111563</v>
+        <v>0.999999999497696</v>
       </c>
       <c r="AM87" t="n" s="85">
         <v>0.9990716508345046</v>
       </c>
       <c r="AN87" t="n" s="85">
-        <v>0.9999999972457999</v>
+        <v>0.9999999973464043</v>
       </c>
       <c r="AO87" t="n" s="85">
         <v>1.0</v>
@@ -12195,7 +12195,7 @@
         <v>1.0</v>
       </c>
       <c r="J88" t="n" s="85">
-        <v>2.7340898559102336E-7</v>
+        <v>2.7340790696911966E-7</v>
       </c>
       <c r="K88" t="n" s="85">
         <v>1.0</v>
@@ -12228,16 +12228,16 @@
         <v>7.716667247410242E-4</v>
       </c>
       <c r="U88" t="n" s="85">
-        <v>2.470819973283651E-7</v>
+        <v>2.405871941690704E-7</v>
       </c>
       <c r="V88" t="n" s="85">
         <v>0.0012643814893521736</v>
       </c>
       <c r="W88" t="n" s="85">
-        <v>3.877646017625022E-7</v>
+        <v>3.7757180392012844E-7</v>
       </c>
       <c r="X88" t="n" s="85">
-        <v>3.877646017625022E-7</v>
+        <v>3.775718039201286E-7</v>
       </c>
       <c r="Y88" t="n" s="85">
         <v>0.1975370297078262</v>
@@ -12252,52 +12252,52 @@
         <v>0.07618581995551585</v>
       </c>
       <c r="AC88" t="n" s="85">
-        <v>1.1659391194737394E-5</v>
+        <v>1.1659392437465087E-5</v>
       </c>
       <c r="AD88" t="n" s="85">
-        <v>1.1659391194737399E-5</v>
+        <v>1.165939243746509E-5</v>
       </c>
       <c r="AE88" t="n" s="85">
-        <v>1.4808333624694928E-6</v>
+        <v>1.4808335203034937E-6</v>
       </c>
       <c r="AF88" t="n" s="85">
-        <v>1.4808333624694936E-6</v>
+        <v>1.4808335203034944E-6</v>
       </c>
       <c r="AG88" t="n" s="85">
-        <v>4.2026354627451293E-7</v>
+        <v>4.20263591068091E-7</v>
       </c>
       <c r="AH88" t="n" s="85">
         <v>0.046078503479992525</v>
       </c>
       <c r="AI88" t="n" s="85">
-        <v>7.744927643432681E-5</v>
+        <v>7.744928468940505E-5</v>
       </c>
       <c r="AJ88" t="n" s="85">
         <v>0.9941086480829028</v>
       </c>
       <c r="AK88" t="n" s="85">
-        <v>0.9957370805690163</v>
+        <v>0.9958089427841105</v>
       </c>
       <c r="AL88" t="n" s="85">
-        <v>0.9999462242920015</v>
+        <v>0.9999467093091033</v>
       </c>
       <c r="AM88" t="n" s="85">
         <v>0.9815855858714675</v>
       </c>
       <c r="AN88" t="n" s="85">
-        <v>0.9999474478850722</v>
+        <v>0.9999470728204526</v>
       </c>
       <c r="AO88" t="n" s="85">
-        <v>0.9999997120922599</v>
+        <v>0.9999997119900237</v>
       </c>
       <c r="AP88" t="n" s="85">
         <v>0.5425965717315651</v>
       </c>
       <c r="AQ88" t="n" s="85">
-        <v>0.6668693878466627</v>
+        <v>0.6667945237162561</v>
       </c>
       <c r="AR88" t="n" s="85">
-        <v>0.9823236514860455</v>
+        <v>0.9821975580353552</v>
       </c>
     </row>
     <row r="89">
@@ -12320,10 +12320,10 @@
         <v>1.0</v>
       </c>
       <c r="J89" t="n" s="85">
-        <v>2.0383407938402703E-6</v>
+        <v>2.0383008750109444E-6</v>
       </c>
       <c r="K89" t="n" s="85">
-        <v>2.0383407938402703E-6</v>
+        <v>2.0383008750109444E-6</v>
       </c>
       <c r="L89" t="n" s="85">
         <v>1.0</v>
@@ -12359,10 +12359,10 @@
         <v>0.0036234230293583766</v>
       </c>
       <c r="W89" t="n" s="85">
-        <v>2.1442945460598686E-6</v>
+        <v>2.1722930664795972E-6</v>
       </c>
       <c r="X89" t="n" s="85">
-        <v>2.144294546059868E-6</v>
+        <v>2.1722930664795972E-6</v>
       </c>
       <c r="Y89" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -12377,52 +12377,52 @@
         <v>0.10181689358255397</v>
       </c>
       <c r="AC89" t="n" s="85">
-        <v>4.267518075608129E-5</v>
+        <v>4.358780938827188E-5</v>
       </c>
       <c r="AD89" t="n" s="85">
-        <v>4.2675180756081287E-5</v>
+        <v>4.358780938827187E-5</v>
       </c>
       <c r="AE89" t="n" s="85">
-        <v>6.227625657058178E-6</v>
+        <v>6.360807738778637E-6</v>
       </c>
       <c r="AF89" t="n" s="85">
-        <v>6.227625657058179E-6</v>
+        <v>6.360807738778637E-6</v>
       </c>
       <c r="AG89" t="n" s="85">
-        <v>5.144314666045217E-8</v>
+        <v>5.2543295743762373E-8</v>
       </c>
       <c r="AH89" t="n" s="85">
         <v>0.010648219266273986</v>
       </c>
       <c r="AI89" t="n" s="85">
-        <v>1.0902514160961429E-4</v>
+        <v>1.1135673494269033E-4</v>
       </c>
       <c r="AJ89" t="n" s="85">
         <v>0.9991493793904361</v>
       </c>
       <c r="AK89" t="n" s="85">
-        <v>0.9999711376995251</v>
+        <v>0.9999716705310341</v>
       </c>
       <c r="AL89" t="n" s="85">
-        <v>0.999999851542514</v>
+        <v>0.9999998528756856</v>
       </c>
       <c r="AM89" t="n" s="85">
         <v>0.9997613363803187</v>
       </c>
       <c r="AN89" t="n" s="85">
-        <v>0.9999999977188833</v>
+        <v>0.9999999977025104</v>
       </c>
       <c r="AO89" t="n" s="85">
-        <v>0.9999999999404924</v>
+        <v>0.9999999999397909</v>
       </c>
       <c r="AP89" t="n" s="85">
         <v>0.9992037653587529</v>
       </c>
       <c r="AQ89" t="n" s="85">
-        <v>0.9999992776398782</v>
+        <v>0.9999992725009983</v>
       </c>
       <c r="AR89" t="n" s="85">
-        <v>0.9999994491523302</v>
+        <v>0.9999994452493408</v>
       </c>
     </row>
     <row r="90">
@@ -12484,10 +12484,10 @@
         <v>0.003677148300295319</v>
       </c>
       <c r="W90" t="n" s="85">
-        <v>2.3906251369734587E-6</v>
+        <v>2.3533540221638607E-6</v>
       </c>
       <c r="X90" t="n" s="85">
-        <v>2.3906251369734587E-6</v>
+        <v>2.3533540221638607E-6</v>
       </c>
       <c r="Y90" t="n" s="85">
         <v>0.22731950960297784</v>
@@ -12502,16 +12502,16 @@
         <v>0.10369120838380375</v>
       </c>
       <c r="AC90" t="n" s="85">
-        <v>4.723361254173519E-5</v>
+        <v>4.61297359365903E-5</v>
       </c>
       <c r="AD90" t="n" s="85">
-        <v>4.723361254173519E-5</v>
+        <v>4.61297359365903E-5</v>
       </c>
       <c r="AE90" t="n" s="85">
-        <v>7.05562123664433E-6</v>
+        <v>6.890725635570951E-6</v>
       </c>
       <c r="AF90" t="n" s="85">
-        <v>7.05562123664433E-6</v>
+        <v>6.890725635570951E-6</v>
       </c>
       <c r="AG90" t="n" s="85">
         <v>1.0</v>
@@ -12520,7 +12520,7 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI90" t="n" s="85">
-        <v>1.6325123113722514E-4</v>
+        <v>1.594360366354806E-4</v>
       </c>
       <c r="AJ90" t="n" s="85">
         <v>0.9993100600201867</v>
@@ -12570,10 +12570,10 @@
         <v>1.0</v>
       </c>
       <c r="J91" t="n" s="85">
-        <v>1.8899067819364097E-7</v>
+        <v>1.8898339040340252E-7</v>
       </c>
       <c r="K91" t="n" s="85">
-        <v>1.8899067819364091E-7</v>
+        <v>1.8898339040340236E-7</v>
       </c>
       <c r="L91" t="n" s="85">
         <v>1.0</v>
@@ -12603,16 +12603,16 @@
         <v>8.708269452208607E-4</v>
       </c>
       <c r="U91" t="n" s="85">
-        <v>1.4015268634453727E-7</v>
+        <v>1.333861966349428E-7</v>
       </c>
       <c r="V91" t="n" s="85">
         <v>0.001530407066977628</v>
       </c>
       <c r="W91" t="n" s="85">
-        <v>2.3590667581424052E-7</v>
+        <v>2.2451722976211097E-7</v>
       </c>
       <c r="X91" t="n" s="85">
-        <v>2.3590667581424034E-7</v>
+        <v>2.2451722976211097E-7</v>
       </c>
       <c r="Y91" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12627,52 +12627,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC91" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD91" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE91" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF91" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG91" t="n" s="85">
-        <v>4.664692719785669E-9</v>
+        <v>4.6646936066605764E-9</v>
       </c>
       <c r="AH91" t="n" s="85">
         <v>0.008789341565946391</v>
       </c>
       <c r="AI91" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ91" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK91" t="n" s="85">
-        <v>0.9993139696415756</v>
+        <v>0.999346437219695</v>
       </c>
       <c r="AL91" t="n" s="85">
-        <v>0.9475447849097473</v>
+        <v>0.9496015317426965</v>
       </c>
       <c r="AM91" t="n" s="85">
         <v>0.997972275157814</v>
       </c>
       <c r="AN91" t="n" s="85">
-        <v>0.9974955142328127</v>
+        <v>0.9974795982069266</v>
       </c>
       <c r="AO91" t="n" s="85">
-        <v>0.9709397468592271</v>
+        <v>0.9711019187344725</v>
       </c>
       <c r="AP91" t="n" s="85">
         <v>0.7437047857684077</v>
       </c>
       <c r="AQ91" t="n" s="85">
-        <v>0.77289636387288</v>
+        <v>0.7727636775608892</v>
       </c>
       <c r="AR91" t="n" s="85">
-        <v>6.605791721520166E-4</v>
+        <v>6.35982501037005E-4</v>
       </c>
     </row>
     <row r="92">
@@ -12728,16 +12728,16 @@
         <v>0.0018509950928061437</v>
       </c>
       <c r="U92" t="n" s="85">
-        <v>2.453385829998728E-6</v>
+        <v>2.439984006614495E-6</v>
       </c>
       <c r="V92" t="n" s="85">
         <v>0.0028430841927446094</v>
       </c>
       <c r="W92" t="n" s="85">
-        <v>3.7518235775367636E-6</v>
+        <v>3.7313289354802687E-6</v>
       </c>
       <c r="X92" t="n" s="85">
-        <v>3.7518235775367636E-6</v>
+        <v>3.7313289354802687E-6</v>
       </c>
       <c r="Y92" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -12752,16 +12752,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC92" t="n" s="85">
-        <v>7.821816112888E-5</v>
+        <v>7.82181630212547E-5</v>
       </c>
       <c r="AD92" t="n" s="85">
-        <v>7.821816112888E-5</v>
+        <v>7.82181630212547E-5</v>
       </c>
       <c r="AE92" t="n" s="85">
-        <v>1.1414591616398274E-5</v>
+        <v>1.1414591892568815E-5</v>
       </c>
       <c r="AF92" t="n" s="85">
-        <v>1.1414591616398274E-5</v>
+        <v>1.1414591892568815E-5</v>
       </c>
       <c r="AG92" t="n" s="85">
         <v>1.0</v>
@@ -12770,22 +12770,22 @@
         <v>0.030284679973979968</v>
       </c>
       <c r="AI92" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ92" t="n" s="85">
         <v>0.9987523460200912</v>
       </c>
       <c r="AK92" t="n" s="85">
-        <v>0.9999879508015111</v>
+        <v>0.999987599169683</v>
       </c>
       <c r="AL92" t="n" s="85">
-        <v>0.999999998080209</v>
+        <v>0.9999999980273473</v>
       </c>
       <c r="AM92" t="n" s="85">
         <v>0.999216966881002</v>
       </c>
       <c r="AN92" t="n" s="85">
-        <v>0.9999999971279429</v>
+        <v>0.9999999972328515</v>
       </c>
       <c r="AO92" t="n" s="85">
         <v>1.0</v>
@@ -12853,16 +12853,16 @@
         <v>8.770521436087226E-4</v>
       </c>
       <c r="U93" t="n" s="85">
-        <v>1.8608800786081948E-7</v>
+        <v>1.7710378809262869E-7</v>
       </c>
       <c r="V93" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W93" t="n" s="85">
-        <v>3.132255924603475E-7</v>
+        <v>2.981032322615758E-7</v>
       </c>
       <c r="X93" t="n" s="85">
-        <v>3.132255924603476E-7</v>
+        <v>2.9810323226157577E-7</v>
       </c>
       <c r="Y93" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -12877,52 +12877,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC93" t="n" s="85">
-        <v>8.047960703271953E-6</v>
+        <v>8.047962233418519E-6</v>
       </c>
       <c r="AD93" t="n" s="85">
-        <v>8.047960703271953E-6</v>
+        <v>8.04796223341852E-6</v>
       </c>
       <c r="AE93" t="n" s="85">
-        <v>1.0221595657846897E-6</v>
+        <v>1.0221597601233789E-6</v>
       </c>
       <c r="AF93" t="n" s="85">
-        <v>1.0221595657846895E-6</v>
+        <v>1.0221597601233789E-6</v>
       </c>
       <c r="AG93" t="n" s="85">
-        <v>6.193553621165874E-9</v>
+        <v>6.193554798715524E-9</v>
       </c>
       <c r="AH93" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI93" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ93" t="n" s="85">
         <v>0.9992488414630909</v>
       </c>
       <c r="AK93" t="n" s="85">
-        <v>0.9999433398771167</v>
+        <v>0.9999430733484863</v>
       </c>
       <c r="AL93" t="n" s="85">
-        <v>0.9988964471529289</v>
+        <v>0.9988854598664215</v>
       </c>
       <c r="AM93" t="n" s="85">
         <v>0.9998049413496307</v>
       </c>
       <c r="AN93" t="n" s="85">
-        <v>0.9999928321074951</v>
+        <v>0.9999929330487023</v>
       </c>
       <c r="AO93" t="n" s="85">
-        <v>0.9998756372860361</v>
+        <v>0.9998797031726252</v>
       </c>
       <c r="AP93" t="n" s="85">
         <v>0.9111883693972104</v>
       </c>
       <c r="AQ93" t="n" s="85">
-        <v>0.9807626890740645</v>
+        <v>0.9807499396644688</v>
       </c>
       <c r="AR93" t="n" s="85">
-        <v>0.7466759910167866</v>
+        <v>0.7515991106904852</v>
       </c>
     </row>
     <row r="94">
@@ -12945,10 +12945,10 @@
         <v>1.0</v>
       </c>
       <c r="J94" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="K94" t="n" s="85">
-        <v>5.306706479617261E-7</v>
+        <v>5.306602553016636E-7</v>
       </c>
       <c r="L94" t="n" s="85">
         <v>1.0</v>
@@ -12978,16 +12978,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U94" t="n" s="85">
-        <v>2.7764505383437374E-6</v>
+        <v>2.7612839520940257E-6</v>
       </c>
       <c r="V94" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W94" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="X94" t="n" s="85">
-        <v>4.2458676011761E-6</v>
+        <v>4.222674214773135E-6</v>
       </c>
       <c r="Y94" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -13002,16 +13002,16 @@
         <v>0.23637864237887474</v>
       </c>
       <c r="AC94" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AD94" t="n" s="85">
-        <v>8.473251941468711E-5</v>
+        <v>8.473252146465388E-5</v>
       </c>
       <c r="AE94" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AF94" t="n" s="85">
-        <v>1.2365295715976608E-5</v>
+        <v>1.2365296015148692E-5</v>
       </c>
       <c r="AG94" t="n" s="85">
         <v>1.0</v>
@@ -13020,22 +13020,22 @@
         <v>0.03160636124629607</v>
       </c>
       <c r="AI94" t="n" s="85">
-        <v>1.3287342618739255E-4</v>
+        <v>1.3287342940216835E-4</v>
       </c>
       <c r="AJ94" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK94" t="n" s="85">
-        <v>0.9999981652120649</v>
+        <v>0.9999980289659589</v>
       </c>
       <c r="AL94" t="n" s="85">
-        <v>0.9999999999837649</v>
+        <v>0.9999999999828594</v>
       </c>
       <c r="AM94" t="n" s="85">
         <v>0.9995759674880899</v>
       </c>
       <c r="AN94" t="n" s="85">
-        <v>0.9999999999487449</v>
+        <v>0.9999999999520447</v>
       </c>
       <c r="AO94" t="n" s="85">
         <v>1.0</v>
@@ -13109,10 +13109,10 @@
         <v>0.0035751160202512136</v>
       </c>
       <c r="W95" t="n" s="85">
-        <v>1.7579176157196271E-6</v>
+        <v>1.8025970587158352E-6</v>
       </c>
       <c r="X95" t="n" s="85">
-        <v>1.757917615719627E-6</v>
+        <v>1.802597058715835E-6</v>
       </c>
       <c r="Y95" t="n" s="85">
         <v>0.2273138946354053</v>
@@ -13127,25 +13127,25 @@
         <v>0.10181689358255397</v>
       </c>
       <c r="AC95" t="n" s="85">
-        <v>3.65221447975395E-5</v>
+        <v>3.79835428482888E-5</v>
       </c>
       <c r="AD95" t="n" s="85">
-        <v>3.65221447975395E-5</v>
+        <v>3.79835428482888E-5</v>
       </c>
       <c r="AE95" t="n" s="85">
-        <v>5.0752013387756735E-6</v>
+        <v>5.2782818110126014E-6</v>
       </c>
       <c r="AF95" t="n" s="85">
-        <v>5.0752013387756735E-6</v>
+        <v>5.278281811012602E-6</v>
       </c>
       <c r="AG95" t="n" s="85">
-        <v>4.1923566026132435E-8</v>
+        <v>4.3601107860512284E-8</v>
       </c>
       <c r="AH95" t="n" s="85">
         <v>0.010648219266273986</v>
       </c>
       <c r="AI95" t="n" s="85">
-        <v>9.005143198247796E-5</v>
+        <v>9.365485689573573E-5</v>
       </c>
       <c r="AJ95" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -13169,10 +13169,10 @@
         <v>0.9979784459382693</v>
       </c>
       <c r="AQ95" t="n" s="85">
-        <v>0.9998438343222531</v>
+        <v>0.9998437165605033</v>
       </c>
       <c r="AR95" t="n" s="85">
-        <v>0.9748319663181325</v>
+        <v>0.974771992253859</v>
       </c>
     </row>
     <row r="96">
@@ -13276,16 +13276,16 @@
         <v>0.9992184044676108</v>
       </c>
       <c r="AK96" t="n" s="85">
-        <v>0.99999295269072</v>
+        <v>0.9999926089827605</v>
       </c>
       <c r="AL96" t="n" s="85">
-        <v>0.9999999835215952</v>
+        <v>0.9999999829143345</v>
       </c>
       <c r="AM96" t="n" s="85">
         <v>0.9998231056227553</v>
       </c>
       <c r="AN96" t="n" s="85">
-        <v>0.9999999988790544</v>
+        <v>0.9999999989276901</v>
       </c>
       <c r="AO96" t="n" s="85">
         <v>1.0</v>
@@ -13353,16 +13353,16 @@
         <v>0.0020946260378561436</v>
       </c>
       <c r="U97" t="n" s="85">
-        <v>1.9333711881355173E-6</v>
+        <v>1.990756936837499E-6</v>
       </c>
       <c r="V97" t="n" s="85">
         <v>0.003217180958247838</v>
       </c>
       <c r="W97" t="n" s="85">
-        <v>2.956595143237774E-6</v>
+        <v>3.0443519400290653E-6</v>
       </c>
       <c r="X97" t="n" s="85">
-        <v>2.956595143237774E-6</v>
+        <v>3.0443519400290653E-6</v>
       </c>
       <c r="Y97" t="n" s="85">
         <v>0.22672048802151604</v>
@@ -13377,16 +13377,16 @@
         <v>0.10359707863142073</v>
       </c>
       <c r="AC97" t="n" s="85">
-        <v>6.108909989704266E-5</v>
+        <v>6.108908969100478E-5</v>
       </c>
       <c r="AD97" t="n" s="85">
-        <v>6.108909989704266E-5</v>
+        <v>6.108908969100478E-5</v>
       </c>
       <c r="AE97" t="n" s="85">
-        <v>8.914818304874033E-6</v>
+        <v>8.914816815468624E-6</v>
       </c>
       <c r="AF97" t="n" s="85">
-        <v>8.914818304874033E-6</v>
+        <v>8.914816815468624E-6</v>
       </c>
       <c r="AG97" t="n" s="85">
         <v>1.0</v>
@@ -13395,22 +13395,22 @@
         <v>0.012972107732339795</v>
       </c>
       <c r="AI97" t="n" s="85">
-        <v>2.354747296886511E-4</v>
+        <v>2.354746903506874E-4</v>
       </c>
       <c r="AJ97" t="n" s="85">
         <v>0.9987654520600814</v>
       </c>
       <c r="AK97" t="n" s="85">
-        <v>0.9999962083360194</v>
+        <v>0.9999959267784853</v>
       </c>
       <c r="AL97" t="n" s="85">
-        <v>0.9999999996628608</v>
+        <v>0.9999999996440568</v>
       </c>
       <c r="AM97" t="n" s="85">
         <v>0.998316919507106</v>
       </c>
       <c r="AN97" t="n" s="85">
-        <v>0.9999999884390134</v>
+        <v>0.9999999891833024</v>
       </c>
       <c r="AO97" t="n" s="85">
         <v>1.0</v>
@@ -13484,10 +13484,10 @@
         <v>0.004598464299365433</v>
       </c>
       <c r="W98" t="n" s="85">
-        <v>2.042709653919325E-6</v>
+        <v>2.0946273900357074E-6</v>
       </c>
       <c r="X98" t="n" s="85">
-        <v>2.042709653919324E-6</v>
+        <v>2.094627390035707E-6</v>
       </c>
       <c r="Y98" t="n" s="85">
         <v>0.2213595988349178</v>
@@ -13502,52 +13502,52 @@
         <v>0.09835644885167026</v>
       </c>
       <c r="AC98" t="n" s="85">
-        <v>4.178483453288341E-5</v>
+        <v>4.3456804835894706E-5</v>
       </c>
       <c r="AD98" t="n" s="85">
-        <v>4.178483453288341E-5</v>
+        <v>4.34568048358947E-5</v>
       </c>
       <c r="AE98" t="n" s="85">
-        <v>6.097679158912033E-6</v>
+        <v>6.341673074356328E-6</v>
       </c>
       <c r="AF98" t="n" s="85">
-        <v>6.097679158912032E-6</v>
+        <v>6.341673074356327E-6</v>
       </c>
       <c r="AG98" t="n" s="85">
-        <v>4.73215446586146E-8</v>
+        <v>4.9215082778371835E-8</v>
       </c>
       <c r="AH98" t="n" s="85">
         <v>0.01023058125315009</v>
       </c>
       <c r="AI98" t="n" s="85">
-        <v>9.456727704042531E-5</v>
+        <v>9.835138656535559E-5</v>
       </c>
       <c r="AJ98" t="n" s="85">
         <v>0.9993100600201867</v>
       </c>
       <c r="AK98" t="n" s="85">
-        <v>0.9999726362390007</v>
+        <v>0.9999713233052077</v>
       </c>
       <c r="AL98" t="n" s="85">
-        <v>0.9999398630513996</v>
+        <v>0.9999375864983163</v>
       </c>
       <c r="AM98" t="n" s="85">
         <v>0.9997752991526837</v>
       </c>
       <c r="AN98" t="n" s="85">
-        <v>0.9999981342732459</v>
+        <v>0.9999982134908934</v>
       </c>
       <c r="AO98" t="n" s="85">
-        <v>0.9999688477011571</v>
+        <v>0.9999713167384229</v>
       </c>
       <c r="AP98" t="n" s="85">
         <v>0.9821166792409322</v>
       </c>
       <c r="AQ98" t="n" s="85">
-        <v>0.9979681034002066</v>
+        <v>0.9979794464600263</v>
       </c>
       <c r="AR98" t="n" s="85">
-        <v>0.9953299255175646</v>
+        <v>0.9956145044992865</v>
       </c>
     </row>
     <row r="99">
@@ -13609,10 +13609,10 @@
         <v>0.007170608370342563</v>
       </c>
       <c r="W99" t="n" s="85">
-        <v>6.962998807991458E-6</v>
+        <v>7.0009022803893565E-6</v>
       </c>
       <c r="X99" t="n" s="85">
-        <v>6.962998807991458E-6</v>
+        <v>7.0009022803893565E-6</v>
       </c>
       <c r="Y99" t="n" s="85">
         <v>0.2267204842897475</v>
@@ -13627,40 +13627,40 @@
         <v>0.10359707559208245</v>
       </c>
       <c r="AC99" t="n" s="85">
-        <v>1.4622390994799742E-4</v>
+        <v>1.475193934836853E-4</v>
       </c>
       <c r="AD99" t="n" s="85">
-        <v>1.462239099479974E-4</v>
+        <v>1.4751939348368529E-4</v>
       </c>
       <c r="AE99" t="n" s="85">
-        <v>2.0320686859518452E-5</v>
+        <v>2.0500737821003777E-5</v>
       </c>
       <c r="AF99" t="n" s="85">
-        <v>2.032068685951845E-5</v>
+        <v>2.0500737821003757E-5</v>
       </c>
       <c r="AG99" t="n" s="85">
-        <v>1.6736861188627417E-7</v>
+        <v>1.688516007099204E-7</v>
       </c>
       <c r="AH99" t="n" s="85">
         <v>0.010873534397358728</v>
       </c>
       <c r="AI99" t="n" s="85">
-        <v>9.689953597894265E-5</v>
+        <v>9.77581416432315E-5</v>
       </c>
       <c r="AJ99" t="n" s="85">
         <v>0.9989549874540834</v>
       </c>
       <c r="AK99" t="n" s="85">
-        <v>0.9999941130119702</v>
+        <v>0.9999936764212987</v>
       </c>
       <c r="AL99" t="n" s="85">
-        <v>0.9999999915236883</v>
+        <v>0.9999999910508098</v>
       </c>
       <c r="AM99" t="n" s="85">
         <v>0.9993887201480997</v>
       </c>
       <c r="AN99" t="n" s="85">
-        <v>0.9999999866167213</v>
+        <v>0.9999999874781682</v>
       </c>
       <c r="AO99" t="n" s="85">
         <v>1.0</v>
@@ -13728,16 +13728,16 @@
         <v>7.47897685602785E-4</v>
       </c>
       <c r="U100" t="n" s="85">
-        <v>6.2336306507920486E-6</v>
+        <v>5.932676354879457E-6</v>
       </c>
       <c r="V100" t="n" s="85">
         <v>0.0012254298607260654</v>
       </c>
       <c r="W100" t="n" s="85">
-        <v>9.490861751008138E-6</v>
+        <v>9.032652141606949E-6</v>
       </c>
       <c r="X100" t="n" s="85">
-        <v>9.49086175100813E-6</v>
+        <v>9.03265214160695E-6</v>
       </c>
       <c r="Y100" t="n" s="85">
         <v>0.20345099705186123</v>
@@ -13752,52 +13752,52 @@
         <v>0.977848897041202</v>
       </c>
       <c r="AC100" t="n" s="85">
-        <v>3.7322858015229217E-4</v>
+        <v>3.732286510877621E-4</v>
       </c>
       <c r="AD100" t="n" s="85">
-        <v>3.7322858015229217E-4</v>
+        <v>3.732286510877621E-4</v>
       </c>
       <c r="AE100" t="n" s="85">
-        <v>3.595465861217404E-5</v>
+        <v>3.595466544783585E-5</v>
       </c>
       <c r="AF100" t="n" s="85">
-        <v>3.5954658612174037E-5</v>
+        <v>3.595466544783584E-5</v>
       </c>
       <c r="AG100" t="n" s="85">
-        <v>1.9344027925573097E-7</v>
+        <v>1.9344031603356527E-7</v>
       </c>
       <c r="AH100" t="n" s="85">
         <v>0.310460391568622</v>
       </c>
       <c r="AI100" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ100" t="n" s="85">
         <v>0.9982275592387277</v>
       </c>
       <c r="AK100" t="n" s="85">
-        <v>0.9971726035664576</v>
+        <v>0.9972037727814749</v>
       </c>
       <c r="AL100" t="n" s="85">
-        <v>0.9128463690913716</v>
+        <v>0.9123564089401779</v>
       </c>
       <c r="AM100" t="n" s="85">
         <v>0.9955138057821854</v>
       </c>
       <c r="AN100" t="n" s="85">
-        <v>0.9954301831566057</v>
+        <v>0.9954382959318981</v>
       </c>
       <c r="AO100" t="n" s="85">
-        <v>0.9443504410394503</v>
+        <v>0.9461833584120861</v>
       </c>
       <c r="AP100" t="n" s="85">
         <v>0.8454082216481962</v>
       </c>
       <c r="AQ100" t="n" s="85">
-        <v>0.9455253917661257</v>
+        <v>0.9454866302133086</v>
       </c>
       <c r="AR100" t="n" s="85">
-        <v>0.0033753719641172234</v>
+        <v>0.0034608957958766453</v>
       </c>
     </row>
     <row r="101">
@@ -13859,10 +13859,10 @@
         <v>0.004134191714700841</v>
       </c>
       <c r="W101" t="n" s="85">
-        <v>2.4567396884919014E-6</v>
+        <v>2.4634420336492375E-6</v>
       </c>
       <c r="X101" t="n" s="85">
-        <v>2.4567396884919014E-6</v>
+        <v>2.4634420336492375E-6</v>
       </c>
       <c r="Y101" t="n" s="85">
         <v>0.24998928085006616</v>
@@ -13877,16 +13877,16 @@
         <v>0.11464036793125379</v>
       </c>
       <c r="AC101" t="n" s="85">
-        <v>4.807676068335957E-5</v>
+        <v>4.828759550578029E-5</v>
       </c>
       <c r="AD101" t="n" s="85">
-        <v>4.807676068335955E-5</v>
+        <v>4.8287595505780274E-5</v>
       </c>
       <c r="AE101" t="n" s="85">
-        <v>7.181573078351701E-6</v>
+        <v>7.213067430750235E-6</v>
       </c>
       <c r="AF101" t="n" s="85">
-        <v>7.181573078351701E-6</v>
+        <v>7.213067430750235E-6</v>
       </c>
       <c r="AG101" t="n" s="85">
         <v>1.0</v>
@@ -13895,7 +13895,7 @@
         <v>0.012947912157560575</v>
       </c>
       <c r="AI101" t="n" s="85">
-        <v>1.4313153875602597E-4</v>
+        <v>1.4375921951839305E-4</v>
       </c>
       <c r="AJ101" t="n" s="85">
         <v>0.9992184044676108</v>
@@ -13922,7 +13922,7 @@
         <v>0.9999999982963069</v>
       </c>
       <c r="AR101" t="n" s="85">
-        <v>0.9999999616249697</v>
+        <v>0.9999999615576137</v>
       </c>
     </row>
     <row r="102">
@@ -13978,16 +13978,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U102" t="n" s="85">
-        <v>1.4662957001700475E-6</v>
+        <v>1.4513437027046985E-6</v>
       </c>
       <c r="V102" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W102" t="n" s="85">
-        <v>2.2636034396957348E-6</v>
+        <v>2.240521191212434E-6</v>
       </c>
       <c r="X102" t="n" s="85">
-        <v>2.2636034396957348E-6</v>
+        <v>2.240521191212434E-6</v>
       </c>
       <c r="Y102" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -14002,16 +14002,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC102" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD102" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE102" t="n" s="85">
-        <v>6.854038635314814E-6</v>
+        <v>6.8540389426314105E-6</v>
       </c>
       <c r="AF102" t="n" s="85">
-        <v>6.854038635314814E-6</v>
+        <v>6.8540389426314105E-6</v>
       </c>
       <c r="AG102" t="n" s="85">
         <v>1.0</v>
@@ -14020,34 +14020,34 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI102" t="n" s="85">
-        <v>1.1735545174383436E-4</v>
+        <v>1.1735545700573342E-4</v>
       </c>
       <c r="AJ102" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK102" t="n" s="85">
-        <v>0.9995088910324397</v>
+        <v>0.9995318526637148</v>
       </c>
       <c r="AL102" t="n" s="85">
-        <v>0.9759228548124982</v>
+        <v>0.9766957036952293</v>
       </c>
       <c r="AM102" t="n" s="85">
         <v>0.9992341682628635</v>
       </c>
       <c r="AN102" t="n" s="85">
-        <v>0.9998117749352664</v>
+        <v>0.9998089114953328</v>
       </c>
       <c r="AO102" t="n" s="85">
-        <v>0.9978986085342009</v>
+        <v>0.9979129745057959</v>
       </c>
       <c r="AP102" t="n" s="85">
         <v>0.9583003262320753</v>
       </c>
       <c r="AQ102" t="n" s="85">
-        <v>0.9929151968788982</v>
+        <v>0.9929095627855147</v>
       </c>
       <c r="AR102" t="n" s="85">
-        <v>0.49957241941469616</v>
+        <v>0.49147558630988475</v>
       </c>
     </row>
     <row r="103">
@@ -14103,16 +14103,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U103" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V103" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W103" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X103" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y103" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14127,52 +14127,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC103" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD103" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE103" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF103" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG103" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH103" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI103" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ103" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK103" t="n" s="85">
-        <v>0.9996682340674314</v>
+        <v>0.9996784793831195</v>
       </c>
       <c r="AL103" t="n" s="85">
-        <v>0.9243210598532513</v>
+        <v>0.926105793832072</v>
       </c>
       <c r="AM103" t="n" s="85">
         <v>0.9994506918965304</v>
       </c>
       <c r="AN103" t="n" s="85">
-        <v>0.999669506105513</v>
+        <v>0.9996673346896685</v>
       </c>
       <c r="AO103" t="n" s="85">
-        <v>0.9860563139625969</v>
+        <v>0.986133357825641</v>
       </c>
       <c r="AP103" t="n" s="85">
         <v>0.8322374919248288</v>
       </c>
       <c r="AQ103" t="n" s="85">
-        <v>0.9329631211201185</v>
+        <v>0.9329158556182334</v>
       </c>
       <c r="AR103" t="n" s="85">
-        <v>0.0039345906458479445</v>
+        <v>0.0038374786659279682</v>
       </c>
     </row>
     <row r="104">
@@ -14195,10 +14195,10 @@
         <v>1.0</v>
       </c>
       <c r="J104" t="n" s="85">
-        <v>1.9146161004653714E-7</v>
+        <v>1.9145422697313555E-7</v>
       </c>
       <c r="K104" t="n" s="85">
-        <v>1.9146161004653711E-7</v>
+        <v>1.9145422697313555E-7</v>
       </c>
       <c r="L104" t="n" s="85">
         <v>1.0</v>
@@ -14228,16 +14228,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U104" t="n" s="85">
-        <v>1.7872583202483771E-7</v>
+        <v>1.7009705372325237E-7</v>
       </c>
       <c r="V104" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W104" t="n" s="85">
-        <v>3.0083348354638984E-7</v>
+        <v>2.863094074134044E-7</v>
       </c>
       <c r="X104" t="n" s="85">
-        <v>3.008334835463899E-7</v>
+        <v>2.8630940741340427E-7</v>
       </c>
       <c r="Y104" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14252,52 +14252,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC104" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD104" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE104" t="n" s="85">
-        <v>9.81719886715608E-7</v>
+        <v>9.817200733656863E-7</v>
       </c>
       <c r="AF104" t="n" s="85">
-        <v>9.817198867156075E-7</v>
+        <v>9.81720073365686E-7</v>
       </c>
       <c r="AG104" t="n" s="85">
-        <v>5.948519070955184E-9</v>
+        <v>5.948520201917631E-9</v>
       </c>
       <c r="AH104" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI104" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ104" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK104" t="n" s="85">
-        <v>0.9995088910324397</v>
+        <v>0.9995318526637148</v>
       </c>
       <c r="AL104" t="n" s="85">
-        <v>0.9714106819464027</v>
+        <v>0.9723571264953287</v>
       </c>
       <c r="AM104" t="n" s="85">
         <v>0.9988703276404598</v>
       </c>
       <c r="AN104" t="n" s="85">
-        <v>0.9994794922243727</v>
+        <v>0.9994722215381168</v>
       </c>
       <c r="AO104" t="n" s="85">
-        <v>0.9975980969395101</v>
+        <v>0.9976146060207444</v>
       </c>
       <c r="AP104" t="n" s="85">
         <v>0.8032775330510622</v>
       </c>
       <c r="AQ104" t="n" s="85">
-        <v>0.9061315347911671</v>
+        <v>0.906066763922504</v>
       </c>
       <c r="AR104" t="n" s="85">
-        <v>0.03026868689533538</v>
+        <v>0.029297919879016667</v>
       </c>
     </row>
     <row r="105">
@@ -14353,16 +14353,16 @@
         <v>8.770521436087226E-4</v>
       </c>
       <c r="U105" t="n" s="85">
-        <v>1.8947431024050212E-7</v>
+        <v>1.8032660181098265E-7</v>
       </c>
       <c r="V105" t="n" s="85">
         <v>0.00145562985155162</v>
       </c>
       <c r="W105" t="n" s="85">
-        <v>3.1361173483683473E-7</v>
+        <v>2.984707319009978E-7</v>
       </c>
       <c r="X105" t="n" s="85">
-        <v>3.1361173483683483E-7</v>
+        <v>2.9847073190099774E-7</v>
       </c>
       <c r="Y105" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14377,52 +14377,52 @@
         <v>0.08371583534335035</v>
       </c>
       <c r="AC105" t="n" s="85">
-        <v>8.057883387276074E-6</v>
+        <v>8.057884919309209E-6</v>
       </c>
       <c r="AD105" t="n" s="85">
-        <v>8.057883387276074E-6</v>
+        <v>8.05788491930921E-6</v>
       </c>
       <c r="AE105" t="n" s="85">
-        <v>1.0234196930953151E-6</v>
+        <v>1.0234198876735863E-6</v>
       </c>
       <c r="AF105" t="n" s="85">
-        <v>1.0234196930953147E-6</v>
+        <v>1.0234198876735863E-6</v>
       </c>
       <c r="AG105" t="n" s="85">
-        <v>6.201188940876664E-9</v>
+        <v>6.201190119877979E-9</v>
       </c>
       <c r="AH105" t="n" s="85">
         <v>0.008656223452868008</v>
       </c>
       <c r="AI105" t="n" s="85">
-        <v>4.581680083530887E-5</v>
+        <v>4.581680954667503E-5</v>
       </c>
       <c r="AJ105" t="n" s="85">
         <v>0.9992488414630909</v>
       </c>
       <c r="AK105" t="n" s="85">
-        <v>0.9999457813281754</v>
+        <v>0.9999455171460305</v>
       </c>
       <c r="AL105" t="n" s="85">
-        <v>0.9998267197754482</v>
+        <v>0.9998250021288146</v>
       </c>
       <c r="AM105" t="n" s="85">
         <v>0.999373952021015</v>
       </c>
       <c r="AN105" t="n" s="85">
-        <v>0.9999618781690395</v>
+        <v>0.9999624169767517</v>
       </c>
       <c r="AO105" t="n" s="85">
-        <v>0.9999141489091807</v>
+        <v>0.9999170045491935</v>
       </c>
       <c r="AP105" t="n" s="85">
         <v>0.8495702396061109</v>
       </c>
       <c r="AQ105" t="n" s="85">
-        <v>0.9356689615940421</v>
+        <v>0.9356313872873689</v>
       </c>
       <c r="AR105" t="n" s="85">
-        <v>0.7128253540186557</v>
+        <v>0.718124242967897</v>
       </c>
     </row>
     <row r="106">
@@ -14445,10 +14445,10 @@
         <v>1.0</v>
       </c>
       <c r="J106" t="n" s="85">
-        <v>2.49605896598924E-7</v>
+        <v>2.495962713871209E-7</v>
       </c>
       <c r="K106" t="n" s="85">
-        <v>2.496058965989239E-7</v>
+        <v>2.495962713871208E-7</v>
       </c>
       <c r="L106" t="n" s="85">
         <v>0.003793892691849024</v>
@@ -14478,16 +14478,16 @@
         <v>0.0017001270048388564</v>
       </c>
       <c r="U106" t="n" s="85">
-        <v>1.3962783003518792E-6</v>
+        <v>1.3820402779310105E-6</v>
       </c>
       <c r="V106" t="n" s="85">
         <v>0.002661718639343454</v>
       </c>
       <c r="W106" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="X106" t="n" s="85">
-        <v>2.1555136479619868E-6</v>
+        <v>2.1335336023047088E-6</v>
       </c>
       <c r="Y106" t="n" s="85">
         <v>0.21966062300973646</v>
@@ -14502,16 +14502,16 @@
         <v>0.17519075854871743</v>
       </c>
       <c r="AC106" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AD106" t="n" s="85">
-        <v>4.6967720859279596E-5</v>
+        <v>4.6967722965156355E-5</v>
       </c>
       <c r="AE106" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AF106" t="n" s="85">
-        <v>6.526750425683953E-6</v>
+        <v>6.526750718325919E-6</v>
       </c>
       <c r="AG106" t="n" s="85">
         <v>1.0</v>
@@ -14520,34 +14520,34 @@
         <v>0.02231063779541878</v>
       </c>
       <c r="AI106" t="n" s="85">
-        <v>1.1175153697925889E-4</v>
+        <v>1.1175154198992181E-4</v>
       </c>
       <c r="AJ106" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK106" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL106" t="n" s="85">
-        <v>0.8910539539646459</v>
+        <v>0.894972986929228</v>
       </c>
       <c r="AM106" t="n" s="85">
         <v>0.9992341682628635</v>
       </c>
       <c r="AN106" t="n" s="85">
-        <v>0.9994685713787195</v>
+        <v>0.9994645758478364</v>
       </c>
       <c r="AO106" t="n" s="85">
-        <v>0.9674306724486299</v>
+        <v>0.9678022214874293</v>
       </c>
       <c r="AP106" t="n" s="85">
         <v>0.9471982953228003</v>
       </c>
       <c r="AQ106" t="n" s="85">
-        <v>0.9896641475688631</v>
+        <v>0.9896563579545263</v>
       </c>
       <c r="AR106" t="n" s="85">
-        <v>0.023496120521098233</v>
+        <v>0.022650536007624584</v>
       </c>
     </row>
     <row r="107">
@@ -14609,10 +14609,10 @@
         <v>0.004584923014855984</v>
       </c>
       <c r="W107" t="n" s="85">
-        <v>2.2123196722708593E-6</v>
+        <v>2.268548225728426E-6</v>
       </c>
       <c r="X107" t="n" s="85">
-        <v>2.212319672270858E-6</v>
+        <v>2.268548225728426E-6</v>
       </c>
       <c r="Y107" t="n" s="85">
         <v>0.31017963373650476</v>
@@ -14627,25 +14627,25 @@
         <v>0.14097779630812562</v>
       </c>
       <c r="AC107" t="n" s="85">
-        <v>4.801863878341826E-5</v>
+        <v>4.9940034868885394E-5</v>
       </c>
       <c r="AD107" t="n" s="85">
-        <v>4.8018638783418244E-5</v>
+        <v>4.994003486888538E-5</v>
       </c>
       <c r="AE107" t="n" s="85">
-        <v>6.6727736337308525E-6</v>
+        <v>6.939779350093478E-6</v>
       </c>
       <c r="AF107" t="n" s="85">
-        <v>6.6727736337308465E-6</v>
+        <v>6.939779350093475E-6</v>
       </c>
       <c r="AG107" t="n" s="85">
-        <v>7.443263560610803E-8</v>
+        <v>7.741100475946043E-8</v>
       </c>
       <c r="AH107" t="n" s="85">
         <v>0.010125158247871595</v>
       </c>
       <c r="AI107" t="n" s="85">
-        <v>9.005143198247796E-5</v>
+        <v>9.365485689573573E-5</v>
       </c>
       <c r="AJ107" t="n" s="85">
         <v>0.998851733560434</v>
@@ -14669,10 +14669,10 @@
         <v>0.9991218108760146</v>
       </c>
       <c r="AQ107" t="n" s="85">
-        <v>0.9998957635167002</v>
+        <v>0.9998956849097432</v>
       </c>
       <c r="AR107" t="n" s="85">
-        <v>0.963485147880272</v>
+        <v>0.9633991501563574</v>
       </c>
     </row>
     <row r="108">
@@ -14695,10 +14695,10 @@
         <v>1.0</v>
       </c>
       <c r="J108" t="n" s="85">
-        <v>2.339531403272012E-6</v>
+        <v>2.339485585945024E-6</v>
       </c>
       <c r="K108" t="n" s="85">
-        <v>2.339531403272012E-6</v>
+        <v>2.339485585945024E-6</v>
       </c>
       <c r="L108" t="n" s="85">
         <v>1.0</v>
@@ -14734,10 +14734,10 @@
         <v>0.003538076608563923</v>
       </c>
       <c r="W108" t="n" s="85">
-        <v>2.171203875708047E-6</v>
+        <v>2.1714433274594245E-6</v>
       </c>
       <c r="X108" t="n" s="85">
-        <v>2.171203875708047E-6</v>
+        <v>2.1714433274594245E-6</v>
       </c>
       <c r="Y108" t="n" s="85">
         <v>0.2295309259513399</v>
@@ -14752,13 +14752,13 @@
         <v>0.10643391811373118</v>
       </c>
       <c r="AC108" t="n" s="85">
-        <v>4.174201618619355E-5</v>
+        <v>4.174938314300145E-5</v>
       </c>
       <c r="AD108" t="n" s="85">
         <v>1.0</v>
       </c>
       <c r="AE108" t="n" s="85">
-        <v>6.257570040039038E-6</v>
+        <v>6.258674433629427E-6</v>
       </c>
       <c r="AF108" t="n" s="85">
         <v>1.0</v>
@@ -14770,22 +14770,22 @@
         <v>0.013372450101996248</v>
       </c>
       <c r="AI108" t="n" s="85">
-        <v>1.464414487950352E-4</v>
+        <v>1.4646729348138013E-4</v>
       </c>
       <c r="AJ108" t="n" s="85">
         <v>0.9992184044676108</v>
       </c>
       <c r="AK108" t="n" s="85">
-        <v>0.9999992976079031</v>
+        <v>0.9999992454502108</v>
       </c>
       <c r="AL108" t="n" s="85">
-        <v>0.9999999999997953</v>
+        <v>0.999999999999784</v>
       </c>
       <c r="AM108" t="n" s="85">
         <v>0.9999459607947965</v>
       </c>
       <c r="AN108" t="n" s="85">
-        <v>0.9999999999999902</v>
+        <v>0.9999999999999909</v>
       </c>
       <c r="AO108" t="n" s="85">
         <v>1.0</v>
@@ -14820,10 +14820,10 @@
         <v>1.0</v>
       </c>
       <c r="J109" t="n" s="85">
-        <v>1.1576146471991003E-7</v>
+        <v>1.1575700076781224E-7</v>
       </c>
       <c r="K109" t="n" s="85">
-        <v>1.1576146471991E-7</v>
+        <v>1.1575700076781223E-7</v>
       </c>
       <c r="L109" t="n" s="85">
         <v>1.0</v>
@@ -14853,16 +14853,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U109" t="n" s="85">
-        <v>1.2434596759971625E-7</v>
+        <v>1.183426169341277E-7</v>
       </c>
       <c r="V109" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W109" t="n" s="85">
-        <v>2.0930060971235353E-7</v>
+        <v>1.991956898107408E-7</v>
       </c>
       <c r="X109" t="n" s="85">
-        <v>2.0930060971235343E-7</v>
+        <v>1.9919568981074075E-7</v>
       </c>
       <c r="Y109" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -14877,52 +14877,52 @@
         <v>0.0755765696538819</v>
       </c>
       <c r="AC109" t="n" s="85">
-        <v>7.0896740275264555E-6</v>
+        <v>7.089675375476723E-6</v>
       </c>
       <c r="AD109" t="n" s="85">
-        <v>7.0896740275264555E-6</v>
+        <v>7.089675375476723E-6</v>
       </c>
       <c r="AE109" t="n" s="85">
-        <v>6.830171161448123E-7</v>
+        <v>6.830172460038869E-7</v>
       </c>
       <c r="AF109" t="n" s="85">
-        <v>6.830171161448121E-7</v>
+        <v>6.830172460038869E-7</v>
       </c>
       <c r="AG109" t="n" s="85">
-        <v>4.138599066029881E-9</v>
+        <v>4.1385998528812096E-9</v>
       </c>
       <c r="AH109" t="n" s="85">
         <v>0.007798131006425883</v>
       </c>
       <c r="AI109" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ109" t="n" s="85">
         <v>0.9983773407696376</v>
       </c>
       <c r="AK109" t="n" s="85">
-        <v>0.9951115203647525</v>
+        <v>0.9952916901213726</v>
       </c>
       <c r="AL109" t="n" s="85">
-        <v>0.7605336586387976</v>
+        <v>0.7690114207810657</v>
       </c>
       <c r="AM109" t="n" s="85">
         <v>0.9908197638251905</v>
       </c>
       <c r="AN109" t="n" s="85">
-        <v>0.9853558745239412</v>
+        <v>0.985335832147822</v>
       </c>
       <c r="AO109" t="n" s="85">
-        <v>0.6768061745494813</v>
+        <v>0.6813234862781512</v>
       </c>
       <c r="AP109" t="n" s="85">
         <v>0.6313981370233767</v>
       </c>
       <c r="AQ109" t="n" s="85">
-        <v>0.42425087448171767</v>
+        <v>0.4240666935129906</v>
       </c>
       <c r="AR109" t="n" s="85">
-        <v>4.580288088797264E-6</v>
+        <v>4.402986358506734E-6</v>
       </c>
     </row>
     <row r="110">
@@ -14945,7 +14945,7 @@
         <v>1.0</v>
       </c>
       <c r="J110" t="n" s="85">
-        <v>3.139685926359801E-7</v>
+        <v>3.1396614678872976E-7</v>
       </c>
       <c r="K110" t="n" s="85">
         <v>1.0</v>
@@ -14978,16 +14978,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U110" t="n" s="85">
-        <v>2.429029416414488E-7</v>
+        <v>2.3335476683356373E-7</v>
       </c>
       <c r="V110" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W110" t="n" s="85">
-        <v>4.08857211483243E-7</v>
+        <v>3.92785593831082E-7</v>
       </c>
       <c r="X110" t="n" s="85">
-        <v>4.08857211483243E-7</v>
+        <v>3.92785593831082E-7</v>
       </c>
       <c r="Y110" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -15002,52 +15002,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC110" t="n" s="85">
-        <v>1.0604170427980372E-5</v>
+        <v>1.0604172065004714E-5</v>
       </c>
       <c r="AD110" t="n" s="85">
-        <v>1.0604170427980373E-5</v>
+        <v>1.060417206500472E-5</v>
       </c>
       <c r="AE110" t="n" s="85">
-        <v>1.3468145251880397E-6</v>
+        <v>1.3468147331005211E-6</v>
       </c>
       <c r="AF110" t="n" s="85">
-        <v>1.3468145251880397E-6</v>
+        <v>1.3468147331005207E-6</v>
       </c>
       <c r="AG110" t="n" s="85">
-        <v>8.160723437848177E-9</v>
+        <v>8.160724697644454E-9</v>
       </c>
       <c r="AH110" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI110" t="n" s="85">
-        <v>6.285663074607883E-5</v>
+        <v>6.285664044978535E-5</v>
       </c>
       <c r="AJ110" t="n" s="85">
         <v>0.999074525592067</v>
       </c>
       <c r="AK110" t="n" s="85">
-        <v>0.9998767616587771</v>
+        <v>0.9998810538221534</v>
       </c>
       <c r="AL110" t="n" s="85">
-        <v>0.999822710306841</v>
+        <v>0.999825914104698</v>
       </c>
       <c r="AM110" t="n" s="85">
         <v>0.9994506918965304</v>
       </c>
       <c r="AN110" t="n" s="85">
-        <v>0.9999945527383213</v>
+        <v>0.9999944753555254</v>
       </c>
       <c r="AO110" t="n" s="85">
-        <v>0.9999951530610824</v>
+        <v>0.9999951348256513</v>
       </c>
       <c r="AP110" t="n" s="85">
         <v>0.8858601938237158</v>
       </c>
       <c r="AQ110" t="n" s="85">
-        <v>0.9705892471903226</v>
+        <v>0.9705669616082776</v>
       </c>
       <c r="AR110" t="n" s="85">
-        <v>0.9704511071835019</v>
+        <v>0.970057618290364</v>
       </c>
     </row>
     <row r="111">
@@ -15103,16 +15103,16 @@
         <v>8.423198706941442E-4</v>
       </c>
       <c r="U111" t="n" s="85">
-        <v>1.355686607732622E-7</v>
+        <v>1.290234851081112E-7</v>
       </c>
       <c r="V111" t="n" s="85">
         <v>0.0014802975462485366</v>
       </c>
       <c r="W111" t="n" s="85">
-        <v>2.2819078597130956E-7</v>
+        <v>2.1717385880497138E-7</v>
       </c>
       <c r="X111" t="n" s="85">
-        <v>2.2819078597130943E-7</v>
+        <v>2.171738588049713E-7</v>
       </c>
       <c r="Y111" t="n" s="85">
         <v>0.19753696403653728</v>
@@ -15127,52 +15127,52 @@
         <v>0.08223921870981932</v>
       </c>
       <c r="AC111" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839567E-6</v>
       </c>
       <c r="AD111" t="n" s="85">
-        <v>7.729553125230883E-6</v>
+        <v>7.729554594839565E-6</v>
       </c>
       <c r="AE111" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.446622562517481E-7</v>
       </c>
       <c r="AF111" t="n" s="85">
-        <v>7.446621146723866E-7</v>
+        <v>7.44662256251748E-7</v>
       </c>
       <c r="AG111" t="n" s="85">
-        <v>4.512123025150081E-9</v>
+        <v>4.512123883017668E-9</v>
       </c>
       <c r="AH111" t="n" s="85">
         <v>0.008501433534860568</v>
       </c>
       <c r="AI111" t="n" s="85">
-        <v>3.475273799512797E-5</v>
+        <v>3.475274460290438E-5</v>
       </c>
       <c r="AJ111" t="n" s="85">
         <v>0.9989933996778886</v>
       </c>
       <c r="AK111" t="n" s="85">
-        <v>0.9993467150822252</v>
+        <v>0.9993754160141709</v>
       </c>
       <c r="AL111" t="n" s="85">
-        <v>0.8826282509635314</v>
+        <v>0.886933720512198</v>
       </c>
       <c r="AM111" t="n" s="85">
         <v>0.9988703276404598</v>
       </c>
       <c r="AN111" t="n" s="85">
-        <v>0.9988334776019402</v>
+        <v>0.9988261375498748</v>
       </c>
       <c r="AO111" t="n" s="85">
-        <v>0.9629906858988818</v>
+        <v>0.9634111879062652</v>
       </c>
       <c r="AP111" t="n" s="85">
         <v>0.7854043697021077</v>
       </c>
       <c r="AQ111" t="n" s="85">
-        <v>0.8685168108475977</v>
+        <v>0.868430561787046</v>
       </c>
       <c r="AR111" t="n" s="85">
-        <v>6.51940675003324E-4</v>
+        <v>6.276488191408059E-4</v>
       </c>
     </row>
   </sheetData>
